--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -10,14 +10,14 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -46,8 +46,27 @@
       <sz val="14"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Open Sans"/>
+      <family val="2"/>
+      <color rgb="FF676A6C"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <color rgb="FF1F1F1F"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -57,6 +76,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.1499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -99,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -117,9 +148,20 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,18 +505,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F162"/>
+  <dimension ref="A1:O337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="39.140625" customWidth="1" min="1" max="1"/>
-    <col width="44.42578125" customWidth="1" min="2" max="2"/>
-    <col width="22.7109375" customWidth="1" min="3" max="3"/>
-    <col width="19.5703125" customWidth="1" min="4" max="4"/>
+    <col width="42.140625" customWidth="1" style="19" min="1" max="1"/>
+    <col width="44.42578125" customWidth="1" style="19" min="2" max="2"/>
+    <col width="22.7109375" customWidth="1" style="19" min="3" max="3"/>
+    <col width="19.5703125" customWidth="1" style="19" min="4" max="4"/>
+    <col width="13.5703125" customWidth="1" style="19" min="6" max="6"/>
+    <col width="10.5703125" bestFit="1" customWidth="1" style="19" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -512,7 +556,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>30A13795</t>
+          <t>auto1198</t>
         </is>
       </c>
     </row>
@@ -560,27 +604,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[16]/td[1]/img</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[2]/td[1]/img</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[16]/td[2]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[2]/td[2]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[16]/td[3]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[2]/td[3]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[16]/td[4]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[2]/td[4]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[16]/td[5]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[2]/td[5]</t>
         </is>
       </c>
     </row>
@@ -591,15 +635,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>342</v>
+        <v>1198</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>_26122024_342</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
+          <t>_12052025_1198</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1" s="19">
       <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Xe</t>
@@ -608,11 +652,11 @@
       <c r="B8" s="2" t="n"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15A26804</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
+          <t>15A28887</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" s="19">
       <c r="A9" s="4" t="inlineStr">
         <is>
           <t>Mã đàm</t>
@@ -620,16 +664,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>084</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>207</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
+          <t>084</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" s="19">
       <c r="A10" s="4" t="inlineStr">
         <is>
           <t>Vị trí</t>
@@ -637,16 +681,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>188, Quán Trữ, P. Đồng Hòa, Q. Kiến An, TP. Hải Phòng</t>
+          <t>Cầu Rào, P. Đằng Giang, Q. Ngô Quyền, TP. Hải Phòng</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>188, Quán Trữ, P. Đồng Hòa, Q. Kiến An, TP. Hải Phòng</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
+          <t>Thiên Lôi, P. Đằng Giang, Q. Ngô Quyền, TP. Hải Phòng</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1" s="19">
       <c r="A11" s="4" t="inlineStr">
         <is>
           <t>Vĩ độ</t>
@@ -654,11 +698,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20.8315</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="18.75" customHeight="1">
+          <t>20.82967</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" s="19">
       <c r="A12" s="4" t="inlineStr">
         <is>
           <t>Kinh độ</t>
@@ -666,11 +710,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>106.6644</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
+          <t>106.6991</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="18.75" customHeight="1" s="19">
       <c r="A13" s="4" t="inlineStr">
         <is>
           <t>Thời gian</t>
@@ -678,16 +722,16 @@
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>05:17:06</t>
+          <t>17:29:08</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>05:17:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
+          <t>17:29:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="18.75" customHeight="1" s="19">
       <c r="A14" s="4" t="inlineStr">
         <is>
           <t>Vận tốc GPS</t>
@@ -695,79 +739,84 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1" s="19">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>Loại xe</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4 chỗ Nguyễn Gia - KIA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4 chỗ Nguyễn Gia - KIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="18.75" customHeight="1" s="19">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>Trạng thái</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sẵn sàng</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Sẵn sàng</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Sẵn sàng</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="18.75" customHeight="1" s="19">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>Cuốc khách</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3 (TTĐH:3;App:0;Vẫy:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="1" s="19">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>Doanh thu</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>Loại xe</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5 chỗ Nguyễn Gia - VIOS</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="4" t="inlineStr">
-        <is>
-          <t>Trạng thái</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Sẵn sàng</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Sẵn sàng</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Sẵn sàng</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="5" t="inlineStr">
-        <is>
-          <t>Cuốc khách</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>(TTĐH:;App:;Vẫy:)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>Doanh thu</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="18.75" customHeight="1">
+    <row r="19" ht="18.75" customHeight="1" s="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
           <t>Lái xe</t>
@@ -775,21 +824,21 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>baosreview-0988999999</t>
+          <t>batrinh209a-0988877478</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PHẠM VĂN KÍCH</t>
+          <t>PHẠM VĂN AN</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PHẠM VĂN KÍCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="18.75" customHeight="1">
+          <t>PHẠM VĂN AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="18.75" customHeight="1" s="19">
       <c r="A20" s="4" t="inlineStr">
         <is>
           <t>Điện thoại</t>
@@ -797,16 +846,16 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0975684954</t>
+          <t>0375000859</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0975684954</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="18.75" customHeight="1">
+          <t>0375000859</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="18.75" customHeight="1" s="19">
       <c r="A21" s="4" t="inlineStr">
         <is>
           <t>Kết nối</t>
@@ -818,7 +867,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="18.75" customHeight="1">
+    <row r="22" ht="18.75" customHeight="1" s="19">
       <c r="A22" s="4" t="inlineStr">
         <is>
           <t>Phiên bản ứng dụng</t>
@@ -826,41 +875,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>510170</t>
+          <t>511010</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>510170</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="11" t="inlineStr">
+          <t>511010</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="1" s="19">
+      <c r="A23" s="15" t="inlineStr">
         <is>
           <t>Mã khuyến mại</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Auto_KM_Chung332</t>
+          <t>Auto_KM_Chung1152</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Auto_KM_Rieng334</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="11" t="inlineStr">
+          <t>Auto_KM_Rieng1154</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="18.75" customHeight="1" s="19">
+      <c r="A24" s="15" t="inlineStr">
         <is>
           <t>Tài khoản khuyến mại</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>100000336</t>
+          <t>2100001184</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -869,20 +918,20 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="11" t="inlineStr">
+    <row r="25" ht="18.75" customHeight="1" s="19">
+      <c r="A25" s="15" t="inlineStr">
         <is>
           <t>Cài app mới</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Auto_CaiAppMoi291</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="11" t="inlineStr">
+          <t>Auto_CaiAppMoi504</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="18.75" customHeight="1" s="19">
+      <c r="A26" s="15" t="inlineStr">
         <is>
           <t>Tài khoản khuyến mại 2</t>
         </is>
@@ -893,8 +942,8 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="11" t="inlineStr">
+    <row r="27" ht="18.75" customHeight="1" s="19">
+      <c r="A27" s="15" t="inlineStr">
         <is>
           <t>Nhóm tài khoản</t>
         </is>
@@ -905,103 +954,123 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="11" t="inlineStr">
+    <row r="28" ht="18.75" customHeight="1" s="19">
+      <c r="A28" s="15" t="inlineStr">
         <is>
           <t>Tạo khách hàng</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Auto_customer_294</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="11" t="inlineStr">
+          <t>Auto_customer_1183</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="18.75" customHeight="1" s="19">
+      <c r="A29" s="15" t="inlineStr">
         <is>
           <t>Đối tác</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Auto_name_partner_295</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="11" t="inlineStr">
+          <t>Auto_name_partner_1178</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="18.75" customHeight="1" s="19">
+      <c r="A30" s="15" t="inlineStr">
         <is>
           <t>Hợp đồng</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Auto_298</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="11" t="inlineStr">
+          <t>Auto1147</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="18.75" customHeight="1" s="19">
+      <c r="A31" s="15" t="inlineStr">
         <is>
           <t>Quản lý thẻ</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Auto_338</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="11" t="inlineStr">
+          <t>Auto_1159</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="18.75" customHeight="1" s="19">
+      <c r="A32" s="15" t="inlineStr">
         <is>
           <t>Tạo tài khoản</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>auto341</t>
-        </is>
-      </c>
-    </row>
-    <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" s="11" t="inlineStr">
+          <t>auto1174</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="18.75" customHeight="1" s="19">
+      <c r="A33" s="15" t="inlineStr">
         <is>
           <t>Tạo thông báo</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Auto_ThongBao_342</t>
-        </is>
-      </c>
-    </row>
-    <row r="34" ht="18.75" customHeight="1">
-      <c r="A34" s="11" t="inlineStr">
+          <t>Auto_ThongBao_547</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="18.75" customHeight="1" s="19">
+      <c r="A34" s="15" t="inlineStr">
         <is>
           <t>Tạo thông báo v2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Auto_ThongBaoV2_254</t>
-        </is>
+          <t>Auto_ThongBaoV2_1193</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="18.75" customHeight="1" s="19">
+      <c r="A35" s="15" t="inlineStr">
+        <is>
+          <t>serial thẻ trả trước</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>9999800010000587</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="18.75" customHeight="1" s="19">
+      <c r="A36" s="15" t="inlineStr">
+        <is>
+          <t>Số dư</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Xuất excel đầy đủ thông tin</t>
+          <t>Kiểu thông báo(Thông báo)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>1. Tải file Excel về máy
-2. Các cột và dữ liệu dòng đầu Web và file Excel phải giống nhau
-(Xem file log)</t>
+          <t>Trường "Kiểu thông báo" hiện thị: Thông báo</t>
         </is>
       </c>
     </row>
@@ -1011,6 +1080,26 @@
           <t>Lộ trình - Tìm kiếm</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nạp tiền</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Được tặng tiền</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Sử dụng tiền</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Tặng tiền</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
@@ -1018,12 +1107,48 @@
           <t>Mở tab mới với lộ trình xe vừa tìm kiếm, chuyển tới trang: "THEO DÕI LỘ TRÌNH - STAXI"</t>
         </is>
       </c>
-    </row>
-    <row r="47">
+      <c r="F45" s="12">
+        <f>SUM(F46:F69)</f>
+        <v/>
+      </c>
+      <c r="L45" s="12">
+        <f>SUM(L46:L73)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" t="n">
+        <v>50000</v>
+      </c>
+      <c r="I46" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L46" t="n">
+        <v>175000</v>
+      </c>
+      <c r="O46" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1" s="19">
       <c r="B47" t="inlineStr">
         <is>
-          <t>08:46:19</t>
-        </is>
+          <t>17:03:46</t>
+        </is>
+      </c>
+      <c r="F47" s="11" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="L47" t="n">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="F48" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="L48" t="n">
+        <v>175000</v>
       </c>
     </row>
     <row r="49">
@@ -1032,15 +1157,150 @@
           <t>08:39:00</t>
         </is>
       </c>
+      <c r="F49" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="L49" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Nạp tiền</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="L50" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Tiền được tặng</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="L51" t="n">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Sử dụng tiền</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>389000</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L52" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tặng tiền </t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L53" t="n">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Hàng</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="L54" t="n">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="F55" t="n">
+        <v>50000</v>
+      </c>
+      <c r="L55" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="F56" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L56" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="F57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L57" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="F58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L58" t="n">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="F59" t="n">
+        <v>140000</v>
+      </c>
+      <c r="L59" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="60">
       <c r="B60" t="n">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="F60" t="n">
+        <v>100000</v>
+      </c>
+      <c r="L60" t="n">
+        <v>50000</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="n">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="F61" t="n">
+        <v>18</v>
+      </c>
+      <c r="L61" t="n">
+        <v>175000</v>
       </c>
     </row>
     <row r="62">
@@ -1054,6 +1314,12 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F62" t="n">
+        <v>5</v>
+      </c>
+      <c r="L62" t="n">
+        <v>175000</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1066,6 +1332,12 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F63" t="n">
+        <v>70000</v>
+      </c>
+      <c r="L63" t="n">
+        <v>175000</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1078,6 +1350,12 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F64" t="n">
+        <v>70000</v>
+      </c>
+      <c r="L64" t="n">
+        <v>80000</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1088,6 +1366,12 @@
       <c r="B65" t="n">
         <v>0</v>
       </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1096,7 +1380,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="F66" t="n">
+        <v>120000</v>
+      </c>
+      <c r="L66" t="n">
+        <v>60000</v>
       </c>
     </row>
     <row r="67">
@@ -1108,6 +1398,12 @@
       <c r="B67" t="n">
         <v>0</v>
       </c>
+      <c r="F67" t="n">
+        <v>120000</v>
+      </c>
+      <c r="L67" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1118,6 +1414,20 @@
       <c r="B68" t="n">
         <v>6</v>
       </c>
+      <c r="F68" t="n">
+        <v>51000</v>
+      </c>
+      <c r="L68" t="n">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="F69" t="n">
+        <v>50000</v>
+      </c>
+      <c r="L69" t="n">
+        <v>175000</v>
+      </c>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
@@ -1125,6 +1435,9 @@
           <t>0</t>
         </is>
       </c>
+      <c r="L70" t="n">
+        <v>175000</v>
+      </c>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
@@ -1132,6 +1445,9 @@
           <t>0</t>
         </is>
       </c>
+      <c r="L71" t="n">
+        <v>30000</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1144,6 +1460,9 @@
           <t>0</t>
         </is>
       </c>
+      <c r="L72" t="n">
+        <v>199000</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1156,6 +1475,9 @@
           <t>0</t>
         </is>
       </c>
+      <c r="L73" t="n">
+        <v>199000</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1188,7 +1510,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77">
@@ -1199,7 +1521,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1554,7 @@
     </row>
     <row r="81">
       <c r="B81" t="n">
-        <v>237</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82">
@@ -1290,7 +1612,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>203</t>
         </is>
       </c>
     </row>
@@ -1316,253 +1638,537 @@
         </is>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Số tiền nợ(7.7.4)</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Công nợ đã chốt, nhưng chưa thanh toán(7.7.5)</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" ht="30" customHeight="1" s="19">
+      <c r="A93" s="13" t="inlineStr">
+        <is>
+          <t>Công nợ thanh toán 1 phần_phần đã thanh toán(7.7.7)</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Số dư 1</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Tổng các cuốc chưa thanh toán(7.7.10)</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2176000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Số nợ còn 7.7.7</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>2791100</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Số dư 2</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>4967100</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Số tiền nợ chốt</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>24157000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Số tiền đã thanh toán</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Số nợ còn </t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>24157000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Tổng Cước xe(thanh toán 1 phần)</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Số dư 7.7.3</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>4967100</t>
+        </is>
+      </c>
+      <c r="C102" s="14" t="inlineStr">
+        <is>
+          <t>-4.967.100 ₫</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Tong tien hd 7.7.7</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>24157000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>hạn mức(7.7.3)</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>7000000</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>số tiền nợ 7.7.4</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Số tiền cuốc 7.7.10</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Số tiền(7.7.5)</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>4348000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Số tiền cuốc 7.7.10</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>4348000</v>
+      </c>
+    </row>
     <row r="120">
-      <c r="A120" s="8" t="inlineStr"/>
-      <c r="B120" s="9" t="inlineStr"/>
-      <c r="C120" s="8" t="inlineStr"/>
-      <c r="D120" s="8" t="inlineStr"/>
-      <c r="E120" s="8" t="inlineStr"/>
-      <c r="F120" s="8" t="inlineStr"/>
+      <c r="A120" s="8" t="inlineStr">
+        <is>
+          <t>STT</t>
+        </is>
+      </c>
+      <c r="B120" s="9" t="n"/>
+      <c r="C120" s="8" t="n"/>
+      <c r="D120" s="8" t="n"/>
+      <c r="E120" s="8" t="n"/>
+      <c r="F120" s="8" t="n"/>
     </row>
     <row r="121">
-      <c r="A121" s="8" t="inlineStr"/>
-      <c r="B121" s="8" t="inlineStr"/>
-      <c r="C121" s="8" t="inlineStr"/>
-      <c r="D121" s="8" t="inlineStr"/>
-      <c r="E121" s="8" t="inlineStr"/>
-      <c r="F121" s="8" t="inlineStr"/>
+      <c r="A121" s="8" t="inlineStr">
+        <is>
+          <t>Tên lái xe</t>
+        </is>
+      </c>
+      <c r="B121" s="8" t="n"/>
+      <c r="C121" s="8" t="n"/>
+      <c r="D121" s="8" t="n"/>
+      <c r="E121" s="8" t="n"/>
+      <c r="F121" s="8" t="n"/>
     </row>
     <row r="122">
-      <c r="A122" s="8" t="inlineStr"/>
-      <c r="B122" s="8" t="inlineStr"/>
-      <c r="C122" s="8" t="inlineStr"/>
-      <c r="D122" s="8" t="inlineStr"/>
-      <c r="E122" s="8" t="inlineStr"/>
-      <c r="F122" s="8" t="inlineStr"/>
+      <c r="A122" s="8" t="inlineStr">
+        <is>
+          <t>Mã lái xe</t>
+        </is>
+      </c>
+      <c r="B122" s="8" t="n"/>
+      <c r="C122" s="8" t="n"/>
+      <c r="D122" s="8" t="n"/>
+      <c r="E122" s="8" t="n"/>
+      <c r="F122" s="8" t="n"/>
     </row>
     <row r="123">
-      <c r="A123" s="8" t="inlineStr"/>
-      <c r="B123" s="8" t="inlineStr"/>
-      <c r="C123" s="8" t="inlineStr"/>
-      <c r="D123" s="8" t="inlineStr"/>
-      <c r="E123" s="8" t="inlineStr"/>
-      <c r="F123" s="8" t="inlineStr"/>
+      <c r="A123" s="8" t="inlineStr">
+        <is>
+          <t>Biển số</t>
+        </is>
+      </c>
+      <c r="B123" s="8" t="n"/>
+      <c r="C123" s="8" t="n"/>
+      <c r="D123" s="8" t="n"/>
+      <c r="E123" s="8" t="n"/>
+      <c r="F123" s="8" t="n"/>
     </row>
     <row r="124">
-      <c r="A124" s="8" t="inlineStr"/>
-      <c r="B124" s="8" t="inlineStr"/>
-      <c r="C124" s="8" t="inlineStr"/>
-      <c r="D124" s="8" t="inlineStr"/>
-      <c r="E124" s="8" t="inlineStr"/>
-      <c r="F124" s="8" t="inlineStr"/>
+      <c r="A124" s="8" t="inlineStr">
+        <is>
+          <t>Số hiệu</t>
+        </is>
+      </c>
+      <c r="B124" s="8" t="n"/>
+      <c r="C124" s="8" t="n"/>
+      <c r="D124" s="8" t="n"/>
+      <c r="E124" s="8" t="n"/>
+      <c r="F124" s="8" t="n"/>
     </row>
     <row r="125">
-      <c r="A125" s="8" t="inlineStr"/>
-      <c r="B125" s="8" t="inlineStr"/>
-      <c r="C125" s="8" t="inlineStr"/>
-      <c r="D125" s="8" t="inlineStr"/>
-      <c r="E125" s="8" t="inlineStr"/>
-      <c r="F125" s="8" t="inlineStr"/>
+      <c r="A125" s="8" t="inlineStr">
+        <is>
+          <t>SĐT khách hàng</t>
+        </is>
+      </c>
+      <c r="B125" s="8" t="n"/>
+      <c r="C125" s="8" t="n"/>
+      <c r="D125" s="8" t="n"/>
+      <c r="E125" s="8" t="n"/>
+      <c r="F125" s="8" t="n"/>
     </row>
     <row r="126">
-      <c r="A126" s="8" t="inlineStr"/>
-      <c r="B126" s="8" t="inlineStr"/>
-      <c r="C126" s="8" t="inlineStr"/>
-      <c r="D126" s="8" t="inlineStr"/>
-      <c r="E126" s="8" t="inlineStr"/>
-      <c r="F126" s="8" t="inlineStr"/>
+      <c r="A126" s="8" t="inlineStr">
+        <is>
+          <t>Địa chỉ đón khách</t>
+        </is>
+      </c>
+      <c r="B126" s="8" t="n"/>
+      <c r="C126" s="8" t="n"/>
+      <c r="D126" s="8" t="n"/>
+      <c r="E126" s="8" t="n"/>
+      <c r="F126" s="8" t="n"/>
     </row>
     <row r="127">
-      <c r="A127" s="8" t="inlineStr"/>
-      <c r="B127" s="8" t="inlineStr"/>
-      <c r="C127" s="8" t="inlineStr"/>
-      <c r="D127" s="8" t="inlineStr"/>
-      <c r="E127" s="8" t="inlineStr"/>
-      <c r="F127" s="8" t="inlineStr"/>
+      <c r="A127" s="8" t="inlineStr">
+        <is>
+          <t>Địa chỉ trả khách</t>
+        </is>
+      </c>
+      <c r="B127" s="8" t="n"/>
+      <c r="C127" s="8" t="n"/>
+      <c r="D127" s="8" t="n"/>
+      <c r="E127" s="8" t="n"/>
+      <c r="F127" s="8" t="n"/>
     </row>
     <row r="128">
-      <c r="A128" s="8" t="inlineStr"/>
-      <c r="B128" s="8" t="inlineStr"/>
-      <c r="C128" s="8" t="inlineStr"/>
-      <c r="D128" s="8" t="inlineStr"/>
-      <c r="E128" s="8" t="inlineStr"/>
-      <c r="F128" s="8" t="inlineStr"/>
+      <c r="A128" s="8" t="inlineStr">
+        <is>
+          <t>Thời gian cuốc đặt</t>
+        </is>
+      </c>
+      <c r="B128" s="8" t="n"/>
+      <c r="C128" s="8" t="n"/>
+      <c r="D128" s="8" t="n"/>
+      <c r="E128" s="8" t="n"/>
+      <c r="F128" s="8" t="n"/>
     </row>
     <row r="129">
-      <c r="A129" s="8" t="inlineStr"/>
-      <c r="B129" s="8" t="inlineStr"/>
-      <c r="C129" s="8" t="inlineStr"/>
-      <c r="D129" s="8" t="inlineStr"/>
-      <c r="E129" s="8" t="inlineStr"/>
-      <c r="F129" s="8" t="inlineStr"/>
+      <c r="A129" s="8" t="inlineStr">
+        <is>
+          <t>Thời gian cuốc kết thúc</t>
+        </is>
+      </c>
+      <c r="B129" s="8" t="n"/>
+      <c r="C129" s="8" t="n"/>
+      <c r="D129" s="8" t="n"/>
+      <c r="E129" s="8" t="n"/>
+      <c r="F129" s="8" t="n"/>
     </row>
     <row r="130">
-      <c r="A130" s="8" t="inlineStr"/>
-      <c r="B130" s="8" t="inlineStr"/>
-      <c r="C130" s="8" t="inlineStr"/>
-      <c r="D130" s="8" t="inlineStr"/>
-      <c r="E130" s="8" t="inlineStr"/>
-      <c r="F130" s="8" t="inlineStr"/>
+      <c r="A130" s="8" t="inlineStr">
+        <is>
+          <t>Số Km</t>
+        </is>
+      </c>
+      <c r="B130" s="8" t="n"/>
+      <c r="C130" s="8" t="n"/>
+      <c r="D130" s="8" t="n"/>
+      <c r="E130" s="8" t="n"/>
+      <c r="F130" s="8" t="n"/>
     </row>
     <row r="131">
-      <c r="A131" s="8" t="inlineStr"/>
-      <c r="B131" s="8" t="inlineStr"/>
-      <c r="C131" s="8" t="inlineStr"/>
-      <c r="D131" s="8" t="inlineStr"/>
-      <c r="E131" s="8" t="inlineStr"/>
-      <c r="F131" s="8" t="inlineStr"/>
+      <c r="A131" s="8" t="inlineStr">
+        <is>
+          <t>Cước di chuyển</t>
+        </is>
+      </c>
+      <c r="B131" s="8" t="n"/>
+      <c r="C131" s="8" t="n"/>
+      <c r="D131" s="8" t="n"/>
+      <c r="E131" s="8" t="n"/>
+      <c r="F131" s="8" t="n"/>
     </row>
     <row r="132">
-      <c r="A132" s="8" t="inlineStr"/>
-      <c r="B132" s="8" t="inlineStr"/>
-      <c r="C132" s="8" t="inlineStr"/>
-      <c r="D132" s="8" t="inlineStr"/>
-      <c r="E132" s="8" t="inlineStr"/>
-      <c r="F132" s="8" t="inlineStr"/>
+      <c r="A132" s="8" t="inlineStr">
+        <is>
+          <t>Cước chờ</t>
+        </is>
+      </c>
+      <c r="B132" s="8" t="n"/>
+      <c r="C132" s="8" t="n"/>
+      <c r="D132" s="8" t="n"/>
+      <c r="E132" s="8" t="n"/>
+      <c r="F132" s="8" t="n"/>
     </row>
     <row r="133">
-      <c r="A133" s="8" t="inlineStr"/>
-      <c r="B133" s="8" t="inlineStr"/>
-      <c r="C133" s="8" t="inlineStr"/>
-      <c r="D133" s="8" t="inlineStr"/>
-      <c r="E133" s="8" t="inlineStr"/>
-      <c r="F133" s="8" t="inlineStr"/>
+      <c r="A133" s="8" t="inlineStr">
+        <is>
+          <t>Phụ phí</t>
+        </is>
+      </c>
+      <c r="B133" s="8" t="n"/>
+      <c r="C133" s="8" t="n"/>
+      <c r="D133" s="8" t="n"/>
+      <c r="E133" s="8" t="n"/>
+      <c r="F133" s="8" t="n"/>
     </row>
     <row r="134">
-      <c r="A134" s="8" t="inlineStr"/>
-      <c r="B134" s="8" t="inlineStr"/>
-      <c r="C134" s="8" t="inlineStr"/>
-      <c r="D134" s="8" t="inlineStr"/>
-      <c r="E134" s="8" t="inlineStr"/>
-      <c r="F134" s="8" t="inlineStr"/>
+      <c r="A134" s="8" t="inlineStr">
+        <is>
+          <t>Doanh thu</t>
+        </is>
+      </c>
+      <c r="B134" s="8" t="n"/>
+      <c r="C134" s="8" t="n"/>
+      <c r="D134" s="8" t="n"/>
+      <c r="E134" s="8" t="n"/>
+      <c r="F134" s="8" t="n"/>
     </row>
     <row r="135">
-      <c r="A135" s="8" t="inlineStr"/>
-      <c r="B135" s="8" t="inlineStr"/>
-      <c r="C135" s="8" t="inlineStr"/>
-      <c r="D135" s="8" t="inlineStr"/>
-      <c r="E135" s="8" t="inlineStr"/>
-      <c r="F135" s="8" t="inlineStr"/>
+      <c r="A135" s="8" t="inlineStr">
+        <is>
+          <t>Thực thu</t>
+        </is>
+      </c>
+      <c r="B135" s="8" t="n"/>
+      <c r="C135" s="8" t="n"/>
+      <c r="D135" s="8" t="n"/>
+      <c r="E135" s="8" t="n"/>
+      <c r="F135" s="8" t="n"/>
     </row>
     <row r="136">
-      <c r="A136" s="8" t="inlineStr"/>
-      <c r="B136" s="8" t="inlineStr"/>
-      <c r="C136" s="8" t="inlineStr"/>
-      <c r="D136" s="8" t="inlineStr"/>
-      <c r="E136" s="8" t="inlineStr"/>
-      <c r="F136" s="8" t="inlineStr"/>
+      <c r="A136" s="8" t="inlineStr">
+        <is>
+          <t>Ghi chú</t>
+        </is>
+      </c>
+      <c r="B136" s="8" t="n"/>
+      <c r="C136" s="8" t="n"/>
+      <c r="D136" s="8" t="n"/>
+      <c r="E136" s="8" t="n"/>
+      <c r="F136" s="8" t="n"/>
     </row>
     <row r="137">
-      <c r="A137" s="8" t="inlineStr"/>
-      <c r="B137" s="8" t="inlineStr"/>
-      <c r="C137" s="8" t="inlineStr"/>
-      <c r="D137" s="8" t="inlineStr"/>
-      <c r="E137" s="8" t="inlineStr"/>
-      <c r="F137" s="8" t="inlineStr"/>
+      <c r="A137" s="8" t="inlineStr">
+        <is>
+          <t>Mã KM/Số tiền KM</t>
+        </is>
+      </c>
+      <c r="B137" s="8" t="n"/>
+      <c r="C137" s="8" t="n"/>
+      <c r="D137" s="8" t="n"/>
+      <c r="E137" s="8" t="n"/>
+      <c r="F137" s="8" t="n"/>
     </row>
     <row r="138">
-      <c r="A138" s="8" t="inlineStr"/>
-      <c r="B138" s="8" t="inlineStr"/>
-      <c r="C138" s="8" t="inlineStr"/>
-      <c r="D138" s="8" t="inlineStr"/>
-      <c r="E138" s="8" t="inlineStr"/>
-      <c r="F138" s="8" t="inlineStr"/>
+      <c r="A138" s="8" t="inlineStr">
+        <is>
+          <t>Số tiền thanh toán</t>
+        </is>
+      </c>
+      <c r="B138" s="8" t="n"/>
+      <c r="C138" s="8" t="n"/>
+      <c r="D138" s="8" t="n"/>
+      <c r="E138" s="8" t="n"/>
+      <c r="F138" s="8" t="n"/>
     </row>
     <row r="139">
-      <c r="A139" s="8" t="inlineStr"/>
-      <c r="B139" s="8" t="inlineStr"/>
-      <c r="C139" s="8" t="inlineStr"/>
-      <c r="D139" s="8" t="inlineStr"/>
-      <c r="E139" s="8" t="inlineStr"/>
-      <c r="F139" s="8" t="inlineStr"/>
+      <c r="A139" s="8" t="inlineStr">
+        <is>
+          <t>Hình thức thanh toán</t>
+        </is>
+      </c>
+      <c r="B139" s="8" t="n"/>
+      <c r="C139" s="8" t="n"/>
+      <c r="D139" s="8" t="n"/>
+      <c r="E139" s="8" t="n"/>
+      <c r="F139" s="8" t="n"/>
     </row>
     <row r="140">
-      <c r="A140" s="8" t="inlineStr"/>
-      <c r="B140" s="8" t="inlineStr"/>
-      <c r="C140" s="8" t="inlineStr"/>
-      <c r="D140" s="8" t="inlineStr"/>
-      <c r="E140" s="8" t="inlineStr"/>
-      <c r="F140" s="8" t="inlineStr"/>
+      <c r="A140" s="8" t="inlineStr">
+        <is>
+          <t>Lộ trình</t>
+        </is>
+      </c>
+      <c r="B140" s="8" t="n"/>
+      <c r="C140" s="8" t="n"/>
+      <c r="D140" s="8" t="n"/>
+      <c r="E140" s="8" t="n"/>
+      <c r="F140" s="8" t="n"/>
     </row>
     <row r="141">
-      <c r="A141" s="8" t="inlineStr"/>
-      <c r="B141" s="8" t="inlineStr"/>
-      <c r="C141" s="8" t="inlineStr"/>
-      <c r="D141" s="8" t="inlineStr"/>
-      <c r="E141" s="8" t="inlineStr"/>
-      <c r="F141" s="8" t="inlineStr"/>
+      <c r="A141" s="8" t="inlineStr">
+        <is>
+          <t>Xem hóa đơn</t>
+        </is>
+      </c>
+      <c r="B141" s="8" t="n"/>
+      <c r="C141" s="8" t="n"/>
+      <c r="D141" s="8" t="n"/>
+      <c r="E141" s="8" t="n"/>
+      <c r="F141" s="8" t="n"/>
     </row>
     <row r="142">
-      <c r="A142" s="8" t="inlineStr"/>
-      <c r="B142" s="8" t="inlineStr"/>
-      <c r="C142" s="8" t="inlineStr"/>
-      <c r="D142" s="8" t="inlineStr"/>
-      <c r="E142" s="8" t="inlineStr"/>
-      <c r="F142" s="8" t="inlineStr"/>
+      <c r="A142" s="8" t="inlineStr">
+        <is>
+          <t>Xuất hóa đơn</t>
+        </is>
+      </c>
+      <c r="B142" s="8" t="n"/>
+      <c r="C142" s="8" t="n"/>
+      <c r="D142" s="8" t="n"/>
+      <c r="E142" s="8" t="n"/>
+      <c r="F142" s="8" t="n"/>
     </row>
     <row r="143">
-      <c r="A143" s="8" t="inlineStr"/>
-      <c r="B143" s="8" t="inlineStr"/>
-      <c r="C143" s="8" t="inlineStr"/>
-      <c r="D143" s="8" t="inlineStr"/>
-      <c r="E143" s="8" t="inlineStr"/>
-      <c r="F143" s="8" t="inlineStr"/>
+      <c r="A143" s="8" t="n"/>
+      <c r="B143" s="8" t="n"/>
+      <c r="C143" s="8" t="n"/>
+      <c r="D143" s="8" t="n"/>
+      <c r="E143" s="8" t="n"/>
+      <c r="F143" s="8" t="n"/>
     </row>
     <row r="144">
-      <c r="A144" s="8" t="inlineStr"/>
-      <c r="B144" s="8" t="inlineStr"/>
-      <c r="C144" s="8" t="inlineStr"/>
-      <c r="D144" s="8" t="inlineStr"/>
-      <c r="E144" s="8" t="inlineStr"/>
-      <c r="F144" s="8" t="inlineStr"/>
+      <c r="A144" s="8" t="n"/>
+      <c r="B144" s="8" t="n"/>
+      <c r="C144" s="8" t="n"/>
+      <c r="D144" s="8" t="n"/>
+      <c r="E144" s="8" t="n"/>
+      <c r="F144" s="8" t="n"/>
     </row>
     <row r="145">
-      <c r="A145" s="8" t="inlineStr"/>
-      <c r="B145" s="8" t="inlineStr"/>
-      <c r="C145" s="8" t="inlineStr"/>
-      <c r="D145" s="8" t="inlineStr"/>
-      <c r="E145" s="8" t="inlineStr"/>
-      <c r="F145" s="8" t="inlineStr"/>
+      <c r="A145" s="8" t="n"/>
+      <c r="B145" s="8" t="n"/>
+      <c r="C145" s="8" t="n"/>
+      <c r="D145" s="8" t="n"/>
+      <c r="E145" s="8" t="n"/>
+      <c r="F145" s="8" t="n"/>
     </row>
     <row r="146">
-      <c r="A146" s="8" t="inlineStr"/>
-      <c r="B146" s="8" t="inlineStr"/>
-      <c r="C146" s="8" t="inlineStr"/>
-      <c r="D146" s="8" t="inlineStr"/>
-      <c r="E146" s="8" t="inlineStr"/>
-      <c r="F146" s="8" t="inlineStr"/>
+      <c r="A146" s="8" t="n"/>
+      <c r="B146" s="8" t="n"/>
+      <c r="C146" s="8" t="n"/>
+      <c r="D146" s="8" t="n"/>
+      <c r="E146" s="8" t="n"/>
+      <c r="F146" s="8" t="n"/>
     </row>
     <row r="147">
-      <c r="A147" s="8" t="inlineStr"/>
-      <c r="B147" s="8" t="inlineStr"/>
-      <c r="C147" s="8" t="inlineStr"/>
-      <c r="D147" s="8" t="inlineStr"/>
-      <c r="E147" s="8" t="inlineStr"/>
-      <c r="F147" s="8" t="inlineStr"/>
+      <c r="A147" s="8" t="n"/>
+      <c r="B147" s="8" t="n"/>
+      <c r="C147" s="8" t="n"/>
+      <c r="D147" s="8" t="n"/>
+      <c r="E147" s="8" t="n"/>
+      <c r="F147" s="8" t="n"/>
     </row>
     <row r="148">
-      <c r="A148" s="8" t="inlineStr"/>
-      <c r="B148" s="8" t="inlineStr"/>
-      <c r="C148" s="8" t="inlineStr"/>
-      <c r="D148" s="8" t="inlineStr"/>
-      <c r="E148" s="8" t="inlineStr"/>
-      <c r="F148" s="8" t="inlineStr"/>
+      <c r="A148" s="8" t="n"/>
+      <c r="B148" s="8" t="n"/>
+      <c r="C148" s="8" t="n"/>
+      <c r="D148" s="8" t="n"/>
+      <c r="E148" s="8" t="n"/>
+      <c r="F148" s="8" t="n"/>
     </row>
     <row r="149">
-      <c r="A149" s="8" t="inlineStr"/>
-      <c r="B149" s="8" t="inlineStr"/>
-      <c r="C149" s="8" t="inlineStr"/>
-      <c r="D149" s="8" t="inlineStr"/>
-      <c r="E149" s="8" t="inlineStr"/>
-      <c r="F149" s="8" t="inlineStr"/>
+      <c r="A149" s="8" t="n"/>
+      <c r="B149" s="8" t="n"/>
+      <c r="C149" s="8" t="n"/>
+      <c r="D149" s="8" t="n"/>
+      <c r="E149" s="8" t="n"/>
+      <c r="F149" s="8" t="n"/>
     </row>
     <row r="150">
-      <c r="A150" s="10" t="inlineStr"/>
-      <c r="B150" s="10" t="inlineStr"/>
-      <c r="C150" s="10" t="inlineStr"/>
-      <c r="D150" s="10" t="inlineStr"/>
-      <c r="E150" s="10" t="inlineStr"/>
-      <c r="F150" s="10" t="inlineStr"/>
+      <c r="A150" s="10" t="n"/>
+      <c r="B150" s="10" t="n"/>
+      <c r="C150" s="10" t="n"/>
+      <c r="D150" s="10" t="n"/>
+      <c r="E150" s="10" t="n"/>
+      <c r="F150" s="10" t="n"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -1630,7 +2236,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Xem hóa đơn</t>
+          <t>Biên lai/hóa đơn</t>
         </is>
       </c>
     </row>
@@ -1651,6 +2257,794 @@
         <is>
           <t xml:space="preserve"> </t>
         </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>18/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>19/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>20/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>21/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>22/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>23/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>24/01</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>HOPDONGMACDINH</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>thẻ sau1: 7.7.4 Số nợ</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>400000</v>
+      </c>
+      <c r="D170" s="16" t="n"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>thẻ sau1: 7.7.10 Tổng cuốc</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="17" t="inlineStr">
+        <is>
+          <t>thẻ sau2: 7.7.4 Tổng hợp</t>
+        </is>
+      </c>
+      <c r="B172" s="17" t="n">
+        <v>400000</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2</v>
+      </c>
+      <c r="D172" s="16" t="n"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="17" t="inlineStr">
+        <is>
+          <t>thẻ sau2: 7.7.5 Số tiền</t>
+        </is>
+      </c>
+      <c r="B173" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="17" t="inlineStr">
+        <is>
+          <t>thẻ sau2: 7.7.7 Số tiền nợ</t>
+        </is>
+      </c>
+      <c r="B174" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="17" t="inlineStr">
+        <is>
+          <t>thẻ sau2: 7.7.3 Số dư</t>
+        </is>
+      </c>
+      <c r="B175" s="17" t="n">
+        <v>-400000</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="17" t="inlineStr">
+        <is>
+          <t>thẻ sau2: 7.7.3 Hạn mức</t>
+        </is>
+      </c>
+      <c r="B176" s="17" t="n">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="17" t="inlineStr">
+        <is>
+          <t>thẻ sau3: 7.7.3 Số dư</t>
+        </is>
+      </c>
+      <c r="B177" s="17" t="n">
+        <v>-400000</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1</v>
+      </c>
+      <c r="D177" s="16" t="n"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="17" t="inlineStr">
+        <is>
+          <t>thẻ sau3: 7.7.10 Tổng cuốc</t>
+        </is>
+      </c>
+      <c r="B178" s="17" t="n">
+        <v>400000</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="17" t="inlineStr">
+        <is>
+          <t>thẻ sau3: 7.7.7 Số tiền nợ</t>
+        </is>
+      </c>
+      <c r="B179" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="17" t="inlineStr">
+        <is>
+          <t>thẻ sau4: 7.7.5 Số tiền 1 serial</t>
+        </is>
+      </c>
+      <c r="B180" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="17" t="inlineStr">
+        <is>
+          <t>thẻ sau4: 7.7.10 Số tiền tổng của 1 serial</t>
+        </is>
+      </c>
+      <c r="B181" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="17" t="inlineStr">
+        <is>
+          <t>thẻ sau4: 7.7.5 Số tiền tất cả serial</t>
+        </is>
+      </c>
+      <c r="B182" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C182" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="17" t="inlineStr">
+        <is>
+          <t>thẻ sau4: 7.7.5 Số tiền hợp đồng</t>
+        </is>
+      </c>
+      <c r="B183" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C183" t="n">
+        <v>4</v>
+      </c>
+      <c r="D183" s="16" t="inlineStr">
+        <is>
+          <t>Không tìm thấy thẻ</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>mã serial check</t>
+        </is>
+      </c>
+      <c r="B188" s="18" t="inlineStr">
+        <is>
+          <t>8888999966949781</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Tên cấu hình(10.6.3)</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Mã serial(7.7.4)</t>
+        </is>
+      </c>
+      <c r="B191" s="18" t="inlineStr">
+        <is>
+          <t>8888999966949781</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Mất bản ghi (7.7.4)</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Đã mất bản ghi</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Mã phiếu chôt(7.7.4)</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>G7_0009163</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Tổng tiền chốt(7.7.4)</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>214.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Mã công nợ(7.7.5)</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>G7_0009163</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Mã hợp đồng(7.7.5)</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>G7_0009</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>T.gian chốt(7.7.5)</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="inlineStr">
+        <is>
+          <t>16:01:26 - 12/05/2025</t>
+        </is>
+      </c>
+      <c r="C198" s="2" t="n"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>S.tiền nợ chốt(7.7.5)</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>214.000 ₫</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>T.thái phiếu(7.7.5)</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Đã chốt</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>T.thái t.toán(7.7.5)</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Chưa thanh toán</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Người chốt(7.7.5)</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>autoba</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Mất bản ghi (7.7.5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Mã công nợ(7.7.6)</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>G7_0009163</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Mã hợp đồng(7.7.6)</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>G7_0009</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Thời gian thao tác(7.7.6)</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>16:1:26 12/5/2025</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="n"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Người thao tác(7.7.6)</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>autoba</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Tổng nợ(7.7.6)</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>214.000 ₫</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Loại thao tác(7.7.6)</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Chốt</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Mất bản ghi (7.7.6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1 phần</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="20" t="inlineStr">
+        <is>
+          <t>Tổng nợ chốt(7.7.7)</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>115.000 ₫</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>214.000 ₫</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="20" t="inlineStr">
+        <is>
+          <t>Số tiền thanh toán(7.7.7)</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>34500</v>
+      </c>
+      <c r="C214" t="n">
+        <v>214000</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="20" t="inlineStr">
+        <is>
+          <t>Còn lại(7.7.7)</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>80.500₫</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="20" t="inlineStr">
+        <is>
+          <t>Nợ còn lại(7.7.7)</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>115000</v>
+      </c>
+      <c r="C216" t="n">
+        <v>214000</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>T.thái phiếu(7.7.5)</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Đã chốt</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Đã chốt</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>T.thái t.toán(7.7.5)</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Thanh toán 1 phần</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Mất bản ghi (7.7.5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Loại thao tác(7.7.6)</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Thanh toán 1 phần</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Thanh toán toàn bộ</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Mất bản ghi (7.7.6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Trạng thái thanh toán(7.7.10)</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Thanh toán 1 phần</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Cước xe(7.7.10)</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>115000</v>
+      </c>
+      <c r="C225" t="n">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Trạng thái(7.7.11)</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Nạp tiền</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Nạp tiền</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Số tiền(7.7.11)</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>34.500 ₫</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>214.000 ₫</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Mất bản ghi (7.7.11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Trạng thái(7.7.14)</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Nạp tiền</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Nạp tiền</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Phương thức(7.7.14)</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Trả sau</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Trả sau</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Số tiền(7.7.14)</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>34.500 ₫</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>214.000 ₫</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Số dư còn lại(7.7.14)</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>-80.500 ₫</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>0 ₫</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Mất bản ghi (7.7.14)</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Số dư(7.7.3)</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>-80500</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Mất thẻ(7.7.3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="B337" t="n">
+        <v>0</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1673,10 +3067,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="39.140625" customWidth="1" min="1" max="1"/>
-    <col width="44.42578125" customWidth="1" min="2" max="2"/>
-    <col width="22.7109375" customWidth="1" min="3" max="3"/>
-    <col width="19.5703125" customWidth="1" min="4" max="4"/>
+    <col width="39.140625" customWidth="1" style="19" min="1" max="1"/>
+    <col width="44.42578125" customWidth="1" style="19" min="2" max="2"/>
+    <col width="22.7109375" customWidth="1" style="19" min="3" max="3"/>
+    <col width="19.5703125" customWidth="1" style="19" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -556,7 +556,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>auto1198</t>
+          <t>auto1210</t>
         </is>
       </c>
     </row>
@@ -604,27 +604,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[2]/td[1]/img</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[5]/td[1]/img</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[2]/td[2]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[5]/td[2]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[2]/td[3]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[5]/td[3]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[2]/td[4]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[5]/td[4]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[2]/td[5]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[5]/td[5]</t>
         </is>
       </c>
     </row>
@@ -635,11 +635,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1198</v>
+        <v>1210</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>_12052025_1198</t>
+          <t>_13052025_1210</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       <c r="B8" s="2" t="n"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15A28887</t>
+          <t>15A31400</t>
         </is>
       </c>
     </row>
@@ -664,12 +664,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>084</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>084</t>
+          <t>116</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cầu Rào, P. Đằng Giang, Q. Ngô Quyền, TP. Hải Phòng</t>
+          <t>X. Quảng Thanh, H. Thủy Nguyên, TP. Hải Phòng</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Thiên Lôi, P. Đằng Giang, Q. Ngô Quyền, TP. Hải Phòng</t>
+          <t>X. Quảng Thanh, H. Thủy Nguyên, TP. Hải Phòng</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20.82967</t>
+          <t>20.96959</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>106.6991</t>
+          <t>106.603</t>
         </is>
       </c>
     </row>
@@ -722,12 +722,12 @@
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>17:29:08</t>
+          <t>02:05:04</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:29:08</t>
+          <t>02:05:04</t>
         </is>
       </c>
     </row>
@@ -739,12 +739,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3 (TTĐH:3;App:0;Vẫy:0)</t>
+          <t>0 (TTĐH:0;App:0;Vẫy:0)</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PHẠM VĂN AN</t>
+          <t>NGUYỄN VĂN TUẤN</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PHẠM VĂN AN</t>
+          <t>NGUYỄN VĂN TUẤN</t>
         </is>
       </c>
     </row>
@@ -846,12 +846,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0375000859</t>
+          <t>0852466599</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0375000859</t>
+          <t>0852466599</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2100001184</t>
+          <t>2100001203</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Auto_1159</t>
+          <t>Auto_1205</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>auto1174</t>
+          <t>auto1208</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Auto_ThongBao_547</t>
+          <t>Auto_ThongBao_1209</t>
         </is>
       </c>
     </row>
@@ -1063,14 +1063,15 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Kiểu thông báo(Thông báo)</t>
+          <t>Chi tiết</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Trường "Kiểu thông báo" hiện thị: Thông báo</t>
+          <t>1. Mở tab mới và chuyển đến trang: "8.4 Báo cáo doanh thu"
+2. Hiển thị "Mã cuốc khách"</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1134,7 @@
     <row r="47" ht="15.75" customHeight="1" s="19">
       <c r="B47" t="inlineStr">
         <is>
-          <t>17:03:46</t>
+          <t>08:31:51</t>
         </is>
       </c>
       <c r="F47" s="11" t="n">
@@ -1283,7 +1284,7 @@
     </row>
     <row r="60">
       <c r="B60" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v>100000</v>
@@ -1294,7 +1295,7 @@
     </row>
     <row r="61">
       <c r="B61" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>18</v>
@@ -1380,7 +1381,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
         <v>120000</v>
@@ -1510,7 +1511,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1521,7 +1522,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1555,7 @@
     </row>
     <row r="81">
       <c r="B81" t="n">
-        <v>203</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82">
@@ -1612,7 +1613,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>232</t>
         </is>
       </c>
     </row>
@@ -1836,11 +1837,31 @@
           <t>STT</t>
         </is>
       </c>
-      <c r="B120" s="9" t="n"/>
-      <c r="C120" s="8" t="n"/>
-      <c r="D120" s="8" t="n"/>
-      <c r="E120" s="8" t="n"/>
-      <c r="F120" s="8" t="n"/>
+      <c r="B120" s="9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C120" s="8" t="inlineStr">
+        <is>
+          <t>STT</t>
+        </is>
+      </c>
+      <c r="D120" s="8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E120" s="8" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="F120" s="8" t="inlineStr">
+        <is>
+          <t>A6</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="8" t="inlineStr">
@@ -1848,11 +1869,31 @@
           <t>Tên lái xe</t>
         </is>
       </c>
-      <c r="B121" s="8" t="n"/>
-      <c r="C121" s="8" t="n"/>
-      <c r="D121" s="8" t="n"/>
-      <c r="E121" s="8" t="n"/>
-      <c r="F121" s="8" t="n"/>
+      <c r="B121" s="8" t="inlineStr">
+        <is>
+          <t>batrinh209a</t>
+        </is>
+      </c>
+      <c r="C121" s="8" t="inlineStr">
+        <is>
+          <t>Tên lái xe</t>
+        </is>
+      </c>
+      <c r="D121" s="8" t="inlineStr">
+        <is>
+          <t>batrinh209a</t>
+        </is>
+      </c>
+      <c r="E121" s="8" t="inlineStr">
+        <is>
+          <t>B5</t>
+        </is>
+      </c>
+      <c r="F121" s="8" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="8" t="inlineStr">
@@ -1860,11 +1901,31 @@
           <t>Mã lái xe</t>
         </is>
       </c>
-      <c r="B122" s="8" t="n"/>
-      <c r="C122" s="8" t="n"/>
-      <c r="D122" s="8" t="n"/>
-      <c r="E122" s="8" t="n"/>
-      <c r="F122" s="8" t="n"/>
+      <c r="B122" s="8" t="inlineStr">
+        <is>
+          <t>batrinh209a</t>
+        </is>
+      </c>
+      <c r="C122" s="8" t="inlineStr">
+        <is>
+          <t>Mã lái xe</t>
+        </is>
+      </c>
+      <c r="D122" s="8" t="inlineStr">
+        <is>
+          <t>batrinh209a</t>
+        </is>
+      </c>
+      <c r="E122" s="8" t="inlineStr">
+        <is>
+          <t>C5</t>
+        </is>
+      </c>
+      <c r="F122" s="8" t="inlineStr">
+        <is>
+          <t>C6</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="8" t="inlineStr">
@@ -1872,11 +1933,31 @@
           <t>Biển số</t>
         </is>
       </c>
-      <c r="B123" s="8" t="n"/>
-      <c r="C123" s="8" t="n"/>
-      <c r="D123" s="8" t="n"/>
-      <c r="E123" s="8" t="n"/>
-      <c r="F123" s="8" t="n"/>
+      <c r="B123" s="8" t="inlineStr">
+        <is>
+          <t>BATRINH</t>
+        </is>
+      </c>
+      <c r="C123" s="8" t="inlineStr">
+        <is>
+          <t>Biển số</t>
+        </is>
+      </c>
+      <c r="D123" s="8" t="inlineStr">
+        <is>
+          <t>BATRINH</t>
+        </is>
+      </c>
+      <c r="E123" s="8" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="F123" s="8" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="8" t="inlineStr">
@@ -1884,11 +1965,31 @@
           <t>Số hiệu</t>
         </is>
       </c>
-      <c r="B124" s="8" t="n"/>
-      <c r="C124" s="8" t="n"/>
-      <c r="D124" s="8" t="n"/>
-      <c r="E124" s="8" t="n"/>
-      <c r="F124" s="8" t="n"/>
+      <c r="B124" s="8" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="C124" s="8" t="inlineStr">
+        <is>
+          <t>Số hiệu</t>
+        </is>
+      </c>
+      <c r="D124" s="8" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="E124" s="8" t="inlineStr">
+        <is>
+          <t>E5</t>
+        </is>
+      </c>
+      <c r="F124" s="8" t="inlineStr">
+        <is>
+          <t>E6</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="8" t="inlineStr">
@@ -1896,11 +1997,27 @@
           <t>SĐT khách hàng</t>
         </is>
       </c>
-      <c r="B125" s="8" t="n"/>
-      <c r="C125" s="8" t="n"/>
-      <c r="D125" s="8" t="n"/>
-      <c r="E125" s="8" t="n"/>
-      <c r="F125" s="8" t="n"/>
+      <c r="B125" s="8" t="inlineStr"/>
+      <c r="C125" s="8" t="inlineStr">
+        <is>
+          <t>SĐT khách hàng</t>
+        </is>
+      </c>
+      <c r="D125" s="8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E125" s="8" t="inlineStr">
+        <is>
+          <t>F5</t>
+        </is>
+      </c>
+      <c r="F125" s="8" t="inlineStr">
+        <is>
+          <t>F6</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="8" t="inlineStr">
@@ -1908,11 +2025,31 @@
           <t>Địa chỉ đón khách</t>
         </is>
       </c>
-      <c r="B126" s="8" t="n"/>
-      <c r="C126" s="8" t="n"/>
-      <c r="D126" s="8" t="n"/>
-      <c r="E126" s="8" t="n"/>
-      <c r="F126" s="8" t="n"/>
+      <c r="B126" s="8" t="inlineStr">
+        <is>
+          <t>14 Phố Nguyễn Cảnh Dị, phường Định Công, quận Hoàng Mai, thành phố Hà Nội</t>
+        </is>
+      </c>
+      <c r="C126" s="8" t="inlineStr">
+        <is>
+          <t>Địa chỉ đón khách</t>
+        </is>
+      </c>
+      <c r="D126" s="8" t="inlineStr">
+        <is>
+          <t>14 Phố Nguyễn Cảnh Dị, phường Định Công, quận Hoàng Mai, thành phố Hà Nội</t>
+        </is>
+      </c>
+      <c r="E126" s="8" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
+      </c>
+      <c r="F126" s="8" t="inlineStr">
+        <is>
+          <t>G6</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="8" t="inlineStr">
@@ -1920,11 +2057,31 @@
           <t>Địa chỉ trả khách</t>
         </is>
       </c>
-      <c r="B127" s="8" t="n"/>
-      <c r="C127" s="8" t="n"/>
-      <c r="D127" s="8" t="n"/>
-      <c r="E127" s="8" t="n"/>
-      <c r="F127" s="8" t="n"/>
+      <c r="B127" s="8" t="inlineStr">
+        <is>
+          <t>0, Đang Thi Công, Khu Đô Thị Đại Kim, P. Định Công, Q. Hoàng Mai, TP. Hà Nội</t>
+        </is>
+      </c>
+      <c r="C127" s="8" t="inlineStr">
+        <is>
+          <t>Địa chỉ trả khách</t>
+        </is>
+      </c>
+      <c r="D127" s="8" t="inlineStr">
+        <is>
+          <t>0, Đang Thi Công, Khu Đô Thị Đại Kim, P. Định Công, Q. Hoàng Mai, TP. Hà Nội</t>
+        </is>
+      </c>
+      <c r="E127" s="8" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="F127" s="8" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="8" t="inlineStr">
@@ -1932,11 +2089,31 @@
           <t>Thời gian cuốc đặt</t>
         </is>
       </c>
-      <c r="B128" s="8" t="n"/>
-      <c r="C128" s="8" t="n"/>
-      <c r="D128" s="8" t="n"/>
-      <c r="E128" s="8" t="n"/>
-      <c r="F128" s="8" t="n"/>
+      <c r="B128" s="8" t="inlineStr">
+        <is>
+          <t>17:46:34 17/12/2024</t>
+        </is>
+      </c>
+      <c r="C128" s="8" t="inlineStr">
+        <is>
+          <t>Thời gian cuốc đặt</t>
+        </is>
+      </c>
+      <c r="D128" s="8" t="inlineStr">
+        <is>
+          <t>17:46:34 17/12/2024</t>
+        </is>
+      </c>
+      <c r="E128" s="8" t="inlineStr">
+        <is>
+          <t>I5</t>
+        </is>
+      </c>
+      <c r="F128" s="8" t="inlineStr">
+        <is>
+          <t>I6</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="8" t="inlineStr">
@@ -1944,11 +2121,31 @@
           <t>Thời gian cuốc kết thúc</t>
         </is>
       </c>
-      <c r="B129" s="8" t="n"/>
-      <c r="C129" s="8" t="n"/>
-      <c r="D129" s="8" t="n"/>
-      <c r="E129" s="8" t="n"/>
-      <c r="F129" s="8" t="n"/>
+      <c r="B129" s="8" t="inlineStr">
+        <is>
+          <t>9:38:20 18/12/2024</t>
+        </is>
+      </c>
+      <c r="C129" s="8" t="inlineStr">
+        <is>
+          <t>Thời gian cuốc kết thúc</t>
+        </is>
+      </c>
+      <c r="D129" s="8" t="inlineStr">
+        <is>
+          <t>9:38:20 18/12/2024</t>
+        </is>
+      </c>
+      <c r="E129" s="8" t="inlineStr">
+        <is>
+          <t>J5</t>
+        </is>
+      </c>
+      <c r="F129" s="8" t="inlineStr">
+        <is>
+          <t>J6</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="8" t="inlineStr">
@@ -1956,11 +2153,31 @@
           <t>Số Km</t>
         </is>
       </c>
-      <c r="B130" s="8" t="n"/>
-      <c r="C130" s="8" t="n"/>
-      <c r="D130" s="8" t="n"/>
-      <c r="E130" s="8" t="n"/>
-      <c r="F130" s="8" t="n"/>
+      <c r="B130" s="8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C130" s="8" t="inlineStr">
+        <is>
+          <t>Số Km</t>
+        </is>
+      </c>
+      <c r="D130" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E130" s="8" t="inlineStr">
+        <is>
+          <t>K5</t>
+        </is>
+      </c>
+      <c r="F130" s="8" t="inlineStr">
+        <is>
+          <t>K6</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="8" t="inlineStr">
@@ -1968,11 +2185,31 @@
           <t>Cước di chuyển</t>
         </is>
       </c>
-      <c r="B131" s="8" t="n"/>
-      <c r="C131" s="8" t="n"/>
-      <c r="D131" s="8" t="n"/>
-      <c r="E131" s="8" t="n"/>
-      <c r="F131" s="8" t="n"/>
+      <c r="B131" s="8" t="inlineStr">
+        <is>
+          <t>0 ₫</t>
+        </is>
+      </c>
+      <c r="C131" s="8" t="inlineStr">
+        <is>
+          <t>Cước di chuyển</t>
+        </is>
+      </c>
+      <c r="D131" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E131" s="8" t="inlineStr">
+        <is>
+          <t>L5</t>
+        </is>
+      </c>
+      <c r="F131" s="8" t="inlineStr">
+        <is>
+          <t>L6</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="8" t="inlineStr">
@@ -1980,11 +2217,31 @@
           <t>Cước chờ</t>
         </is>
       </c>
-      <c r="B132" s="8" t="n"/>
-      <c r="C132" s="8" t="n"/>
-      <c r="D132" s="8" t="n"/>
-      <c r="E132" s="8" t="n"/>
-      <c r="F132" s="8" t="n"/>
+      <c r="B132" s="8" t="inlineStr">
+        <is>
+          <t>0 ₫</t>
+        </is>
+      </c>
+      <c r="C132" s="8" t="inlineStr">
+        <is>
+          <t>Cước chờ</t>
+        </is>
+      </c>
+      <c r="D132" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E132" s="8" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="F132" s="8" t="inlineStr">
+        <is>
+          <t>M6</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="8" t="inlineStr">
@@ -1992,11 +2249,31 @@
           <t>Phụ phí</t>
         </is>
       </c>
-      <c r="B133" s="8" t="n"/>
-      <c r="C133" s="8" t="n"/>
-      <c r="D133" s="8" t="n"/>
-      <c r="E133" s="8" t="n"/>
-      <c r="F133" s="8" t="n"/>
+      <c r="B133" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C133" s="8" t="inlineStr">
+        <is>
+          <t>Phụ phí</t>
+        </is>
+      </c>
+      <c r="D133" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E133" s="8" t="inlineStr">
+        <is>
+          <t>N5</t>
+        </is>
+      </c>
+      <c r="F133" s="8" t="inlineStr">
+        <is>
+          <t>N6</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="8" t="inlineStr">
@@ -2004,11 +2281,31 @@
           <t>Doanh thu</t>
         </is>
       </c>
-      <c r="B134" s="8" t="n"/>
-      <c r="C134" s="8" t="n"/>
-      <c r="D134" s="8" t="n"/>
-      <c r="E134" s="8" t="n"/>
-      <c r="F134" s="8" t="n"/>
+      <c r="B134" s="8" t="inlineStr">
+        <is>
+          <t>0 ₫</t>
+        </is>
+      </c>
+      <c r="C134" s="8" t="inlineStr">
+        <is>
+          <t>Doanh thu</t>
+        </is>
+      </c>
+      <c r="D134" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E134" s="8" t="inlineStr">
+        <is>
+          <t>O5</t>
+        </is>
+      </c>
+      <c r="F134" s="8" t="inlineStr">
+        <is>
+          <t>O6</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="8" t="inlineStr">
@@ -2016,11 +2313,27 @@
           <t>Thực thu</t>
         </is>
       </c>
-      <c r="B135" s="8" t="n"/>
-      <c r="C135" s="8" t="n"/>
-      <c r="D135" s="8" t="n"/>
-      <c r="E135" s="8" t="n"/>
-      <c r="F135" s="8" t="n"/>
+      <c r="B135" s="8" t="inlineStr"/>
+      <c r="C135" s="8" t="inlineStr">
+        <is>
+          <t>Thực thu</t>
+        </is>
+      </c>
+      <c r="D135" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E135" s="8" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="F135" s="8" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="8" t="inlineStr">
@@ -2028,11 +2341,23 @@
           <t>Ghi chú</t>
         </is>
       </c>
-      <c r="B136" s="8" t="n"/>
-      <c r="C136" s="8" t="n"/>
-      <c r="D136" s="8" t="n"/>
-      <c r="E136" s="8" t="n"/>
-      <c r="F136" s="8" t="n"/>
+      <c r="B136" s="8" t="inlineStr"/>
+      <c r="C136" s="8" t="inlineStr">
+        <is>
+          <t>Ghi chú</t>
+        </is>
+      </c>
+      <c r="D136" s="8" t="inlineStr"/>
+      <c r="E136" s="8" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="F136" s="8" t="inlineStr">
+        <is>
+          <t>Q6</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="8" t="inlineStr">
@@ -2040,11 +2365,32 @@
           <t>Mã KM/Số tiền KM</t>
         </is>
       </c>
-      <c r="B137" s="8" t="n"/>
-      <c r="C137" s="8" t="n"/>
-      <c r="D137" s="8" t="n"/>
-      <c r="E137" s="8" t="n"/>
-      <c r="F137" s="8" t="n"/>
+      <c r="B137" s="8" t="inlineStr">
+        <is>
+          <t>...
+0 ₫</t>
+        </is>
+      </c>
+      <c r="C137" s="8" t="inlineStr">
+        <is>
+          <t>Mã KM/Số tiền KM</t>
+        </is>
+      </c>
+      <c r="D137" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E137" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="F137" s="8" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="8" t="inlineStr">
@@ -2052,11 +2398,31 @@
           <t>Số tiền thanh toán</t>
         </is>
       </c>
-      <c r="B138" s="8" t="n"/>
-      <c r="C138" s="8" t="n"/>
-      <c r="D138" s="8" t="n"/>
-      <c r="E138" s="8" t="n"/>
-      <c r="F138" s="8" t="n"/>
+      <c r="B138" s="8" t="inlineStr">
+        <is>
+          <t>0 ₫</t>
+        </is>
+      </c>
+      <c r="C138" s="8" t="inlineStr">
+        <is>
+          <t>Số tiền thanh toán</t>
+        </is>
+      </c>
+      <c r="D138" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E138" s="8" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="F138" s="8" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="8" t="inlineStr">
@@ -2064,11 +2430,31 @@
           <t>Hình thức thanh toán</t>
         </is>
       </c>
-      <c r="B139" s="8" t="n"/>
-      <c r="C139" s="8" t="n"/>
-      <c r="D139" s="8" t="n"/>
-      <c r="E139" s="8" t="n"/>
-      <c r="F139" s="8" t="n"/>
+      <c r="B139" s="8" t="inlineStr">
+        <is>
+          <t>Tiền mặt</t>
+        </is>
+      </c>
+      <c r="C139" s="8" t="inlineStr">
+        <is>
+          <t>Hình thức thanh toán</t>
+        </is>
+      </c>
+      <c r="D139" s="8" t="inlineStr">
+        <is>
+          <t>Tiền mặt</t>
+        </is>
+      </c>
+      <c r="E139" s="8" t="inlineStr">
+        <is>
+          <t>T5</t>
+        </is>
+      </c>
+      <c r="F139" s="8" t="inlineStr">
+        <is>
+          <t>T6</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="8" t="inlineStr">
@@ -2076,11 +2462,11 @@
           <t>Lộ trình</t>
         </is>
       </c>
-      <c r="B140" s="8" t="n"/>
-      <c r="C140" s="8" t="n"/>
-      <c r="D140" s="8" t="n"/>
-      <c r="E140" s="8" t="n"/>
-      <c r="F140" s="8" t="n"/>
+      <c r="B140" s="8" t="inlineStr"/>
+      <c r="C140" s="8" t="inlineStr"/>
+      <c r="D140" s="8" t="inlineStr"/>
+      <c r="E140" s="8" t="inlineStr"/>
+      <c r="F140" s="8" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="8" t="inlineStr">
@@ -2088,11 +2474,11 @@
           <t>Xem hóa đơn</t>
         </is>
       </c>
-      <c r="B141" s="8" t="n"/>
-      <c r="C141" s="8" t="n"/>
-      <c r="D141" s="8" t="n"/>
-      <c r="E141" s="8" t="n"/>
-      <c r="F141" s="8" t="n"/>
+      <c r="B141" s="8" t="inlineStr"/>
+      <c r="C141" s="8" t="inlineStr"/>
+      <c r="D141" s="8" t="inlineStr"/>
+      <c r="E141" s="8" t="inlineStr"/>
+      <c r="F141" s="8" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="8" t="inlineStr">
@@ -2100,75 +2486,75 @@
           <t>Xuất hóa đơn</t>
         </is>
       </c>
-      <c r="B142" s="8" t="n"/>
-      <c r="C142" s="8" t="n"/>
-      <c r="D142" s="8" t="n"/>
-      <c r="E142" s="8" t="n"/>
-      <c r="F142" s="8" t="n"/>
+      <c r="B142" s="8" t="inlineStr"/>
+      <c r="C142" s="8" t="inlineStr"/>
+      <c r="D142" s="8" t="inlineStr"/>
+      <c r="E142" s="8" t="inlineStr"/>
+      <c r="F142" s="8" t="inlineStr"/>
     </row>
     <row r="143">
-      <c r="A143" s="8" t="n"/>
-      <c r="B143" s="8" t="n"/>
-      <c r="C143" s="8" t="n"/>
-      <c r="D143" s="8" t="n"/>
-      <c r="E143" s="8" t="n"/>
-      <c r="F143" s="8" t="n"/>
+      <c r="A143" s="8" t="inlineStr"/>
+      <c r="B143" s="8" t="inlineStr"/>
+      <c r="C143" s="8" t="inlineStr"/>
+      <c r="D143" s="8" t="inlineStr"/>
+      <c r="E143" s="8" t="inlineStr"/>
+      <c r="F143" s="8" t="inlineStr"/>
     </row>
     <row r="144">
-      <c r="A144" s="8" t="n"/>
-      <c r="B144" s="8" t="n"/>
-      <c r="C144" s="8" t="n"/>
-      <c r="D144" s="8" t="n"/>
-      <c r="E144" s="8" t="n"/>
-      <c r="F144" s="8" t="n"/>
+      <c r="A144" s="8" t="inlineStr"/>
+      <c r="B144" s="8" t="inlineStr"/>
+      <c r="C144" s="8" t="inlineStr"/>
+      <c r="D144" s="8" t="inlineStr"/>
+      <c r="E144" s="8" t="inlineStr"/>
+      <c r="F144" s="8" t="inlineStr"/>
     </row>
     <row r="145">
-      <c r="A145" s="8" t="n"/>
-      <c r="B145" s="8" t="n"/>
-      <c r="C145" s="8" t="n"/>
-      <c r="D145" s="8" t="n"/>
-      <c r="E145" s="8" t="n"/>
-      <c r="F145" s="8" t="n"/>
+      <c r="A145" s="8" t="inlineStr"/>
+      <c r="B145" s="8" t="inlineStr"/>
+      <c r="C145" s="8" t="inlineStr"/>
+      <c r="D145" s="8" t="inlineStr"/>
+      <c r="E145" s="8" t="inlineStr"/>
+      <c r="F145" s="8" t="inlineStr"/>
     </row>
     <row r="146">
-      <c r="A146" s="8" t="n"/>
-      <c r="B146" s="8" t="n"/>
-      <c r="C146" s="8" t="n"/>
-      <c r="D146" s="8" t="n"/>
-      <c r="E146" s="8" t="n"/>
-      <c r="F146" s="8" t="n"/>
+      <c r="A146" s="8" t="inlineStr"/>
+      <c r="B146" s="8" t="inlineStr"/>
+      <c r="C146" s="8" t="inlineStr"/>
+      <c r="D146" s="8" t="inlineStr"/>
+      <c r="E146" s="8" t="inlineStr"/>
+      <c r="F146" s="8" t="inlineStr"/>
     </row>
     <row r="147">
-      <c r="A147" s="8" t="n"/>
-      <c r="B147" s="8" t="n"/>
-      <c r="C147" s="8" t="n"/>
-      <c r="D147" s="8" t="n"/>
-      <c r="E147" s="8" t="n"/>
-      <c r="F147" s="8" t="n"/>
+      <c r="A147" s="8" t="inlineStr"/>
+      <c r="B147" s="8" t="inlineStr"/>
+      <c r="C147" s="8" t="inlineStr"/>
+      <c r="D147" s="8" t="inlineStr"/>
+      <c r="E147" s="8" t="inlineStr"/>
+      <c r="F147" s="8" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" s="8" t="n"/>
-      <c r="B148" s="8" t="n"/>
-      <c r="C148" s="8" t="n"/>
-      <c r="D148" s="8" t="n"/>
-      <c r="E148" s="8" t="n"/>
-      <c r="F148" s="8" t="n"/>
+      <c r="A148" s="8" t="inlineStr"/>
+      <c r="B148" s="8" t="inlineStr"/>
+      <c r="C148" s="8" t="inlineStr"/>
+      <c r="D148" s="8" t="inlineStr"/>
+      <c r="E148" s="8" t="inlineStr"/>
+      <c r="F148" s="8" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="A149" s="8" t="n"/>
-      <c r="B149" s="8" t="n"/>
-      <c r="C149" s="8" t="n"/>
-      <c r="D149" s="8" t="n"/>
-      <c r="E149" s="8" t="n"/>
-      <c r="F149" s="8" t="n"/>
+      <c r="A149" s="8" t="inlineStr"/>
+      <c r="B149" s="8" t="inlineStr"/>
+      <c r="C149" s="8" t="inlineStr"/>
+      <c r="D149" s="8" t="inlineStr"/>
+      <c r="E149" s="8" t="inlineStr"/>
+      <c r="F149" s="8" t="inlineStr"/>
     </row>
     <row r="150">
-      <c r="A150" s="10" t="n"/>
-      <c r="B150" s="10" t="n"/>
-      <c r="C150" s="10" t="n"/>
-      <c r="D150" s="10" t="n"/>
-      <c r="E150" s="10" t="n"/>
-      <c r="F150" s="10" t="n"/>
+      <c r="A150" s="10" t="inlineStr"/>
+      <c r="B150" s="10" t="inlineStr"/>
+      <c r="C150" s="10" t="inlineStr"/>
+      <c r="D150" s="10" t="inlineStr"/>
+      <c r="E150" s="10" t="inlineStr"/>
+      <c r="F150" s="10" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2250,40 +2636,45 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Tiện ích</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t>Chi tiết đề cử</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>18/01</t>
+          <t>Bản đồ trước đề cử</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>19/01</t>
+          <t>Bản đồ sau đề cử</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20/01</t>
+          <t>Cuốc khách GPS</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Xem</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>21/01</t>
+          <t>Lộ trình GPS</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xem </t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -1063,15 +1063,16 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Chi tiết</t>
+          <t>Xuất Excel</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>1. Mở tab mới và chuyển đến trang: "8.4 Báo cáo doanh thu"
-2. Hiển thị "Mã cuốc khách"</t>
+          <t>1. Tải file Excel về máy
+2. Các cột và dữ liệu dòng đầu Web và file Excel phải giống nhau
+(Xem file log)</t>
         </is>
       </c>
     </row>
@@ -1134,7 +1135,7 @@
     <row r="47" ht="15.75" customHeight="1" s="19">
       <c r="B47" t="inlineStr">
         <is>
-          <t>08:31:51</t>
+          <t>09:04:02</t>
         </is>
       </c>
       <c r="F47" s="11" t="n">
@@ -1832,636 +1833,167 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="8" t="inlineStr">
-        <is>
-          <t>STT</t>
-        </is>
-      </c>
-      <c r="B120" s="9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C120" s="8" t="inlineStr">
-        <is>
-          <t>STT</t>
-        </is>
-      </c>
-      <c r="D120" s="8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E120" s="8" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="F120" s="8" t="inlineStr">
-        <is>
-          <t>A6</t>
-        </is>
-      </c>
+      <c r="A120" s="8" t="inlineStr"/>
+      <c r="B120" s="9" t="inlineStr"/>
+      <c r="C120" s="8" t="inlineStr"/>
+      <c r="D120" s="8" t="inlineStr"/>
+      <c r="E120" s="8" t="inlineStr"/>
+      <c r="F120" s="8" t="inlineStr"/>
     </row>
     <row r="121">
-      <c r="A121" s="8" t="inlineStr">
-        <is>
-          <t>Tên lái xe</t>
-        </is>
-      </c>
-      <c r="B121" s="8" t="inlineStr">
-        <is>
-          <t>batrinh209a</t>
-        </is>
-      </c>
-      <c r="C121" s="8" t="inlineStr">
-        <is>
-          <t>Tên lái xe</t>
-        </is>
-      </c>
-      <c r="D121" s="8" t="inlineStr">
-        <is>
-          <t>batrinh209a</t>
-        </is>
-      </c>
-      <c r="E121" s="8" t="inlineStr">
-        <is>
-          <t>B5</t>
-        </is>
-      </c>
-      <c r="F121" s="8" t="inlineStr">
-        <is>
-          <t>B6</t>
-        </is>
-      </c>
+      <c r="A121" s="8" t="inlineStr"/>
+      <c r="B121" s="8" t="inlineStr"/>
+      <c r="C121" s="8" t="inlineStr"/>
+      <c r="D121" s="8" t="inlineStr"/>
+      <c r="E121" s="8" t="inlineStr"/>
+      <c r="F121" s="8" t="inlineStr"/>
     </row>
     <row r="122">
-      <c r="A122" s="8" t="inlineStr">
-        <is>
-          <t>Mã lái xe</t>
-        </is>
-      </c>
-      <c r="B122" s="8" t="inlineStr">
-        <is>
-          <t>batrinh209a</t>
-        </is>
-      </c>
-      <c r="C122" s="8" t="inlineStr">
-        <is>
-          <t>Mã lái xe</t>
-        </is>
-      </c>
-      <c r="D122" s="8" t="inlineStr">
-        <is>
-          <t>batrinh209a</t>
-        </is>
-      </c>
-      <c r="E122" s="8" t="inlineStr">
-        <is>
-          <t>C5</t>
-        </is>
-      </c>
-      <c r="F122" s="8" t="inlineStr">
-        <is>
-          <t>C6</t>
-        </is>
-      </c>
+      <c r="A122" s="8" t="inlineStr"/>
+      <c r="B122" s="8" t="inlineStr"/>
+      <c r="C122" s="8" t="inlineStr"/>
+      <c r="D122" s="8" t="inlineStr"/>
+      <c r="E122" s="8" t="inlineStr"/>
+      <c r="F122" s="8" t="inlineStr"/>
     </row>
     <row r="123">
-      <c r="A123" s="8" t="inlineStr">
-        <is>
-          <t>Biển số</t>
-        </is>
-      </c>
-      <c r="B123" s="8" t="inlineStr">
-        <is>
-          <t>BATRINH</t>
-        </is>
-      </c>
-      <c r="C123" s="8" t="inlineStr">
-        <is>
-          <t>Biển số</t>
-        </is>
-      </c>
-      <c r="D123" s="8" t="inlineStr">
-        <is>
-          <t>BATRINH</t>
-        </is>
-      </c>
-      <c r="E123" s="8" t="inlineStr">
-        <is>
-          <t>D5</t>
-        </is>
-      </c>
-      <c r="F123" s="8" t="inlineStr">
-        <is>
-          <t>D6</t>
-        </is>
-      </c>
+      <c r="A123" s="8" t="inlineStr"/>
+      <c r="B123" s="8" t="inlineStr"/>
+      <c r="C123" s="8" t="inlineStr"/>
+      <c r="D123" s="8" t="inlineStr"/>
+      <c r="E123" s="8" t="inlineStr"/>
+      <c r="F123" s="8" t="inlineStr"/>
     </row>
     <row r="124">
-      <c r="A124" s="8" t="inlineStr">
-        <is>
-          <t>Số hiệu</t>
-        </is>
-      </c>
-      <c r="B124" s="8" t="inlineStr">
-        <is>
-          <t>9999</t>
-        </is>
-      </c>
-      <c r="C124" s="8" t="inlineStr">
-        <is>
-          <t>Số hiệu</t>
-        </is>
-      </c>
-      <c r="D124" s="8" t="inlineStr">
-        <is>
-          <t>9999</t>
-        </is>
-      </c>
-      <c r="E124" s="8" t="inlineStr">
-        <is>
-          <t>E5</t>
-        </is>
-      </c>
-      <c r="F124" s="8" t="inlineStr">
-        <is>
-          <t>E6</t>
-        </is>
-      </c>
+      <c r="A124" s="8" t="inlineStr"/>
+      <c r="B124" s="8" t="inlineStr"/>
+      <c r="C124" s="8" t="inlineStr"/>
+      <c r="D124" s="8" t="inlineStr"/>
+      <c r="E124" s="8" t="inlineStr"/>
+      <c r="F124" s="8" t="inlineStr"/>
     </row>
     <row r="125">
-      <c r="A125" s="8" t="inlineStr">
-        <is>
-          <t>SĐT khách hàng</t>
-        </is>
-      </c>
+      <c r="A125" s="8" t="inlineStr"/>
       <c r="B125" s="8" t="inlineStr"/>
-      <c r="C125" s="8" t="inlineStr">
-        <is>
-          <t>SĐT khách hàng</t>
-        </is>
-      </c>
-      <c r="D125" s="8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E125" s="8" t="inlineStr">
-        <is>
-          <t>F5</t>
-        </is>
-      </c>
-      <c r="F125" s="8" t="inlineStr">
-        <is>
-          <t>F6</t>
-        </is>
-      </c>
+      <c r="C125" s="8" t="inlineStr"/>
+      <c r="D125" s="8" t="inlineStr"/>
+      <c r="E125" s="8" t="inlineStr"/>
+      <c r="F125" s="8" t="inlineStr"/>
     </row>
     <row r="126">
-      <c r="A126" s="8" t="inlineStr">
-        <is>
-          <t>Địa chỉ đón khách</t>
-        </is>
-      </c>
-      <c r="B126" s="8" t="inlineStr">
-        <is>
-          <t>14 Phố Nguyễn Cảnh Dị, phường Định Công, quận Hoàng Mai, thành phố Hà Nội</t>
-        </is>
-      </c>
-      <c r="C126" s="8" t="inlineStr">
-        <is>
-          <t>Địa chỉ đón khách</t>
-        </is>
-      </c>
-      <c r="D126" s="8" t="inlineStr">
-        <is>
-          <t>14 Phố Nguyễn Cảnh Dị, phường Định Công, quận Hoàng Mai, thành phố Hà Nội</t>
-        </is>
-      </c>
-      <c r="E126" s="8" t="inlineStr">
-        <is>
-          <t>G5</t>
-        </is>
-      </c>
-      <c r="F126" s="8" t="inlineStr">
-        <is>
-          <t>G6</t>
-        </is>
-      </c>
+      <c r="A126" s="8" t="inlineStr"/>
+      <c r="B126" s="8" t="inlineStr"/>
+      <c r="C126" s="8" t="inlineStr"/>
+      <c r="D126" s="8" t="inlineStr"/>
+      <c r="E126" s="8" t="inlineStr"/>
+      <c r="F126" s="8" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" s="8" t="inlineStr">
-        <is>
-          <t>Địa chỉ trả khách</t>
-        </is>
-      </c>
-      <c r="B127" s="8" t="inlineStr">
-        <is>
-          <t>0, Đang Thi Công, Khu Đô Thị Đại Kim, P. Định Công, Q. Hoàng Mai, TP. Hà Nội</t>
-        </is>
-      </c>
-      <c r="C127" s="8" t="inlineStr">
-        <is>
-          <t>Địa chỉ trả khách</t>
-        </is>
-      </c>
-      <c r="D127" s="8" t="inlineStr">
-        <is>
-          <t>0, Đang Thi Công, Khu Đô Thị Đại Kim, P. Định Công, Q. Hoàng Mai, TP. Hà Nội</t>
-        </is>
-      </c>
-      <c r="E127" s="8" t="inlineStr">
-        <is>
-          <t>H5</t>
-        </is>
-      </c>
-      <c r="F127" s="8" t="inlineStr">
-        <is>
-          <t>H6</t>
-        </is>
-      </c>
+      <c r="A127" s="8" t="inlineStr"/>
+      <c r="B127" s="8" t="inlineStr"/>
+      <c r="C127" s="8" t="inlineStr"/>
+      <c r="D127" s="8" t="inlineStr"/>
+      <c r="E127" s="8" t="inlineStr"/>
+      <c r="F127" s="8" t="inlineStr"/>
     </row>
     <row r="128">
-      <c r="A128" s="8" t="inlineStr">
-        <is>
-          <t>Thời gian cuốc đặt</t>
-        </is>
-      </c>
-      <c r="B128" s="8" t="inlineStr">
-        <is>
-          <t>17:46:34 17/12/2024</t>
-        </is>
-      </c>
-      <c r="C128" s="8" t="inlineStr">
-        <is>
-          <t>Thời gian cuốc đặt</t>
-        </is>
-      </c>
-      <c r="D128" s="8" t="inlineStr">
-        <is>
-          <t>17:46:34 17/12/2024</t>
-        </is>
-      </c>
-      <c r="E128" s="8" t="inlineStr">
-        <is>
-          <t>I5</t>
-        </is>
-      </c>
-      <c r="F128" s="8" t="inlineStr">
-        <is>
-          <t>I6</t>
-        </is>
-      </c>
+      <c r="A128" s="8" t="inlineStr"/>
+      <c r="B128" s="8" t="inlineStr"/>
+      <c r="C128" s="8" t="inlineStr"/>
+      <c r="D128" s="8" t="inlineStr"/>
+      <c r="E128" s="8" t="inlineStr"/>
+      <c r="F128" s="8" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" s="8" t="inlineStr">
-        <is>
-          <t>Thời gian cuốc kết thúc</t>
-        </is>
-      </c>
-      <c r="B129" s="8" t="inlineStr">
-        <is>
-          <t>9:38:20 18/12/2024</t>
-        </is>
-      </c>
-      <c r="C129" s="8" t="inlineStr">
-        <is>
-          <t>Thời gian cuốc kết thúc</t>
-        </is>
-      </c>
-      <c r="D129" s="8" t="inlineStr">
-        <is>
-          <t>9:38:20 18/12/2024</t>
-        </is>
-      </c>
-      <c r="E129" s="8" t="inlineStr">
-        <is>
-          <t>J5</t>
-        </is>
-      </c>
-      <c r="F129" s="8" t="inlineStr">
-        <is>
-          <t>J6</t>
-        </is>
-      </c>
+      <c r="A129" s="8" t="inlineStr"/>
+      <c r="B129" s="8" t="inlineStr"/>
+      <c r="C129" s="8" t="inlineStr"/>
+      <c r="D129" s="8" t="inlineStr"/>
+      <c r="E129" s="8" t="inlineStr"/>
+      <c r="F129" s="8" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" s="8" t="inlineStr">
-        <is>
-          <t>Số Km</t>
-        </is>
-      </c>
-      <c r="B130" s="8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="C130" s="8" t="inlineStr">
-        <is>
-          <t>Số Km</t>
-        </is>
-      </c>
-      <c r="D130" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E130" s="8" t="inlineStr">
-        <is>
-          <t>K5</t>
-        </is>
-      </c>
-      <c r="F130" s="8" t="inlineStr">
-        <is>
-          <t>K6</t>
-        </is>
-      </c>
+      <c r="A130" s="8" t="inlineStr"/>
+      <c r="B130" s="8" t="inlineStr"/>
+      <c r="C130" s="8" t="inlineStr"/>
+      <c r="D130" s="8" t="inlineStr"/>
+      <c r="E130" s="8" t="inlineStr"/>
+      <c r="F130" s="8" t="inlineStr"/>
     </row>
     <row r="131">
-      <c r="A131" s="8" t="inlineStr">
-        <is>
-          <t>Cước di chuyển</t>
-        </is>
-      </c>
-      <c r="B131" s="8" t="inlineStr">
-        <is>
-          <t>0 ₫</t>
-        </is>
-      </c>
-      <c r="C131" s="8" t="inlineStr">
-        <is>
-          <t>Cước di chuyển</t>
-        </is>
-      </c>
-      <c r="D131" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E131" s="8" t="inlineStr">
-        <is>
-          <t>L5</t>
-        </is>
-      </c>
-      <c r="F131" s="8" t="inlineStr">
-        <is>
-          <t>L6</t>
-        </is>
-      </c>
+      <c r="A131" s="8" t="inlineStr"/>
+      <c r="B131" s="8" t="inlineStr"/>
+      <c r="C131" s="8" t="inlineStr"/>
+      <c r="D131" s="8" t="inlineStr"/>
+      <c r="E131" s="8" t="inlineStr"/>
+      <c r="F131" s="8" t="inlineStr"/>
     </row>
     <row r="132">
-      <c r="A132" s="8" t="inlineStr">
-        <is>
-          <t>Cước chờ</t>
-        </is>
-      </c>
-      <c r="B132" s="8" t="inlineStr">
-        <is>
-          <t>0 ₫</t>
-        </is>
-      </c>
-      <c r="C132" s="8" t="inlineStr">
-        <is>
-          <t>Cước chờ</t>
-        </is>
-      </c>
-      <c r="D132" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E132" s="8" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-      <c r="F132" s="8" t="inlineStr">
-        <is>
-          <t>M6</t>
-        </is>
-      </c>
+      <c r="A132" s="8" t="inlineStr"/>
+      <c r="B132" s="8" t="inlineStr"/>
+      <c r="C132" s="8" t="inlineStr"/>
+      <c r="D132" s="8" t="inlineStr"/>
+      <c r="E132" s="8" t="inlineStr"/>
+      <c r="F132" s="8" t="inlineStr"/>
     </row>
     <row r="133">
-      <c r="A133" s="8" t="inlineStr">
-        <is>
-          <t>Phụ phí</t>
-        </is>
-      </c>
-      <c r="B133" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C133" s="8" t="inlineStr">
-        <is>
-          <t>Phụ phí</t>
-        </is>
-      </c>
-      <c r="D133" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E133" s="8" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-      <c r="F133" s="8" t="inlineStr">
-        <is>
-          <t>N6</t>
-        </is>
-      </c>
+      <c r="A133" s="8" t="inlineStr"/>
+      <c r="B133" s="8" t="inlineStr"/>
+      <c r="C133" s="8" t="inlineStr"/>
+      <c r="D133" s="8" t="inlineStr"/>
+      <c r="E133" s="8" t="inlineStr"/>
+      <c r="F133" s="8" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" s="8" t="inlineStr">
-        <is>
-          <t>Doanh thu</t>
-        </is>
-      </c>
-      <c r="B134" s="8" t="inlineStr">
-        <is>
-          <t>0 ₫</t>
-        </is>
-      </c>
-      <c r="C134" s="8" t="inlineStr">
-        <is>
-          <t>Doanh thu</t>
-        </is>
-      </c>
-      <c r="D134" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E134" s="8" t="inlineStr">
-        <is>
-          <t>O5</t>
-        </is>
-      </c>
-      <c r="F134" s="8" t="inlineStr">
-        <is>
-          <t>O6</t>
-        </is>
-      </c>
+      <c r="A134" s="8" t="inlineStr"/>
+      <c r="B134" s="8" t="inlineStr"/>
+      <c r="C134" s="8" t="inlineStr"/>
+      <c r="D134" s="8" t="inlineStr"/>
+      <c r="E134" s="8" t="inlineStr"/>
+      <c r="F134" s="8" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" s="8" t="inlineStr">
-        <is>
-          <t>Thực thu</t>
-        </is>
-      </c>
+      <c r="A135" s="8" t="inlineStr"/>
       <c r="B135" s="8" t="inlineStr"/>
-      <c r="C135" s="8" t="inlineStr">
-        <is>
-          <t>Thực thu</t>
-        </is>
-      </c>
-      <c r="D135" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E135" s="8" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="F135" s="8" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
+      <c r="C135" s="8" t="inlineStr"/>
+      <c r="D135" s="8" t="inlineStr"/>
+      <c r="E135" s="8" t="inlineStr"/>
+      <c r="F135" s="8" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" s="8" t="inlineStr">
-        <is>
-          <t>Ghi chú</t>
-        </is>
-      </c>
+      <c r="A136" s="8" t="inlineStr"/>
       <c r="B136" s="8" t="inlineStr"/>
-      <c r="C136" s="8" t="inlineStr">
-        <is>
-          <t>Ghi chú</t>
-        </is>
-      </c>
+      <c r="C136" s="8" t="inlineStr"/>
       <c r="D136" s="8" t="inlineStr"/>
-      <c r="E136" s="8" t="inlineStr">
-        <is>
-          <t>Q5</t>
-        </is>
-      </c>
-      <c r="F136" s="8" t="inlineStr">
-        <is>
-          <t>Q6</t>
-        </is>
-      </c>
+      <c r="E136" s="8" t="inlineStr"/>
+      <c r="F136" s="8" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" s="8" t="inlineStr">
-        <is>
-          <t>Mã KM/Số tiền KM</t>
-        </is>
-      </c>
-      <c r="B137" s="8" t="inlineStr">
-        <is>
-          <t>...
-0 ₫</t>
-        </is>
-      </c>
-      <c r="C137" s="8" t="inlineStr">
-        <is>
-          <t>Mã KM/Số tiền KM</t>
-        </is>
-      </c>
-      <c r="D137" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E137" s="8" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="F137" s="8" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
+      <c r="A137" s="8" t="inlineStr"/>
+      <c r="B137" s="8" t="inlineStr"/>
+      <c r="C137" s="8" t="inlineStr"/>
+      <c r="D137" s="8" t="inlineStr"/>
+      <c r="E137" s="8" t="inlineStr"/>
+      <c r="F137" s="8" t="inlineStr"/>
     </row>
     <row r="138">
-      <c r="A138" s="8" t="inlineStr">
-        <is>
-          <t>Số tiền thanh toán</t>
-        </is>
-      </c>
-      <c r="B138" s="8" t="inlineStr">
-        <is>
-          <t>0 ₫</t>
-        </is>
-      </c>
-      <c r="C138" s="8" t="inlineStr">
-        <is>
-          <t>Số tiền thanh toán</t>
-        </is>
-      </c>
-      <c r="D138" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E138" s="8" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
-      <c r="F138" s="8" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
+      <c r="A138" s="8" t="inlineStr"/>
+      <c r="B138" s="8" t="inlineStr"/>
+      <c r="C138" s="8" t="inlineStr"/>
+      <c r="D138" s="8" t="inlineStr"/>
+      <c r="E138" s="8" t="inlineStr"/>
+      <c r="F138" s="8" t="inlineStr"/>
     </row>
     <row r="139">
-      <c r="A139" s="8" t="inlineStr">
-        <is>
-          <t>Hình thức thanh toán</t>
-        </is>
-      </c>
-      <c r="B139" s="8" t="inlineStr">
-        <is>
-          <t>Tiền mặt</t>
-        </is>
-      </c>
-      <c r="C139" s="8" t="inlineStr">
-        <is>
-          <t>Hình thức thanh toán</t>
-        </is>
-      </c>
-      <c r="D139" s="8" t="inlineStr">
-        <is>
-          <t>Tiền mặt</t>
-        </is>
-      </c>
-      <c r="E139" s="8" t="inlineStr">
-        <is>
-          <t>T5</t>
-        </is>
-      </c>
-      <c r="F139" s="8" t="inlineStr">
-        <is>
-          <t>T6</t>
-        </is>
-      </c>
+      <c r="A139" s="8" t="inlineStr"/>
+      <c r="B139" s="8" t="inlineStr"/>
+      <c r="C139" s="8" t="inlineStr"/>
+      <c r="D139" s="8" t="inlineStr"/>
+      <c r="E139" s="8" t="inlineStr"/>
+      <c r="F139" s="8" t="inlineStr"/>
     </row>
     <row r="140">
-      <c r="A140" s="8" t="inlineStr">
-        <is>
-          <t>Lộ trình</t>
-        </is>
-      </c>
+      <c r="A140" s="8" t="inlineStr"/>
       <c r="B140" s="8" t="inlineStr"/>
       <c r="C140" s="8" t="inlineStr"/>
       <c r="D140" s="8" t="inlineStr"/>
@@ -2469,11 +2001,7 @@
       <c r="F140" s="8" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" s="8" t="inlineStr">
-        <is>
-          <t>Xem hóa đơn</t>
-        </is>
-      </c>
+      <c r="A141" s="8" t="inlineStr"/>
       <c r="B141" s="8" t="inlineStr"/>
       <c r="C141" s="8" t="inlineStr"/>
       <c r="D141" s="8" t="inlineStr"/>
@@ -2481,11 +2009,7 @@
       <c r="F141" s="8" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" s="8" t="inlineStr">
-        <is>
-          <t>Xuất hóa đơn</t>
-        </is>
-      </c>
+      <c r="A142" s="8" t="inlineStr"/>
       <c r="B142" s="8" t="inlineStr"/>
       <c r="C142" s="8" t="inlineStr"/>
       <c r="D142" s="8" t="inlineStr"/>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -507,8 +507,8 @@
   </sheetPr>
   <dimension ref="A1:O337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="C192" sqref="C192"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="F288" sqref="F288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -556,7 +556,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>auto1210</t>
+          <t>auto1238</t>
         </is>
       </c>
     </row>
@@ -604,27 +604,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[5]/td[1]/img</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[15]/td[1]/img</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[5]/td[2]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[15]/td[2]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[5]/td[3]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[15]/td[3]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[5]/td[4]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[15]/td[4]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[5]/td[5]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[15]/td[5]</t>
         </is>
       </c>
     </row>
@@ -635,11 +635,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1210</v>
+        <v>1243</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>_13052025_1210</t>
+          <t>_19052025_1243</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       <c r="B8" s="2" t="n"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15A31400</t>
+          <t>15A31513</t>
         </is>
       </c>
     </row>
@@ -664,12 +664,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>216</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>216</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>X. Quảng Thanh, H. Thủy Nguyên, TP. Hải Phòng</t>
+          <t>Việt Khê, X. Phù Ninh, H. Thủy Nguyên, TP. Hải Phòng</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>X. Quảng Thanh, H. Thủy Nguyên, TP. Hải Phòng</t>
+          <t>Việt Khê, X. Phù Ninh, H. Thủy Nguyên, TP. Hải Phòng</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20.96959</t>
+          <t>20.97536</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>106.603</t>
+          <t>106.5987</t>
         </is>
       </c>
     </row>
@@ -722,12 +722,12 @@
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>02:05:04</t>
+          <t>01:05:40</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>02:05:04</t>
+          <t>01:05:40</t>
         </is>
       </c>
     </row>
@@ -756,12 +756,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4 chỗ Nguyễn Gia - KIA</t>
+          <t>5 chỗ Nguyễn Gia - VIOS</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4 chỗ Nguyễn Gia - KIA</t>
+          <t>5 chỗ Nguyễn Gia - VIOS</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NGUYỄN VĂN TUẤN</t>
+          <t>VŨ LONG AN</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NGUYỄN VĂN TUẤN</t>
+          <t>VŨ LONG AN</t>
         </is>
       </c>
     </row>
@@ -846,12 +846,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0852466599</t>
+          <t>0866692456</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0852466599</t>
+          <t>0866692456</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2100001203</t>
+          <t>2100001216</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Auto_1205</t>
+          <t>Auto_1233</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>auto1208</t>
+          <t>auto1236</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Auto_ThongBao_1209</t>
+          <t>Auto_ThongBao_1237</t>
         </is>
       </c>
     </row>
@@ -1063,16 +1063,15 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Xuất Excel</t>
+          <t>Thêm mới - Tài khoản đã kích hoạt</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>1. Tải file Excel về máy
-2. Các cột và dữ liệu dòng đầu Web và file Excel phải giống nhau
-(Xem file log)</t>
+          <t>Hiển thị messsage: "Lưu tài khoản giới thiệu thành công."
+(Tài khoản thêm mới ở ghi chú)</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1134,7 @@
     <row r="47" ht="15.75" customHeight="1" s="19">
       <c r="B47" t="inlineStr">
         <is>
-          <t>09:04:02</t>
+          <t>10:48:46</t>
         </is>
       </c>
       <c r="F47" s="11" t="n">
@@ -1285,7 +1284,7 @@
     </row>
     <row r="60">
       <c r="B60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F60" t="n">
         <v>100000</v>
@@ -1296,7 +1295,7 @@
     </row>
     <row r="61">
       <c r="B61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F61" t="n">
         <v>18</v>
@@ -1382,7 +1381,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F66" t="n">
         <v>120000</v>
@@ -1556,7 +1555,7 @@
     </row>
     <row r="81">
       <c r="B81" t="n">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82">
@@ -1614,7 +1613,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>229</t>
         </is>
       </c>
     </row>
@@ -1646,9 +1645,6 @@
           <t>Số tiền nợ(7.7.4)</t>
         </is>
       </c>
-      <c r="B91" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1656,9 +1652,6 @@
           <t>Công nợ đã chốt, nhưng chưa thanh toán(7.7.5)</t>
         </is>
       </c>
-      <c r="B92" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="93" ht="30" customHeight="1" s="19">
       <c r="A93" s="13" t="inlineStr">
@@ -1666,9 +1659,6 @@
           <t>Công nợ thanh toán 1 phần_phần đã thanh toán(7.7.7)</t>
         </is>
       </c>
-      <c r="B93" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1676,9 +1666,6 @@
           <t>Số dư 1</t>
         </is>
       </c>
-      <c r="B94" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1686,9 +1673,6 @@
           <t>Tổng các cuốc chưa thanh toán(7.7.10)</t>
         </is>
       </c>
-      <c r="B95" t="n">
-        <v>2176000</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1696,9 +1680,6 @@
           <t>Số nợ còn 7.7.7</t>
         </is>
       </c>
-      <c r="B96" t="n">
-        <v>2791100</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1706,9 +1687,6 @@
           <t>Số dư 2</t>
         </is>
       </c>
-      <c r="B97" t="n">
-        <v>4967100</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1716,9 +1694,6 @@
           <t>Số tiền nợ chốt</t>
         </is>
       </c>
-      <c r="B98" t="n">
-        <v>24157000</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1726,9 +1701,6 @@
           <t>Số tiền đã thanh toán</t>
         </is>
       </c>
-      <c r="B99" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1736,9 +1708,6 @@
           <t xml:space="preserve">Số nợ còn </t>
         </is>
       </c>
-      <c r="B100" t="n">
-        <v>24157000</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1833,252 +1802,729 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="8" t="inlineStr"/>
-      <c r="B120" s="9" t="inlineStr"/>
-      <c r="C120" s="8" t="inlineStr"/>
-      <c r="D120" s="8" t="inlineStr"/>
-      <c r="E120" s="8" t="inlineStr"/>
-      <c r="F120" s="8" t="inlineStr"/>
+      <c r="A120" s="8" t="inlineStr">
+        <is>
+          <t>STT</t>
+        </is>
+      </c>
+      <c r="B120" s="9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C120" s="8" t="inlineStr">
+        <is>
+          <t>STT</t>
+        </is>
+      </c>
+      <c r="D120" s="8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E120" s="8" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="F120" s="8" t="inlineStr">
+        <is>
+          <t>A6</t>
+        </is>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" s="8" t="inlineStr"/>
-      <c r="B121" s="8" t="inlineStr"/>
-      <c r="C121" s="8" t="inlineStr"/>
-      <c r="D121" s="8" t="inlineStr"/>
-      <c r="E121" s="8" t="inlineStr"/>
-      <c r="F121" s="8" t="inlineStr"/>
+      <c r="A121" s="8" t="inlineStr">
+        <is>
+          <t>Tên lái xe</t>
+        </is>
+      </c>
+      <c r="B121" s="8" t="inlineStr">
+        <is>
+          <t>khánh trinh</t>
+        </is>
+      </c>
+      <c r="C121" s="8" t="inlineStr">
+        <is>
+          <t>Tên lái xe</t>
+        </is>
+      </c>
+      <c r="D121" s="8" t="inlineStr">
+        <is>
+          <t>khánh trinh</t>
+        </is>
+      </c>
+      <c r="E121" s="8" t="inlineStr">
+        <is>
+          <t>B5</t>
+        </is>
+      </c>
+      <c r="F121" s="8" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" s="8" t="inlineStr"/>
-      <c r="B122" s="8" t="inlineStr"/>
-      <c r="C122" s="8" t="inlineStr"/>
-      <c r="D122" s="8" t="inlineStr"/>
-      <c r="E122" s="8" t="inlineStr"/>
-      <c r="F122" s="8" t="inlineStr"/>
+      <c r="A122" s="8" t="inlineStr">
+        <is>
+          <t>Mã lái xe</t>
+        </is>
+      </c>
+      <c r="B122" s="8" t="inlineStr">
+        <is>
+          <t>batrinh209a</t>
+        </is>
+      </c>
+      <c r="C122" s="8" t="inlineStr">
+        <is>
+          <t>Mã lái xe</t>
+        </is>
+      </c>
+      <c r="D122" s="8" t="inlineStr">
+        <is>
+          <t>batrinh209a</t>
+        </is>
+      </c>
+      <c r="E122" s="8" t="inlineStr">
+        <is>
+          <t>C5</t>
+        </is>
+      </c>
+      <c r="F122" s="8" t="inlineStr">
+        <is>
+          <t>C6</t>
+        </is>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" s="8" t="inlineStr"/>
-      <c r="B123" s="8" t="inlineStr"/>
-      <c r="C123" s="8" t="inlineStr"/>
-      <c r="D123" s="8" t="inlineStr"/>
-      <c r="E123" s="8" t="inlineStr"/>
-      <c r="F123" s="8" t="inlineStr"/>
+      <c r="A123" s="8" t="inlineStr">
+        <is>
+          <t>Biển số</t>
+        </is>
+      </c>
+      <c r="B123" s="8" t="inlineStr">
+        <is>
+          <t>BATRINH</t>
+        </is>
+      </c>
+      <c r="C123" s="8" t="inlineStr">
+        <is>
+          <t>Biển số</t>
+        </is>
+      </c>
+      <c r="D123" s="8" t="inlineStr">
+        <is>
+          <t>BATRINH</t>
+        </is>
+      </c>
+      <c r="E123" s="8" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="F123" s="8" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" s="8" t="inlineStr"/>
-      <c r="B124" s="8" t="inlineStr"/>
-      <c r="C124" s="8" t="inlineStr"/>
-      <c r="D124" s="8" t="inlineStr"/>
-      <c r="E124" s="8" t="inlineStr"/>
-      <c r="F124" s="8" t="inlineStr"/>
+      <c r="A124" s="8" t="inlineStr">
+        <is>
+          <t>Số hiệu</t>
+        </is>
+      </c>
+      <c r="B124" s="8" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="C124" s="8" t="inlineStr">
+        <is>
+          <t>Số hiệu</t>
+        </is>
+      </c>
+      <c r="D124" s="8" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="E124" s="8" t="inlineStr">
+        <is>
+          <t>E5</t>
+        </is>
+      </c>
+      <c r="F124" s="8" t="inlineStr">
+        <is>
+          <t>E6</t>
+        </is>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" s="8" t="inlineStr"/>
-      <c r="B125" s="8" t="inlineStr"/>
-      <c r="C125" s="8" t="inlineStr"/>
-      <c r="D125" s="8" t="inlineStr"/>
-      <c r="E125" s="8" t="inlineStr"/>
-      <c r="F125" s="8" t="inlineStr"/>
+      <c r="A125" s="8" t="inlineStr">
+        <is>
+          <t>SĐT khách hàng</t>
+        </is>
+      </c>
+      <c r="B125" s="8" t="n"/>
+      <c r="C125" s="8" t="inlineStr">
+        <is>
+          <t>SĐT khách hàng</t>
+        </is>
+      </c>
+      <c r="D125" s="8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E125" s="8" t="inlineStr">
+        <is>
+          <t>F5</t>
+        </is>
+      </c>
+      <c r="F125" s="8" t="inlineStr">
+        <is>
+          <t>F6</t>
+        </is>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" s="8" t="inlineStr"/>
-      <c r="B126" s="8" t="inlineStr"/>
-      <c r="C126" s="8" t="inlineStr"/>
-      <c r="D126" s="8" t="inlineStr"/>
-      <c r="E126" s="8" t="inlineStr"/>
-      <c r="F126" s="8" t="inlineStr"/>
+      <c r="A126" s="8" t="inlineStr">
+        <is>
+          <t>Địa chỉ đón khách</t>
+        </is>
+      </c>
+      <c r="B126" s="8" t="inlineStr">
+        <is>
+          <t>14 Phố Nguyễn Cảnh Dị, phường Định Công, quận Hoàng Mai, thành phố Hà Nội</t>
+        </is>
+      </c>
+      <c r="C126" s="8" t="inlineStr">
+        <is>
+          <t>Địa chỉ đón khách</t>
+        </is>
+      </c>
+      <c r="D126" s="8" t="inlineStr">
+        <is>
+          <t>14 Phố Nguyễn Cảnh Dị, phường Định Công, quận Hoàng Mai, thành phố Hà Nội</t>
+        </is>
+      </c>
+      <c r="E126" s="8" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
+      </c>
+      <c r="F126" s="8" t="inlineStr">
+        <is>
+          <t>G6</t>
+        </is>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" s="8" t="inlineStr"/>
-      <c r="B127" s="8" t="inlineStr"/>
-      <c r="C127" s="8" t="inlineStr"/>
-      <c r="D127" s="8" t="inlineStr"/>
-      <c r="E127" s="8" t="inlineStr"/>
-      <c r="F127" s="8" t="inlineStr"/>
+      <c r="A127" s="8" t="inlineStr">
+        <is>
+          <t>Địa chỉ trả khách</t>
+        </is>
+      </c>
+      <c r="B127" s="8" t="inlineStr">
+        <is>
+          <t>0, Đang Thi Công, Khu Đô Thị Đại Kim, P. Định Công, Q. Hoàng Mai, TP. Hà Nội</t>
+        </is>
+      </c>
+      <c r="C127" s="8" t="inlineStr">
+        <is>
+          <t>Địa chỉ trả khách</t>
+        </is>
+      </c>
+      <c r="D127" s="8" t="inlineStr">
+        <is>
+          <t>0, Đang Thi Công, Khu Đô Thị Đại Kim, P. Định Công, Q. Hoàng Mai, TP. Hà Nội</t>
+        </is>
+      </c>
+      <c r="E127" s="8" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="F127" s="8" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" s="8" t="inlineStr"/>
-      <c r="B128" s="8" t="inlineStr"/>
-      <c r="C128" s="8" t="inlineStr"/>
-      <c r="D128" s="8" t="inlineStr"/>
-      <c r="E128" s="8" t="inlineStr"/>
-      <c r="F128" s="8" t="inlineStr"/>
+      <c r="A128" s="8" t="inlineStr">
+        <is>
+          <t>Thời gian cuốc đặt</t>
+        </is>
+      </c>
+      <c r="B128" s="8" t="inlineStr">
+        <is>
+          <t>17:46:34 17/12/2024</t>
+        </is>
+      </c>
+      <c r="C128" s="8" t="inlineStr">
+        <is>
+          <t>Thời gian cuốc đặt</t>
+        </is>
+      </c>
+      <c r="D128" s="8" t="inlineStr">
+        <is>
+          <t>17:46:34 17/12/2024</t>
+        </is>
+      </c>
+      <c r="E128" s="8" t="inlineStr">
+        <is>
+          <t>I5</t>
+        </is>
+      </c>
+      <c r="F128" s="8" t="inlineStr">
+        <is>
+          <t>I6</t>
+        </is>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" s="8" t="inlineStr"/>
-      <c r="B129" s="8" t="inlineStr"/>
-      <c r="C129" s="8" t="inlineStr"/>
-      <c r="D129" s="8" t="inlineStr"/>
-      <c r="E129" s="8" t="inlineStr"/>
-      <c r="F129" s="8" t="inlineStr"/>
+      <c r="A129" s="8" t="inlineStr">
+        <is>
+          <t>Thời gian cuốc kết thúc</t>
+        </is>
+      </c>
+      <c r="B129" s="8" t="inlineStr">
+        <is>
+          <t>9:38:20 18/12/2024</t>
+        </is>
+      </c>
+      <c r="C129" s="8" t="inlineStr">
+        <is>
+          <t>Thời gian cuốc kết thúc</t>
+        </is>
+      </c>
+      <c r="D129" s="8" t="inlineStr">
+        <is>
+          <t>9:38:20 18/12/2024</t>
+        </is>
+      </c>
+      <c r="E129" s="8" t="inlineStr">
+        <is>
+          <t>J5</t>
+        </is>
+      </c>
+      <c r="F129" s="8" t="inlineStr">
+        <is>
+          <t>J6</t>
+        </is>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" s="8" t="inlineStr"/>
-      <c r="B130" s="8" t="inlineStr"/>
-      <c r="C130" s="8" t="inlineStr"/>
-      <c r="D130" s="8" t="inlineStr"/>
-      <c r="E130" s="8" t="inlineStr"/>
-      <c r="F130" s="8" t="inlineStr"/>
+      <c r="A130" s="8" t="inlineStr">
+        <is>
+          <t>Số Km</t>
+        </is>
+      </c>
+      <c r="B130" s="8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C130" s="8" t="inlineStr">
+        <is>
+          <t>Số Km</t>
+        </is>
+      </c>
+      <c r="D130" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E130" s="8" t="inlineStr">
+        <is>
+          <t>K5</t>
+        </is>
+      </c>
+      <c r="F130" s="8" t="inlineStr">
+        <is>
+          <t>K6</t>
+        </is>
+      </c>
     </row>
     <row r="131">
-      <c r="A131" s="8" t="inlineStr"/>
-      <c r="B131" s="8" t="inlineStr"/>
-      <c r="C131" s="8" t="inlineStr"/>
-      <c r="D131" s="8" t="inlineStr"/>
-      <c r="E131" s="8" t="inlineStr"/>
-      <c r="F131" s="8" t="inlineStr"/>
+      <c r="A131" s="8" t="inlineStr">
+        <is>
+          <t>Cước di chuyển</t>
+        </is>
+      </c>
+      <c r="B131" s="8" t="inlineStr">
+        <is>
+          <t>0 ₫</t>
+        </is>
+      </c>
+      <c r="C131" s="8" t="inlineStr">
+        <is>
+          <t>Cước di chuyển</t>
+        </is>
+      </c>
+      <c r="D131" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E131" s="8" t="inlineStr">
+        <is>
+          <t>L5</t>
+        </is>
+      </c>
+      <c r="F131" s="8" t="inlineStr">
+        <is>
+          <t>L6</t>
+        </is>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" s="8" t="inlineStr"/>
-      <c r="B132" s="8" t="inlineStr"/>
-      <c r="C132" s="8" t="inlineStr"/>
-      <c r="D132" s="8" t="inlineStr"/>
-      <c r="E132" s="8" t="inlineStr"/>
-      <c r="F132" s="8" t="inlineStr"/>
+      <c r="A132" s="8" t="inlineStr">
+        <is>
+          <t>Cước chờ</t>
+        </is>
+      </c>
+      <c r="B132" s="8" t="inlineStr">
+        <is>
+          <t>0 ₫</t>
+        </is>
+      </c>
+      <c r="C132" s="8" t="inlineStr">
+        <is>
+          <t>Cước chờ</t>
+        </is>
+      </c>
+      <c r="D132" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E132" s="8" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="F132" s="8" t="inlineStr">
+        <is>
+          <t>M6</t>
+        </is>
+      </c>
     </row>
     <row r="133">
-      <c r="A133" s="8" t="inlineStr"/>
-      <c r="B133" s="8" t="inlineStr"/>
-      <c r="C133" s="8" t="inlineStr"/>
-      <c r="D133" s="8" t="inlineStr"/>
-      <c r="E133" s="8" t="inlineStr"/>
-      <c r="F133" s="8" t="inlineStr"/>
+      <c r="A133" s="8" t="inlineStr">
+        <is>
+          <t>Phụ phí</t>
+        </is>
+      </c>
+      <c r="B133" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C133" s="8" t="inlineStr">
+        <is>
+          <t>Phụ phí</t>
+        </is>
+      </c>
+      <c r="D133" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E133" s="8" t="inlineStr">
+        <is>
+          <t>N5</t>
+        </is>
+      </c>
+      <c r="F133" s="8" t="inlineStr">
+        <is>
+          <t>N6</t>
+        </is>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" s="8" t="inlineStr"/>
-      <c r="B134" s="8" t="inlineStr"/>
-      <c r="C134" s="8" t="inlineStr"/>
-      <c r="D134" s="8" t="inlineStr"/>
-      <c r="E134" s="8" t="inlineStr"/>
-      <c r="F134" s="8" t="inlineStr"/>
+      <c r="A134" s="8" t="inlineStr">
+        <is>
+          <t>Doanh thu</t>
+        </is>
+      </c>
+      <c r="B134" s="8" t="inlineStr">
+        <is>
+          <t>0 ₫</t>
+        </is>
+      </c>
+      <c r="C134" s="8" t="inlineStr">
+        <is>
+          <t>Doanh thu</t>
+        </is>
+      </c>
+      <c r="D134" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E134" s="8" t="inlineStr">
+        <is>
+          <t>O5</t>
+        </is>
+      </c>
+      <c r="F134" s="8" t="inlineStr">
+        <is>
+          <t>O6</t>
+        </is>
+      </c>
     </row>
     <row r="135">
-      <c r="A135" s="8" t="inlineStr"/>
-      <c r="B135" s="8" t="inlineStr"/>
-      <c r="C135" s="8" t="inlineStr"/>
-      <c r="D135" s="8" t="inlineStr"/>
-      <c r="E135" s="8" t="inlineStr"/>
-      <c r="F135" s="8" t="inlineStr"/>
+      <c r="A135" s="8" t="inlineStr">
+        <is>
+          <t>Thực thu</t>
+        </is>
+      </c>
+      <c r="B135" s="8" t="n"/>
+      <c r="C135" s="8" t="inlineStr">
+        <is>
+          <t>Thực thu</t>
+        </is>
+      </c>
+      <c r="D135" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E135" s="8" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="F135" s="8" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" s="8" t="inlineStr"/>
-      <c r="B136" s="8" t="inlineStr"/>
-      <c r="C136" s="8" t="inlineStr"/>
-      <c r="D136" s="8" t="inlineStr"/>
-      <c r="E136" s="8" t="inlineStr"/>
-      <c r="F136" s="8" t="inlineStr"/>
+      <c r="A136" s="8" t="inlineStr">
+        <is>
+          <t>Ghi chú</t>
+        </is>
+      </c>
+      <c r="B136" s="8" t="n"/>
+      <c r="C136" s="8" t="inlineStr">
+        <is>
+          <t>Ghi chú</t>
+        </is>
+      </c>
+      <c r="D136" s="8" t="n"/>
+      <c r="E136" s="8" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="F136" s="8" t="inlineStr">
+        <is>
+          <t>Q6</t>
+        </is>
+      </c>
     </row>
     <row r="137">
-      <c r="A137" s="8" t="inlineStr"/>
-      <c r="B137" s="8" t="inlineStr"/>
-      <c r="C137" s="8" t="inlineStr"/>
-      <c r="D137" s="8" t="inlineStr"/>
-      <c r="E137" s="8" t="inlineStr"/>
-      <c r="F137" s="8" t="inlineStr"/>
+      <c r="A137" s="8" t="inlineStr">
+        <is>
+          <t>Mã KM/Số tiền KM</t>
+        </is>
+      </c>
+      <c r="B137" s="8" t="inlineStr">
+        <is>
+          <t>...
+0 ₫</t>
+        </is>
+      </c>
+      <c r="C137" s="8" t="inlineStr">
+        <is>
+          <t>Mã KM/Số tiền KM</t>
+        </is>
+      </c>
+      <c r="D137" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E137" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="F137" s="8" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
     </row>
     <row r="138">
-      <c r="A138" s="8" t="inlineStr"/>
-      <c r="B138" s="8" t="inlineStr"/>
-      <c r="C138" s="8" t="inlineStr"/>
-      <c r="D138" s="8" t="inlineStr"/>
-      <c r="E138" s="8" t="inlineStr"/>
-      <c r="F138" s="8" t="inlineStr"/>
+      <c r="A138" s="8" t="inlineStr">
+        <is>
+          <t>Số tiền thanh toán</t>
+        </is>
+      </c>
+      <c r="B138" s="8" t="inlineStr">
+        <is>
+          <t>0 ₫</t>
+        </is>
+      </c>
+      <c r="C138" s="8" t="inlineStr">
+        <is>
+          <t>Số tiền thanh toán</t>
+        </is>
+      </c>
+      <c r="D138" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E138" s="8" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="F138" s="8" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" s="8" t="inlineStr"/>
-      <c r="B139" s="8" t="inlineStr"/>
-      <c r="C139" s="8" t="inlineStr"/>
-      <c r="D139" s="8" t="inlineStr"/>
-      <c r="E139" s="8" t="inlineStr"/>
-      <c r="F139" s="8" t="inlineStr"/>
+      <c r="A139" s="8" t="inlineStr">
+        <is>
+          <t>Hình thức thanh toán</t>
+        </is>
+      </c>
+      <c r="B139" s="8" t="inlineStr">
+        <is>
+          <t>Tiền mặt</t>
+        </is>
+      </c>
+      <c r="C139" s="8" t="inlineStr">
+        <is>
+          <t>Hình thức thanh toán</t>
+        </is>
+      </c>
+      <c r="D139" s="8" t="inlineStr">
+        <is>
+          <t>Tiền mặt</t>
+        </is>
+      </c>
+      <c r="E139" s="8" t="inlineStr">
+        <is>
+          <t>T5</t>
+        </is>
+      </c>
+      <c r="F139" s="8" t="inlineStr">
+        <is>
+          <t>T6</t>
+        </is>
+      </c>
     </row>
     <row r="140">
-      <c r="A140" s="8" t="inlineStr"/>
-      <c r="B140" s="8" t="inlineStr"/>
-      <c r="C140" s="8" t="inlineStr"/>
-      <c r="D140" s="8" t="inlineStr"/>
-      <c r="E140" s="8" t="inlineStr"/>
-      <c r="F140" s="8" t="inlineStr"/>
+      <c r="A140" s="8" t="inlineStr">
+        <is>
+          <t>Lộ trình</t>
+        </is>
+      </c>
+      <c r="B140" s="8" t="n"/>
+      <c r="C140" s="8" t="n"/>
+      <c r="D140" s="8" t="n"/>
+      <c r="E140" s="8" t="n"/>
+      <c r="F140" s="8" t="n"/>
     </row>
     <row r="141">
-      <c r="A141" s="8" t="inlineStr"/>
-      <c r="B141" s="8" t="inlineStr"/>
-      <c r="C141" s="8" t="inlineStr"/>
-      <c r="D141" s="8" t="inlineStr"/>
-      <c r="E141" s="8" t="inlineStr"/>
-      <c r="F141" s="8" t="inlineStr"/>
+      <c r="A141" s="8" t="inlineStr">
+        <is>
+          <t>Xem hóa đơn</t>
+        </is>
+      </c>
+      <c r="B141" s="8" t="n"/>
+      <c r="C141" s="8" t="n"/>
+      <c r="D141" s="8" t="n"/>
+      <c r="E141" s="8" t="n"/>
+      <c r="F141" s="8" t="n"/>
     </row>
     <row r="142">
-      <c r="A142" s="8" t="inlineStr"/>
-      <c r="B142" s="8" t="inlineStr"/>
-      <c r="C142" s="8" t="inlineStr"/>
-      <c r="D142" s="8" t="inlineStr"/>
-      <c r="E142" s="8" t="inlineStr"/>
-      <c r="F142" s="8" t="inlineStr"/>
+      <c r="A142" s="8" t="inlineStr">
+        <is>
+          <t>Xuất hóa đơn</t>
+        </is>
+      </c>
+      <c r="B142" s="8" t="n"/>
+      <c r="C142" s="8" t="n"/>
+      <c r="D142" s="8" t="n"/>
+      <c r="E142" s="8" t="n"/>
+      <c r="F142" s="8" t="n"/>
     </row>
     <row r="143">
-      <c r="A143" s="8" t="inlineStr"/>
-      <c r="B143" s="8" t="inlineStr"/>
-      <c r="C143" s="8" t="inlineStr"/>
-      <c r="D143" s="8" t="inlineStr"/>
-      <c r="E143" s="8" t="inlineStr"/>
-      <c r="F143" s="8" t="inlineStr"/>
+      <c r="A143" s="8" t="n"/>
+      <c r="B143" s="8" t="n"/>
+      <c r="C143" s="8" t="n"/>
+      <c r="D143" s="8" t="n"/>
+      <c r="E143" s="8" t="n"/>
+      <c r="F143" s="8" t="n"/>
     </row>
     <row r="144">
-      <c r="A144" s="8" t="inlineStr"/>
-      <c r="B144" s="8" t="inlineStr"/>
-      <c r="C144" s="8" t="inlineStr"/>
-      <c r="D144" s="8" t="inlineStr"/>
-      <c r="E144" s="8" t="inlineStr"/>
-      <c r="F144" s="8" t="inlineStr"/>
+      <c r="A144" s="8" t="n"/>
+      <c r="B144" s="8" t="n"/>
+      <c r="C144" s="8" t="n"/>
+      <c r="D144" s="8" t="n"/>
+      <c r="E144" s="8" t="n"/>
+      <c r="F144" s="8" t="n"/>
     </row>
     <row r="145">
-      <c r="A145" s="8" t="inlineStr"/>
-      <c r="B145" s="8" t="inlineStr"/>
-      <c r="C145" s="8" t="inlineStr"/>
-      <c r="D145" s="8" t="inlineStr"/>
-      <c r="E145" s="8" t="inlineStr"/>
-      <c r="F145" s="8" t="inlineStr"/>
+      <c r="A145" s="8" t="n"/>
+      <c r="B145" s="8" t="n"/>
+      <c r="C145" s="8" t="n"/>
+      <c r="D145" s="8" t="n"/>
+      <c r="E145" s="8" t="n"/>
+      <c r="F145" s="8" t="n"/>
     </row>
     <row r="146">
-      <c r="A146" s="8" t="inlineStr"/>
-      <c r="B146" s="8" t="inlineStr"/>
-      <c r="C146" s="8" t="inlineStr"/>
-      <c r="D146" s="8" t="inlineStr"/>
-      <c r="E146" s="8" t="inlineStr"/>
-      <c r="F146" s="8" t="inlineStr"/>
+      <c r="A146" s="8" t="n"/>
+      <c r="B146" s="8" t="n"/>
+      <c r="C146" s="8" t="n"/>
+      <c r="D146" s="8" t="n"/>
+      <c r="E146" s="8" t="n"/>
+      <c r="F146" s="8" t="n"/>
     </row>
     <row r="147">
-      <c r="A147" s="8" t="inlineStr"/>
-      <c r="B147" s="8" t="inlineStr"/>
-      <c r="C147" s="8" t="inlineStr"/>
-      <c r="D147" s="8" t="inlineStr"/>
-      <c r="E147" s="8" t="inlineStr"/>
-      <c r="F147" s="8" t="inlineStr"/>
+      <c r="A147" s="8" t="n"/>
+      <c r="B147" s="8" t="n"/>
+      <c r="C147" s="8" t="n"/>
+      <c r="D147" s="8" t="n"/>
+      <c r="E147" s="8" t="n"/>
+      <c r="F147" s="8" t="n"/>
     </row>
     <row r="148">
-      <c r="A148" s="8" t="inlineStr"/>
-      <c r="B148" s="8" t="inlineStr"/>
-      <c r="C148" s="8" t="inlineStr"/>
-      <c r="D148" s="8" t="inlineStr"/>
-      <c r="E148" s="8" t="inlineStr"/>
-      <c r="F148" s="8" t="inlineStr"/>
+      <c r="A148" s="8" t="n"/>
+      <c r="B148" s="8" t="n"/>
+      <c r="C148" s="8" t="n"/>
+      <c r="D148" s="8" t="n"/>
+      <c r="E148" s="8" t="n"/>
+      <c r="F148" s="8" t="n"/>
     </row>
     <row r="149">
-      <c r="A149" s="8" t="inlineStr"/>
-      <c r="B149" s="8" t="inlineStr"/>
-      <c r="C149" s="8" t="inlineStr"/>
-      <c r="D149" s="8" t="inlineStr"/>
-      <c r="E149" s="8" t="inlineStr"/>
-      <c r="F149" s="8" t="inlineStr"/>
+      <c r="A149" s="8" t="n"/>
+      <c r="B149" s="8" t="n"/>
+      <c r="C149" s="8" t="n"/>
+      <c r="D149" s="8" t="n"/>
+      <c r="E149" s="8" t="n"/>
+      <c r="F149" s="8" t="n"/>
     </row>
     <row r="150">
-      <c r="A150" s="10" t="inlineStr"/>
-      <c r="B150" s="10" t="inlineStr"/>
-      <c r="C150" s="10" t="inlineStr"/>
-      <c r="D150" s="10" t="inlineStr"/>
-      <c r="E150" s="10" t="inlineStr"/>
-      <c r="F150" s="10" t="inlineStr"/>
+      <c r="A150" s="10" t="n"/>
+      <c r="B150" s="10" t="n"/>
+      <c r="C150" s="10" t="n"/>
+      <c r="D150" s="10" t="n"/>
+      <c r="E150" s="10" t="n"/>
+      <c r="F150" s="10" t="n"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2951,6 +3397,75 @@
       <c r="A238" t="inlineStr">
         <is>
           <t>Mất thẻ(7.7.3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="290" ht="135" customHeight="1" s="19">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Tên case</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Login01, Login02, </t>
+        </is>
+      </c>
+      <c r="C290" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Login01 Đăng nhập với tài khoản admin, 
+Login02 Đăng nhập với tài khoản công ty
+(Taxi Nguyễn Gia), 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" ht="409.5" customHeight="1" s="19">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B292" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -Mã: Login01
+ -Tên sự kiện: Đăng nhập với tài khoản admin
+ -Tài khoản: "autostaxi", "auto@1234"
+ -Các bước thao tác: 1. Tại trang: "https://app.g7taxi.vn/", login với tài khoản, mật khẩu
+ -Kết quả mong muốn: Đăng nhập thành công vào trang "Quản trị"
+Hiển thị text: "Chào mừng đến với trang quản trị hệ thống Staxi"
+ -Kết quả thực tế: None
+ -Trạng thái: Fail
+---------------------------------------------------------
+ -Mã: Login02
+ -Tên sự kiện: Đăng nhập với tài khoản công ty
+(Taxi Nguyễn Gia)
+ -Tài khoản: "autoba9348", "autoba@1234"
+ -Các bước thao tác: 1. Tại trang: "https://app.staxi.vn/"
+2. Login với tài khoản, mật khẩu
+ -Kết quả mong muốn: Đăng nhập thành công vào trang "Quản trị"
+tài khoản: "Xin chào: [9348] Taxi Nguyễn Gia [9348]"
+ -Kết quả thực tế: None
+ -Trạng thái: Fail
+---------------------------------------------------------
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Đang check cuộc gọi</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -556,7 +556,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>auto1271</t>
+          <t>auto1346</t>
         </is>
       </c>
     </row>
@@ -604,27 +604,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[4]/td[1]/img</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[5]/td[1]/img</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[4]/td[2]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[5]/td[2]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[4]/td[3]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[5]/td[3]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[4]/td[4]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[5]/td[4]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[4]/td[5]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[5]/td[5]</t>
         </is>
       </c>
     </row>
@@ -635,11 +635,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1278</v>
+        <v>1347</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>_29052025_1278</t>
+          <t>_13062025_1347</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       <c r="B8" s="2" t="n"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15A31433</t>
+          <t>15A31400</t>
         </is>
       </c>
     </row>
@@ -664,12 +664,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>116</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>18, Phố Mới, X. Thủy Sơn, H. Thủy Nguyên, TP. Hải Phòng</t>
+          <t>X. Quảng Thanh, H. Thủy Nguyên, TP. Hải Phòng</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8, Phố Mới, X. Thủy Sơn, H. Thủy Nguyên, TP. Hải Phòng</t>
+          <t>X. Quảng Thanh, H. Thủy Nguyên, TP. Hải Phòng</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20.91298</t>
+          <t>20.96962</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>106.6742</t>
+          <t>106.6029</t>
         </is>
       </c>
     </row>
@@ -722,12 +722,12 @@
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>08:19:04</t>
+          <t>02:05:24</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>08:19:04</t>
+          <t>02:05:30</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ĐÀO LONG VŨ</t>
+          <t>NGUYỄN VĂN TUẤN</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ĐÀO LONG VŨ</t>
+          <t>NGUYỄN VĂN TUẤN</t>
         </is>
       </c>
     </row>
@@ -846,12 +846,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0782009958</t>
+          <t>0852466599</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0782009958</t>
+          <t>0852466599</t>
         </is>
       </c>
     </row>
@@ -892,12 +892,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Auto_KM_Chung1152</t>
+          <t>Auto_KM_Chung1282</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Auto_KM_Rieng1154</t>
+          <t>Auto_KM_Rieng1285</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2100001250</t>
+          <t>2100001337</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Auto_CaiAppMoi504</t>
+          <t>Auto_CaiAppMoi1287</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Auto_customer_1183</t>
+          <t>Auto_customer_1288</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Auto1275</t>
+          <t>Auto1339</t>
         </is>
       </c>
     </row>
@@ -998,7 +998,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Auto_1233</t>
+          <t>Auto_1340</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>auto1236</t>
+          <t>auto1343</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Auto_ThongBao_1278</t>
+          <t>Auto_ThongBao_1347</t>
         </is>
       </c>
     </row>
@@ -1063,14 +1063,14 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Xóa</t>
+          <t>Mã cuốc khách</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hiển thị message: "Xóa thông báo thành công."</t>
+          <t>Trường "Mã cuốc khách" hiện thị đúng Mã cuốc khách đã nhập</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
     <row r="47" ht="15.75" customHeight="1" s="19">
       <c r="B47" t="inlineStr">
         <is>
-          <t>09:25:58</t>
+          <t>09:16:45</t>
         </is>
       </c>
       <c r="F47" s="11" t="n">
@@ -1283,7 +1283,7 @@
     </row>
     <row r="60">
       <c r="B60" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F60" t="n">
         <v>100000</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="61">
       <c r="B61" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F61" t="n">
         <v>18</v>
@@ -1380,7 +1380,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F66" t="n">
         <v>120000</v>
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="81">
       <c r="B81" t="n">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>224</t>
         </is>
       </c>
     </row>
@@ -1803,22 +1803,22 @@
     <row r="120">
       <c r="A120" s="8" t="inlineStr">
         <is>
-          <t>Mã cuốc khách</t>
+          <t>STT</t>
         </is>
       </c>
       <c r="B120" s="9" t="inlineStr">
         <is>
-          <t>00002A63</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C120" s="8" t="inlineStr">
         <is>
-          <t>Mã cuốc khách</t>
+          <t>STT</t>
         </is>
       </c>
       <c r="D120" s="8" t="inlineStr">
         <is>
-          <t>00002A63</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E120" s="8" t="inlineStr">
@@ -1835,22 +1835,22 @@
     <row r="121">
       <c r="A121" s="8" t="inlineStr">
         <is>
-          <t>Nguồn cuốc</t>
+          <t>Tên lái xe</t>
         </is>
       </c>
       <c r="B121" s="8" t="inlineStr">
         <is>
-          <t>Nguồn logfile</t>
+          <t>Nguyễn Văn Tài 90</t>
         </is>
       </c>
       <c r="C121" s="8" t="inlineStr">
         <is>
-          <t>Nguồn cuốc</t>
+          <t>Tên lái xe</t>
         </is>
       </c>
       <c r="D121" s="8" t="inlineStr">
         <is>
-          <t>Nguồn logfile</t>
+          <t>Nguyễn Văn Tài 90</t>
         </is>
       </c>
       <c r="E121" s="8" t="inlineStr">
@@ -1867,22 +1867,22 @@
     <row r="122">
       <c r="A122" s="8" t="inlineStr">
         <is>
-          <t>Loại cuốc</t>
+          <t>Mã lái xe</t>
         </is>
       </c>
       <c r="B122" s="8" t="inlineStr">
         <is>
-          <t>Cuốc bình thường</t>
+          <t>auto376</t>
         </is>
       </c>
       <c r="C122" s="8" t="inlineStr">
         <is>
-          <t>Loại cuốc</t>
+          <t>Mã lái xe</t>
         </is>
       </c>
       <c r="D122" s="8" t="inlineStr">
         <is>
-          <t>Cuốc bình thường</t>
+          <t>auto376</t>
         </is>
       </c>
       <c r="E122" s="8" t="inlineStr">
@@ -1899,22 +1899,22 @@
     <row r="123">
       <c r="A123" s="8" t="inlineStr">
         <is>
-          <t>Thời gian cuốc đặt</t>
+          <t>Biển số</t>
         </is>
       </c>
       <c r="B123" s="8" t="inlineStr">
         <is>
-          <t>0:4:0 28/5/2025</t>
+          <t>30A76818</t>
         </is>
       </c>
       <c r="C123" s="8" t="inlineStr">
         <is>
-          <t>Thời gian cuốc đặt</t>
+          <t>Biển số</t>
         </is>
       </c>
       <c r="D123" s="8" t="inlineStr">
         <is>
-          <t>0:4:0 28/5/2025</t>
+          <t>30A76818</t>
         </is>
       </c>
       <c r="E123" s="8" t="inlineStr">
@@ -1931,22 +1931,22 @@
     <row r="124">
       <c r="A124" s="8" t="inlineStr">
         <is>
-          <t>Trạng thái</t>
+          <t>Số hiệu</t>
         </is>
       </c>
       <c r="B124" s="8" t="inlineStr">
         <is>
-          <t>Thành công</t>
+          <t>2121</t>
         </is>
       </c>
       <c r="C124" s="8" t="inlineStr">
         <is>
-          <t>Trạng thái</t>
+          <t>Số hiệu</t>
         </is>
       </c>
       <c r="D124" s="8" t="inlineStr">
         <is>
-          <t>Thành công</t>
+          <t>2121</t>
         </is>
       </c>
       <c r="E124" s="8" t="inlineStr">
@@ -1963,22 +1963,18 @@
     <row r="125">
       <c r="A125" s="8" t="inlineStr">
         <is>
-          <t>Tên lái xe</t>
-        </is>
-      </c>
-      <c r="B125" s="8" t="inlineStr">
-        <is>
-          <t>Bùi Đình Thám</t>
-        </is>
-      </c>
+          <t>SĐT khách hàng</t>
+        </is>
+      </c>
+      <c r="B125" s="8" t="inlineStr"/>
       <c r="C125" s="8" t="inlineStr">
         <is>
-          <t>Tên lái xe</t>
+          <t>SĐT khách hàng</t>
         </is>
       </c>
       <c r="D125" s="8" t="inlineStr">
         <is>
-          <t>Bùi Đình Thám</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E125" s="8" t="inlineStr">
@@ -1995,22 +1991,22 @@
     <row r="126">
       <c r="A126" s="8" t="inlineStr">
         <is>
-          <t>Tên đăng nhập</t>
+          <t>Địa chỉ đón khách</t>
         </is>
       </c>
       <c r="B126" s="8" t="inlineStr">
         <is>
-          <t>0986742223</t>
+          <t>14, Nguyễn Cảnh Dị, P. Đại Kim, Q. Hoàng Mai, TP. Hà Nội</t>
         </is>
       </c>
       <c r="C126" s="8" t="inlineStr">
         <is>
-          <t>Tên đăng nhập</t>
+          <t>Địa chỉ đón khách</t>
         </is>
       </c>
       <c r="D126" s="8" t="inlineStr">
         <is>
-          <t>0986742223</t>
+          <t>14, Nguyễn Cảnh Dị, P. Đại Kim, Q. Hoàng Mai, TP. Hà Nội</t>
         </is>
       </c>
       <c r="E126" s="8" t="inlineStr">
@@ -2027,22 +2023,22 @@
     <row r="127">
       <c r="A127" s="8" t="inlineStr">
         <is>
-          <t>Biển số</t>
+          <t>Địa chỉ trả khách</t>
         </is>
       </c>
       <c r="B127" s="8" t="inlineStr">
         <is>
-          <t>18H02810</t>
+          <t>Ngõ 40 Tạ Quang Bửu, P. Bách Khoa, Q. Hai Bà Trưng, TP. Hà Nội</t>
         </is>
       </c>
       <c r="C127" s="8" t="inlineStr">
         <is>
-          <t>Biển số</t>
+          <t>Địa chỉ trả khách</t>
         </is>
       </c>
       <c r="D127" s="8" t="inlineStr">
         <is>
-          <t>18H02810</t>
+          <t>Ngõ 40 Tạ Quang Bửu, P. Bách Khoa, Q. Hai Bà Trưng, TP. Hà Nội</t>
         </is>
       </c>
       <c r="E127" s="8" t="inlineStr">
@@ -2059,22 +2055,22 @@
     <row r="128">
       <c r="A128" s="8" t="inlineStr">
         <is>
-          <t>Số hiệu</t>
+          <t>Thời gian cuốc đặt</t>
         </is>
       </c>
       <c r="B128" s="8" t="inlineStr">
         <is>
-          <t>4133</t>
+          <t>5:43:23 28/5/2025</t>
         </is>
       </c>
       <c r="C128" s="8" t="inlineStr">
         <is>
-          <t>Số hiệu</t>
+          <t>Thời gian cuốc đặt</t>
         </is>
       </c>
       <c r="D128" s="8" t="inlineStr">
         <is>
-          <t>4133</t>
+          <t>5:43:23 28/5/2025</t>
         </is>
       </c>
       <c r="E128" s="8" t="inlineStr">
@@ -2091,18 +2087,22 @@
     <row r="129">
       <c r="A129" s="8" t="inlineStr">
         <is>
-          <t>Số điện thoại khách hàng</t>
-        </is>
-      </c>
-      <c r="B129" s="8" t="inlineStr"/>
+          <t>Thời gian cuốc kết thúc</t>
+        </is>
+      </c>
+      <c r="B129" s="8" t="inlineStr">
+        <is>
+          <t>5:43:49 28/5/2025</t>
+        </is>
+      </c>
       <c r="C129" s="8" t="inlineStr">
         <is>
-          <t>Số điện thoại khách hàng</t>
+          <t>Thời gian cuốc kết thúc</t>
         </is>
       </c>
       <c r="D129" s="8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>5:43:49 28/5/2025</t>
         </is>
       </c>
       <c r="E129" s="8" t="inlineStr">
@@ -2119,22 +2119,22 @@
     <row r="130">
       <c r="A130" s="8" t="inlineStr">
         <is>
-          <t>Địa chỉ đón khách</t>
+          <t>Số Km</t>
         </is>
       </c>
       <c r="B130" s="8" t="inlineStr">
         <is>
-          <t>60, Trần Thái Tông, P. Dịch Vọng Hậu, Q. Cầu Giấy, TP. Hà Nội</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="C130" s="8" t="inlineStr">
         <is>
-          <t>Địa chỉ đón khách</t>
+          <t>Số Km</t>
         </is>
       </c>
       <c r="D130" s="8" t="inlineStr">
         <is>
-          <t>60, Trần Thái Tông, P. Dịch Vọng Hậu, Q. Cầu Giấy, TP. Hà Nội</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E130" s="8" t="inlineStr">
@@ -2151,22 +2151,22 @@
     <row r="131">
       <c r="A131" s="8" t="inlineStr">
         <is>
-          <t>Địa chỉ trả khách</t>
+          <t>Cước di chuyển</t>
         </is>
       </c>
       <c r="B131" s="8" t="inlineStr">
         <is>
-          <t>6, Mỹ Đình, P. Mỹ Đình 2, Q. Nam Từ Liêm, TP. Hà Nội</t>
+          <t>106.000 ₫</t>
         </is>
       </c>
       <c r="C131" s="8" t="inlineStr">
         <is>
-          <t>Địa chỉ trả khách</t>
+          <t>Cước di chuyển</t>
         </is>
       </c>
       <c r="D131" s="8" t="inlineStr">
         <is>
-          <t>6, Mỹ Đình, P. Mỹ Đình 2, Q. Nam Từ Liêm, TP. Hà Nội</t>
+          <t>106000</t>
         </is>
       </c>
       <c r="E131" s="8" t="inlineStr">
@@ -2183,22 +2183,22 @@
     <row r="132">
       <c r="A132" s="8" t="inlineStr">
         <is>
-          <t>Thời gian cuốc kết thúc</t>
+          <t>Cước chờ</t>
         </is>
       </c>
       <c r="B132" s="8" t="inlineStr">
         <is>
-          <t>0:10:0 28/5/2025</t>
+          <t>0 ₫</t>
         </is>
       </c>
       <c r="C132" s="8" t="inlineStr">
         <is>
-          <t>Thời gian cuốc kết thúc</t>
+          <t>Cước chờ</t>
         </is>
       </c>
       <c r="D132" s="8" t="inlineStr">
         <is>
-          <t>0:10:0 28/5/2025</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E132" s="8" t="inlineStr">
@@ -2215,17 +2215,17 @@
     <row r="133">
       <c r="A133" s="8" t="inlineStr">
         <is>
-          <t>Số Km</t>
+          <t>Phụ phí</t>
         </is>
       </c>
       <c r="B133" s="8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C133" s="8" t="inlineStr">
         <is>
-          <t>Số Km</t>
+          <t>Phụ phí</t>
         </is>
       </c>
       <c r="D133" s="8" t="inlineStr">
@@ -2247,22 +2247,22 @@
     <row r="134">
       <c r="A134" s="8" t="inlineStr">
         <is>
-          <t>Cước di chuyển</t>
+          <t>Doanh thu</t>
         </is>
       </c>
       <c r="B134" s="8" t="inlineStr">
         <is>
-          <t>0 ₫</t>
+          <t>106.000 ₫</t>
         </is>
       </c>
       <c r="C134" s="8" t="inlineStr">
         <is>
-          <t>Cước di chuyển</t>
+          <t>Doanh thu</t>
         </is>
       </c>
       <c r="D134" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>106000</t>
         </is>
       </c>
       <c r="E134" s="8" t="inlineStr">
@@ -2279,18 +2279,18 @@
     <row r="135">
       <c r="A135" s="8" t="inlineStr">
         <is>
-          <t>Cước chờ</t>
+          <t>Thực thu</t>
         </is>
       </c>
       <c r="B135" s="8" t="inlineStr"/>
       <c r="C135" s="8" t="inlineStr">
         <is>
-          <t>Cước chờ</t>
+          <t>Thực thu</t>
         </is>
       </c>
       <c r="D135" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>106000</t>
         </is>
       </c>
       <c r="E135" s="8" t="inlineStr">
@@ -2307,18 +2307,18 @@
     <row r="136">
       <c r="A136" s="8" t="inlineStr">
         <is>
-          <t>Phụ phí</t>
+          <t>Ghi chú</t>
         </is>
       </c>
       <c r="B136" s="8" t="inlineStr"/>
       <c r="C136" s="8" t="inlineStr">
         <is>
-          <t>Phụ phí</t>
+          <t>Ghi chú</t>
         </is>
       </c>
       <c r="D136" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Trường test ghi chú tạo cuốc</t>
         </is>
       </c>
       <c r="E136" s="8" t="inlineStr">
@@ -2335,17 +2335,18 @@
     <row r="137">
       <c r="A137" s="8" t="inlineStr">
         <is>
-          <t>Doanh thu</t>
+          <t>Mã KM/Số tiền KM</t>
         </is>
       </c>
       <c r="B137" s="8" t="inlineStr">
         <is>
-          <t>0 ₫</t>
+          <t>...
+0 ₫</t>
         </is>
       </c>
       <c r="C137" s="8" t="inlineStr">
         <is>
-          <t>Doanh thu</t>
+          <t>Mã KM/Số tiền KM</t>
         </is>
       </c>
       <c r="D137" s="8" t="inlineStr">
@@ -2367,22 +2368,22 @@
     <row r="138">
       <c r="A138" s="8" t="inlineStr">
         <is>
-          <t>Tiền típ</t>
+          <t>Số tiền thanh toán</t>
         </is>
       </c>
       <c r="B138" s="8" t="inlineStr">
         <is>
-          <t>0 ₫</t>
+          <t>106.000 ₫</t>
         </is>
       </c>
       <c r="C138" s="8" t="inlineStr">
         <is>
-          <t>Tiền típ</t>
+          <t>Số tiền thanh toán</t>
         </is>
       </c>
       <c r="D138" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>106000</t>
         </is>
       </c>
       <c r="E138" s="8" t="inlineStr">
@@ -2399,18 +2400,22 @@
     <row r="139">
       <c r="A139" s="8" t="inlineStr">
         <is>
-          <t>Thực thu</t>
-        </is>
-      </c>
-      <c r="B139" s="8" t="inlineStr"/>
+          <t>Hình thức thanh toán</t>
+        </is>
+      </c>
+      <c r="B139" s="8" t="inlineStr">
+        <is>
+          <t>Tiền mặt</t>
+        </is>
+      </c>
       <c r="C139" s="8" t="inlineStr">
         <is>
-          <t>Thực thu</t>
+          <t>Hình thức thanh toán</t>
         </is>
       </c>
       <c r="D139" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Tiền mặt</t>
         </is>
       </c>
       <c r="E139" s="8" t="inlineStr">
@@ -2427,346 +2432,102 @@
     <row r="140">
       <c r="A140" s="8" t="inlineStr">
         <is>
-          <t>Ghi chú</t>
+          <t>Lộ trình</t>
         </is>
       </c>
       <c r="B140" s="8" t="inlineStr"/>
-      <c r="C140" s="8" t="inlineStr">
-        <is>
-          <t>Ghi chú</t>
-        </is>
-      </c>
-      <c r="D140" s="8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E140" s="8" t="inlineStr">
-        <is>
-          <t>U5</t>
-        </is>
-      </c>
-      <c r="F140" s="8" t="inlineStr">
-        <is>
-          <t>U6</t>
-        </is>
-      </c>
+      <c r="C140" s="8" t="inlineStr"/>
+      <c r="D140" s="8" t="inlineStr"/>
+      <c r="E140" s="8" t="inlineStr"/>
+      <c r="F140" s="8" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="8" t="inlineStr">
         <is>
-          <t>Khuyến mại</t>
+          <t>Xem hóa đơn</t>
         </is>
       </c>
       <c r="B141" s="8" t="inlineStr"/>
-      <c r="C141" s="8" t="inlineStr">
-        <is>
-          <t>Khuyến mại</t>
-        </is>
-      </c>
-      <c r="D141" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E141" s="8" t="inlineStr">
-        <is>
-          <t>V5</t>
-        </is>
-      </c>
-      <c r="F141" s="8" t="inlineStr">
-        <is>
-          <t>V6</t>
-        </is>
-      </c>
+      <c r="C141" s="8" t="inlineStr"/>
+      <c r="D141" s="8" t="inlineStr"/>
+      <c r="E141" s="8" t="inlineStr"/>
+      <c r="F141" s="8" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="8" t="inlineStr">
         <is>
-          <t>Số tiền thanh toán</t>
-        </is>
-      </c>
-      <c r="B142" s="8" t="inlineStr">
-        <is>
-          <t>0 ₫</t>
-        </is>
-      </c>
-      <c r="C142" s="8" t="inlineStr">
-        <is>
-          <t>Số tiền thanh toán</t>
-        </is>
-      </c>
-      <c r="D142" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E142" s="8" t="inlineStr">
-        <is>
-          <t>W5</t>
-        </is>
-      </c>
-      <c r="F142" s="8" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
+          <t>Xuất hóa đơn</t>
+        </is>
+      </c>
+      <c r="B142" s="8" t="inlineStr"/>
+      <c r="C142" s="8" t="inlineStr"/>
+      <c r="D142" s="8" t="inlineStr"/>
+      <c r="E142" s="8" t="inlineStr"/>
+      <c r="F142" s="8" t="inlineStr"/>
     </row>
     <row r="143">
-      <c r="A143" s="8" t="inlineStr">
-        <is>
-          <t>HTTT khi đặt cuốc</t>
-        </is>
-      </c>
-      <c r="B143" s="8" t="inlineStr">
-        <is>
-          <t>Tiền mặt</t>
-        </is>
-      </c>
-      <c r="C143" s="8" t="inlineStr">
-        <is>
-          <t>HTTT khi đặt cuốc</t>
-        </is>
-      </c>
-      <c r="D143" s="8" t="inlineStr">
-        <is>
-          <t>Thanh toán tiền mặt</t>
-        </is>
-      </c>
-      <c r="E143" s="8" t="inlineStr">
-        <is>
-          <t>X5</t>
-        </is>
-      </c>
-      <c r="F143" s="8" t="inlineStr">
-        <is>
-          <t>X6</t>
-        </is>
-      </c>
+      <c r="A143" s="8" t="inlineStr"/>
+      <c r="B143" s="8" t="inlineStr"/>
+      <c r="C143" s="8" t="inlineStr"/>
+      <c r="D143" s="8" t="inlineStr"/>
+      <c r="E143" s="8" t="inlineStr"/>
+      <c r="F143" s="8" t="inlineStr"/>
     </row>
     <row r="144">
-      <c r="A144" s="8" t="inlineStr">
-        <is>
-          <t>HTTT cuốc</t>
-        </is>
-      </c>
-      <c r="B144" s="8" t="inlineStr">
-        <is>
-          <t>Tiền mặt</t>
-        </is>
-      </c>
-      <c r="C144" s="8" t="inlineStr">
-        <is>
-          <t>HTTT cuốc</t>
-        </is>
-      </c>
-      <c r="D144" s="8" t="inlineStr">
-        <is>
-          <t>Tiền mặt</t>
-        </is>
-      </c>
-      <c r="E144" s="8" t="inlineStr">
-        <is>
-          <t>Y5</t>
-        </is>
-      </c>
-      <c r="F144" s="8" t="inlineStr">
-        <is>
-          <t>Y6</t>
-        </is>
-      </c>
+      <c r="A144" s="8" t="inlineStr"/>
+      <c r="B144" s="8" t="inlineStr"/>
+      <c r="C144" s="8" t="inlineStr"/>
+      <c r="D144" s="8" t="inlineStr"/>
+      <c r="E144" s="8" t="inlineStr"/>
+      <c r="F144" s="8" t="inlineStr"/>
     </row>
     <row r="145">
-      <c r="A145" s="8" t="inlineStr">
-        <is>
-          <t>Km có khách (GPS)</t>
-        </is>
-      </c>
-      <c r="B145" s="8" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="C145" s="8" t="inlineStr">
-        <is>
-          <t>Km có khách (GPS)</t>
-        </is>
-      </c>
-      <c r="D145" s="8" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="E145" s="8" t="inlineStr">
-        <is>
-          <t>Z5</t>
-        </is>
-      </c>
-      <c r="F145" s="8" t="inlineStr">
-        <is>
-          <t>Z6</t>
-        </is>
-      </c>
+      <c r="A145" s="8" t="inlineStr"/>
+      <c r="B145" s="8" t="inlineStr"/>
+      <c r="C145" s="8" t="inlineStr"/>
+      <c r="D145" s="8" t="inlineStr"/>
+      <c r="E145" s="8" t="inlineStr"/>
+      <c r="F145" s="8" t="inlineStr"/>
     </row>
     <row r="146">
-      <c r="A146" s="8" t="inlineStr">
-        <is>
-          <t>Biển số xe (GPS)</t>
-        </is>
-      </c>
-      <c r="B146" s="8" t="inlineStr">
-        <is>
-          <t>18H02810</t>
-        </is>
-      </c>
-      <c r="C146" s="8" t="inlineStr">
-        <is>
-          <t>Biển số xe (GPS)</t>
-        </is>
-      </c>
-      <c r="D146" s="8" t="inlineStr">
-        <is>
-          <t>18H02810</t>
-        </is>
-      </c>
-      <c r="E146" s="8" t="inlineStr">
-        <is>
-          <t>AA5</t>
-        </is>
-      </c>
-      <c r="F146" s="8" t="inlineStr">
-        <is>
-          <t>AA6</t>
-        </is>
-      </c>
+      <c r="A146" s="8" t="inlineStr"/>
+      <c r="B146" s="8" t="inlineStr"/>
+      <c r="C146" s="8" t="inlineStr"/>
+      <c r="D146" s="8" t="inlineStr"/>
+      <c r="E146" s="8" t="inlineStr"/>
+      <c r="F146" s="8" t="inlineStr"/>
     </row>
     <row r="147">
-      <c r="A147" s="8" t="inlineStr">
-        <is>
-          <t>Số hiệu (GPS)</t>
-        </is>
-      </c>
-      <c r="B147" s="8" t="inlineStr">
-        <is>
-          <t>4133</t>
-        </is>
-      </c>
-      <c r="C147" s="8" t="inlineStr">
-        <is>
-          <t>Số hiệu (GPS)</t>
-        </is>
-      </c>
-      <c r="D147" s="8" t="inlineStr">
-        <is>
-          <t>4133</t>
-        </is>
-      </c>
-      <c r="E147" s="8" t="inlineStr">
-        <is>
-          <t>AB5</t>
-        </is>
-      </c>
-      <c r="F147" s="8" t="inlineStr">
-        <is>
-          <t>AB6</t>
-        </is>
-      </c>
+      <c r="A147" s="8" t="inlineStr"/>
+      <c r="B147" s="8" t="inlineStr"/>
+      <c r="C147" s="8" t="inlineStr"/>
+      <c r="D147" s="8" t="inlineStr"/>
+      <c r="E147" s="8" t="inlineStr"/>
+      <c r="F147" s="8" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" s="8" t="inlineStr">
-        <is>
-          <t>Loại xe (GPS)</t>
-        </is>
-      </c>
-      <c r="B148" s="8" t="inlineStr">
-        <is>
-          <t>Xe 4 chỗ</t>
-        </is>
-      </c>
-      <c r="C148" s="8" t="inlineStr">
-        <is>
-          <t>Loại xe (GPS)</t>
-        </is>
-      </c>
-      <c r="D148" s="8" t="inlineStr">
-        <is>
-          <t>Xe 4 chỗ</t>
-        </is>
-      </c>
-      <c r="E148" s="8" t="inlineStr">
-        <is>
-          <t>AC5</t>
-        </is>
-      </c>
-      <c r="F148" s="8" t="inlineStr">
-        <is>
-          <t>AC6</t>
-        </is>
-      </c>
+      <c r="A148" s="8" t="inlineStr"/>
+      <c r="B148" s="8" t="inlineStr"/>
+      <c r="C148" s="8" t="inlineStr"/>
+      <c r="D148" s="8" t="inlineStr"/>
+      <c r="E148" s="8" t="inlineStr"/>
+      <c r="F148" s="8" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="A149" s="8" t="inlineStr">
-        <is>
-          <t>Thời gian đón khách (GPS)</t>
-        </is>
-      </c>
-      <c r="B149" s="8" t="inlineStr">
-        <is>
-          <t>28/5/2025 00:04:09</t>
-        </is>
-      </c>
-      <c r="C149" s="8" t="inlineStr">
-        <is>
-          <t>Thời gian đón khách (GPS)</t>
-        </is>
-      </c>
-      <c r="D149" s="8" t="inlineStr">
-        <is>
-          <t>0:4:9 28/5/2025</t>
-        </is>
-      </c>
-      <c r="E149" s="8" t="inlineStr">
-        <is>
-          <t>AD5</t>
-        </is>
-      </c>
-      <c r="F149" s="8" t="inlineStr">
-        <is>
-          <t>AD6</t>
-        </is>
-      </c>
+      <c r="A149" s="8" t="inlineStr"/>
+      <c r="B149" s="8" t="inlineStr"/>
+      <c r="C149" s="8" t="inlineStr"/>
+      <c r="D149" s="8" t="inlineStr"/>
+      <c r="E149" s="8" t="inlineStr"/>
+      <c r="F149" s="8" t="inlineStr"/>
     </row>
     <row r="150">
-      <c r="A150" s="10" t="inlineStr">
-        <is>
-          <t>Thời gian trả khách (GPS)</t>
-        </is>
-      </c>
-      <c r="B150" s="10" t="inlineStr">
-        <is>
-          <t>28/5/2025 00:10:41</t>
-        </is>
-      </c>
-      <c r="C150" s="10" t="inlineStr">
-        <is>
-          <t>Thời gian trả khách (GPS)</t>
-        </is>
-      </c>
-      <c r="D150" s="10" t="inlineStr">
-        <is>
-          <t>0:10:41 28/5/2025</t>
-        </is>
-      </c>
-      <c r="E150" s="10" t="inlineStr">
-        <is>
-          <t>AE5</t>
-        </is>
-      </c>
-      <c r="F150" s="10" t="inlineStr">
-        <is>
-          <t>AE6</t>
-        </is>
-      </c>
+      <c r="A150" s="10" t="inlineStr"/>
+      <c r="B150" s="10" t="inlineStr"/>
+      <c r="C150" s="10" t="inlineStr"/>
+      <c r="D150" s="10" t="inlineStr"/>
+      <c r="E150" s="10" t="inlineStr"/>
+      <c r="F150" s="10" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2776,7 +2537,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>28/5/2025 00:04:00</t>
+          <t>28/5/2025 00:03:00</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -2786,7 +2547,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>0:4:0 28/5/2025</t>
+          <t>0:1:0 28/5/2025</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -2808,7 +2569,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>28/5/2025 00:10:00</t>
+          <t>28/5/2025 00:09:00</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -2818,7 +2579,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>0:10:0 28/5/2025</t>
+          <t>0:19:0 28/5/2025</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -2840,7 +2601,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>60, Trần Thái Tông, P. Dịch Vọng Hậu, Q. Cầu Giấy, TP. Hà Nội</t>
+          <t>176, Nguyễn Tuân, P. Nhân Chính, Q. Thanh Xuân, TP. Hà Nội</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -2850,7 +2611,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>60, Trần Thái Tông, P. Dịch Vọng Hậu, Q. Cầu Giấy, TP. Hà Nội</t>
+          <t>Ngõ 366 Tây Sơn, P. Ngã Tư Sở, Q. Đống Đa, TP. Hà Nội</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -2872,7 +2633,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>6, Mỹ Đình, P. Mỹ Đình 2, Q. Nam Từ Liêm, TP. Hà Nội</t>
+          <t>Trần Duy Hưng, P. Trung Hòa, Q. Cầu Giấy, TP. Hà Nội</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -2882,7 +2643,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>6, Mỹ Đình, P. Mỹ Đình 2, Q. Nam Từ Liêm, TP. Hà Nội</t>
+          <t>15, Đào Duy Từ, P. Hàng Buồm, Q. Hoàn Kiếm, TP. Hà Nội</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -2904,7 +2665,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>14.62</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -2914,7 +2675,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -2936,7 +2697,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>34.000 ₫</t>
+          <t>28.000 ₫</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -2946,7 +2707,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>34000</t>
+          <t>90000</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -2968,7 +2729,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>34.000 ₫</t>
+          <t>28.000 ₫</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -2978,7 +2739,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>34000</t>
+          <t>90000</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -3010,7 +2771,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -3032,7 +2793,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3042,7 +2803,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -556,7 +556,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>auto1346</t>
+          <t>auto1387</t>
         </is>
       </c>
     </row>
@@ -604,27 +604,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[5]/td[1]/img</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[3]/td[1]/img</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[5]/td[2]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[3]/td[2]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[5]/td[3]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[3]/td[3]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[5]/td[4]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[3]/td[4]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[5]/td[5]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[3]/td[5]</t>
         </is>
       </c>
     </row>
@@ -635,11 +635,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1347</v>
+        <v>1391</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>_13062025_1347</t>
+          <t>_17062025_1391</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       <c r="B8" s="2" t="n"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15A31400</t>
+          <t>15A31592</t>
         </is>
       </c>
     </row>
@@ -664,12 +664,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>X. Quảng Thanh, H. Thủy Nguyên, TP. Hải Phòng</t>
+          <t>Làng Cẩm Hoàn, X. Thanh Sơn, H. Kiến Thụy, TP. Hải Phòng</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>X. Quảng Thanh, H. Thủy Nguyên, TP. Hải Phòng</t>
+          <t>Làng Cẩm Hoàn, X. Thanh Sơn, H. Kiến Thụy, TP. Hải Phòng</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20.96962</t>
+          <t>20.74565</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>106.6029</t>
+          <t>106.6711</t>
         </is>
       </c>
     </row>
@@ -722,12 +722,12 @@
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>02:05:24</t>
+          <t>02:04:57</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>02:05:30</t>
+          <t>02:04:57</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NGUYỄN VĂN TUẤN</t>
+          <t>ĐỖ VĂN TÙNG</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NGUYỄN VĂN TUẤN</t>
+          <t>ĐỖ VĂN TÙNG</t>
         </is>
       </c>
     </row>
@@ -846,12 +846,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0852466599</t>
+          <t>0353633998</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0852466599</t>
+          <t>0353633998</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2100001337</t>
+          <t>2100001389</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Auto1339</t>
+          <t>Auto1391</t>
         </is>
       </c>
     </row>
@@ -998,7 +998,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Auto_1340</t>
+          <t>Auto_1378</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>auto1343</t>
+          <t>auto1365</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Auto_ThongBao_1347</t>
+          <t>Auto_ThongBao_1382</t>
         </is>
       </c>
     </row>
@@ -1063,14 +1063,15 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mã cuốc khách</t>
+          <t>Xóa</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Trường "Mã cuốc khách" hiện thị đúng Mã cuốc khách đã nhập</t>
+          <t xml:space="preserve">Hiển thị messsage: "Xóa hợp đồng thành công"
+</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1134,7 @@
     <row r="47" ht="15.75" customHeight="1" s="19">
       <c r="B47" t="inlineStr">
         <is>
-          <t>09:16:45</t>
+          <t>16:11:48</t>
         </is>
       </c>
       <c r="F47" s="11" t="n">
@@ -1283,7 +1284,7 @@
     </row>
     <row r="60">
       <c r="B60" t="n">
-        <v>9</v>
+        <v>241</v>
       </c>
       <c r="F60" t="n">
         <v>100000</v>
@@ -1294,7 +1295,7 @@
     </row>
     <row r="61">
       <c r="B61" t="n">
-        <v>9</v>
+        <v>241</v>
       </c>
       <c r="F61" t="n">
         <v>18</v>
@@ -1380,7 +1381,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>9</v>
+        <v>241</v>
       </c>
       <c r="F66" t="n">
         <v>120000</v>
@@ -1510,7 +1511,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1521,7 +1522,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1555,7 @@
     </row>
     <row r="81">
       <c r="B81" t="n">
-        <v>224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1612,7 +1613,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1801,640 +1802,167 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="8" t="inlineStr">
-        <is>
-          <t>STT</t>
-        </is>
-      </c>
-      <c r="B120" s="9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C120" s="8" t="inlineStr">
-        <is>
-          <t>STT</t>
-        </is>
-      </c>
-      <c r="D120" s="8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E120" s="8" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="F120" s="8" t="inlineStr">
-        <is>
-          <t>A6</t>
-        </is>
-      </c>
+      <c r="A120" s="8" t="inlineStr"/>
+      <c r="B120" s="9" t="inlineStr"/>
+      <c r="C120" s="8" t="inlineStr"/>
+      <c r="D120" s="8" t="inlineStr"/>
+      <c r="E120" s="8" t="inlineStr"/>
+      <c r="F120" s="8" t="inlineStr"/>
     </row>
     <row r="121">
-      <c r="A121" s="8" t="inlineStr">
-        <is>
-          <t>Tên lái xe</t>
-        </is>
-      </c>
-      <c r="B121" s="8" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn Tài 90</t>
-        </is>
-      </c>
-      <c r="C121" s="8" t="inlineStr">
-        <is>
-          <t>Tên lái xe</t>
-        </is>
-      </c>
-      <c r="D121" s="8" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn Tài 90</t>
-        </is>
-      </c>
-      <c r="E121" s="8" t="inlineStr">
-        <is>
-          <t>B5</t>
-        </is>
-      </c>
-      <c r="F121" s="8" t="inlineStr">
-        <is>
-          <t>B6</t>
-        </is>
-      </c>
+      <c r="A121" s="8" t="inlineStr"/>
+      <c r="B121" s="8" t="inlineStr"/>
+      <c r="C121" s="8" t="inlineStr"/>
+      <c r="D121" s="8" t="inlineStr"/>
+      <c r="E121" s="8" t="inlineStr"/>
+      <c r="F121" s="8" t="inlineStr"/>
     </row>
     <row r="122">
-      <c r="A122" s="8" t="inlineStr">
-        <is>
-          <t>Mã lái xe</t>
-        </is>
-      </c>
-      <c r="B122" s="8" t="inlineStr">
-        <is>
-          <t>auto376</t>
-        </is>
-      </c>
-      <c r="C122" s="8" t="inlineStr">
-        <is>
-          <t>Mã lái xe</t>
-        </is>
-      </c>
-      <c r="D122" s="8" t="inlineStr">
-        <is>
-          <t>auto376</t>
-        </is>
-      </c>
-      <c r="E122" s="8" t="inlineStr">
-        <is>
-          <t>C5</t>
-        </is>
-      </c>
-      <c r="F122" s="8" t="inlineStr">
-        <is>
-          <t>C6</t>
-        </is>
-      </c>
+      <c r="A122" s="8" t="inlineStr"/>
+      <c r="B122" s="8" t="inlineStr"/>
+      <c r="C122" s="8" t="inlineStr"/>
+      <c r="D122" s="8" t="inlineStr"/>
+      <c r="E122" s="8" t="inlineStr"/>
+      <c r="F122" s="8" t="inlineStr"/>
     </row>
     <row r="123">
-      <c r="A123" s="8" t="inlineStr">
-        <is>
-          <t>Biển số</t>
-        </is>
-      </c>
-      <c r="B123" s="8" t="inlineStr">
-        <is>
-          <t>30A76818</t>
-        </is>
-      </c>
-      <c r="C123" s="8" t="inlineStr">
-        <is>
-          <t>Biển số</t>
-        </is>
-      </c>
-      <c r="D123" s="8" t="inlineStr">
-        <is>
-          <t>30A76818</t>
-        </is>
-      </c>
-      <c r="E123" s="8" t="inlineStr">
-        <is>
-          <t>D5</t>
-        </is>
-      </c>
-      <c r="F123" s="8" t="inlineStr">
-        <is>
-          <t>D6</t>
-        </is>
-      </c>
+      <c r="A123" s="8" t="inlineStr"/>
+      <c r="B123" s="8" t="inlineStr"/>
+      <c r="C123" s="8" t="inlineStr"/>
+      <c r="D123" s="8" t="inlineStr"/>
+      <c r="E123" s="8" t="inlineStr"/>
+      <c r="F123" s="8" t="inlineStr"/>
     </row>
     <row r="124">
-      <c r="A124" s="8" t="inlineStr">
-        <is>
-          <t>Số hiệu</t>
-        </is>
-      </c>
-      <c r="B124" s="8" t="inlineStr">
-        <is>
-          <t>2121</t>
-        </is>
-      </c>
-      <c r="C124" s="8" t="inlineStr">
-        <is>
-          <t>Số hiệu</t>
-        </is>
-      </c>
-      <c r="D124" s="8" t="inlineStr">
-        <is>
-          <t>2121</t>
-        </is>
-      </c>
-      <c r="E124" s="8" t="inlineStr">
-        <is>
-          <t>E5</t>
-        </is>
-      </c>
-      <c r="F124" s="8" t="inlineStr">
-        <is>
-          <t>E6</t>
-        </is>
-      </c>
+      <c r="A124" s="8" t="inlineStr"/>
+      <c r="B124" s="8" t="inlineStr"/>
+      <c r="C124" s="8" t="inlineStr"/>
+      <c r="D124" s="8" t="inlineStr"/>
+      <c r="E124" s="8" t="inlineStr"/>
+      <c r="F124" s="8" t="inlineStr"/>
     </row>
     <row r="125">
-      <c r="A125" s="8" t="inlineStr">
-        <is>
-          <t>SĐT khách hàng</t>
-        </is>
-      </c>
+      <c r="A125" s="8" t="inlineStr"/>
       <c r="B125" s="8" t="inlineStr"/>
-      <c r="C125" s="8" t="inlineStr">
-        <is>
-          <t>SĐT khách hàng</t>
-        </is>
-      </c>
-      <c r="D125" s="8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E125" s="8" t="inlineStr">
-        <is>
-          <t>F5</t>
-        </is>
-      </c>
-      <c r="F125" s="8" t="inlineStr">
-        <is>
-          <t>F6</t>
-        </is>
-      </c>
+      <c r="C125" s="8" t="inlineStr"/>
+      <c r="D125" s="8" t="inlineStr"/>
+      <c r="E125" s="8" t="inlineStr"/>
+      <c r="F125" s="8" t="inlineStr"/>
     </row>
     <row r="126">
-      <c r="A126" s="8" t="inlineStr">
-        <is>
-          <t>Địa chỉ đón khách</t>
-        </is>
-      </c>
-      <c r="B126" s="8" t="inlineStr">
-        <is>
-          <t>14, Nguyễn Cảnh Dị, P. Đại Kim, Q. Hoàng Mai, TP. Hà Nội</t>
-        </is>
-      </c>
-      <c r="C126" s="8" t="inlineStr">
-        <is>
-          <t>Địa chỉ đón khách</t>
-        </is>
-      </c>
-      <c r="D126" s="8" t="inlineStr">
-        <is>
-          <t>14, Nguyễn Cảnh Dị, P. Đại Kim, Q. Hoàng Mai, TP. Hà Nội</t>
-        </is>
-      </c>
-      <c r="E126" s="8" t="inlineStr">
-        <is>
-          <t>G5</t>
-        </is>
-      </c>
-      <c r="F126" s="8" t="inlineStr">
-        <is>
-          <t>G6</t>
-        </is>
-      </c>
+      <c r="A126" s="8" t="inlineStr"/>
+      <c r="B126" s="8" t="inlineStr"/>
+      <c r="C126" s="8" t="inlineStr"/>
+      <c r="D126" s="8" t="inlineStr"/>
+      <c r="E126" s="8" t="inlineStr"/>
+      <c r="F126" s="8" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" s="8" t="inlineStr">
-        <is>
-          <t>Địa chỉ trả khách</t>
-        </is>
-      </c>
-      <c r="B127" s="8" t="inlineStr">
-        <is>
-          <t>Ngõ 40 Tạ Quang Bửu, P. Bách Khoa, Q. Hai Bà Trưng, TP. Hà Nội</t>
-        </is>
-      </c>
-      <c r="C127" s="8" t="inlineStr">
-        <is>
-          <t>Địa chỉ trả khách</t>
-        </is>
-      </c>
-      <c r="D127" s="8" t="inlineStr">
-        <is>
-          <t>Ngõ 40 Tạ Quang Bửu, P. Bách Khoa, Q. Hai Bà Trưng, TP. Hà Nội</t>
-        </is>
-      </c>
-      <c r="E127" s="8" t="inlineStr">
-        <is>
-          <t>H5</t>
-        </is>
-      </c>
-      <c r="F127" s="8" t="inlineStr">
-        <is>
-          <t>H6</t>
-        </is>
-      </c>
+      <c r="A127" s="8" t="inlineStr"/>
+      <c r="B127" s="8" t="inlineStr"/>
+      <c r="C127" s="8" t="inlineStr"/>
+      <c r="D127" s="8" t="inlineStr"/>
+      <c r="E127" s="8" t="inlineStr"/>
+      <c r="F127" s="8" t="inlineStr"/>
     </row>
     <row r="128">
-      <c r="A128" s="8" t="inlineStr">
-        <is>
-          <t>Thời gian cuốc đặt</t>
-        </is>
-      </c>
-      <c r="B128" s="8" t="inlineStr">
-        <is>
-          <t>5:43:23 28/5/2025</t>
-        </is>
-      </c>
-      <c r="C128" s="8" t="inlineStr">
-        <is>
-          <t>Thời gian cuốc đặt</t>
-        </is>
-      </c>
-      <c r="D128" s="8" t="inlineStr">
-        <is>
-          <t>5:43:23 28/5/2025</t>
-        </is>
-      </c>
-      <c r="E128" s="8" t="inlineStr">
-        <is>
-          <t>I5</t>
-        </is>
-      </c>
-      <c r="F128" s="8" t="inlineStr">
-        <is>
-          <t>I6</t>
-        </is>
-      </c>
+      <c r="A128" s="8" t="inlineStr"/>
+      <c r="B128" s="8" t="inlineStr"/>
+      <c r="C128" s="8" t="inlineStr"/>
+      <c r="D128" s="8" t="inlineStr"/>
+      <c r="E128" s="8" t="inlineStr"/>
+      <c r="F128" s="8" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" s="8" t="inlineStr">
-        <is>
-          <t>Thời gian cuốc kết thúc</t>
-        </is>
-      </c>
-      <c r="B129" s="8" t="inlineStr">
-        <is>
-          <t>5:43:49 28/5/2025</t>
-        </is>
-      </c>
-      <c r="C129" s="8" t="inlineStr">
-        <is>
-          <t>Thời gian cuốc kết thúc</t>
-        </is>
-      </c>
-      <c r="D129" s="8" t="inlineStr">
-        <is>
-          <t>5:43:49 28/5/2025</t>
-        </is>
-      </c>
-      <c r="E129" s="8" t="inlineStr">
-        <is>
-          <t>J5</t>
-        </is>
-      </c>
-      <c r="F129" s="8" t="inlineStr">
-        <is>
-          <t>J6</t>
-        </is>
-      </c>
+      <c r="A129" s="8" t="inlineStr"/>
+      <c r="B129" s="8" t="inlineStr"/>
+      <c r="C129" s="8" t="inlineStr"/>
+      <c r="D129" s="8" t="inlineStr"/>
+      <c r="E129" s="8" t="inlineStr"/>
+      <c r="F129" s="8" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" s="8" t="inlineStr">
-        <is>
-          <t>Số Km</t>
-        </is>
-      </c>
-      <c r="B130" s="8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="C130" s="8" t="inlineStr">
-        <is>
-          <t>Số Km</t>
-        </is>
-      </c>
-      <c r="D130" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E130" s="8" t="inlineStr">
-        <is>
-          <t>K5</t>
-        </is>
-      </c>
-      <c r="F130" s="8" t="inlineStr">
-        <is>
-          <t>K6</t>
-        </is>
-      </c>
+      <c r="A130" s="8" t="inlineStr"/>
+      <c r="B130" s="8" t="inlineStr"/>
+      <c r="C130" s="8" t="inlineStr"/>
+      <c r="D130" s="8" t="inlineStr"/>
+      <c r="E130" s="8" t="inlineStr"/>
+      <c r="F130" s="8" t="inlineStr"/>
     </row>
     <row r="131">
-      <c r="A131" s="8" t="inlineStr">
-        <is>
-          <t>Cước di chuyển</t>
-        </is>
-      </c>
-      <c r="B131" s="8" t="inlineStr">
-        <is>
-          <t>106.000 ₫</t>
-        </is>
-      </c>
-      <c r="C131" s="8" t="inlineStr">
-        <is>
-          <t>Cước di chuyển</t>
-        </is>
-      </c>
-      <c r="D131" s="8" t="inlineStr">
-        <is>
-          <t>106000</t>
-        </is>
-      </c>
-      <c r="E131" s="8" t="inlineStr">
-        <is>
-          <t>L5</t>
-        </is>
-      </c>
-      <c r="F131" s="8" t="inlineStr">
-        <is>
-          <t>L6</t>
-        </is>
-      </c>
+      <c r="A131" s="8" t="inlineStr"/>
+      <c r="B131" s="8" t="inlineStr"/>
+      <c r="C131" s="8" t="inlineStr"/>
+      <c r="D131" s="8" t="inlineStr"/>
+      <c r="E131" s="8" t="inlineStr"/>
+      <c r="F131" s="8" t="inlineStr"/>
     </row>
     <row r="132">
-      <c r="A132" s="8" t="inlineStr">
-        <is>
-          <t>Cước chờ</t>
-        </is>
-      </c>
-      <c r="B132" s="8" t="inlineStr">
-        <is>
-          <t>0 ₫</t>
-        </is>
-      </c>
-      <c r="C132" s="8" t="inlineStr">
-        <is>
-          <t>Cước chờ</t>
-        </is>
-      </c>
-      <c r="D132" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E132" s="8" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-      <c r="F132" s="8" t="inlineStr">
-        <is>
-          <t>M6</t>
-        </is>
-      </c>
+      <c r="A132" s="8" t="inlineStr"/>
+      <c r="B132" s="8" t="inlineStr"/>
+      <c r="C132" s="8" t="inlineStr"/>
+      <c r="D132" s="8" t="inlineStr"/>
+      <c r="E132" s="8" t="inlineStr"/>
+      <c r="F132" s="8" t="inlineStr"/>
     </row>
     <row r="133">
-      <c r="A133" s="8" t="inlineStr">
-        <is>
-          <t>Phụ phí</t>
-        </is>
-      </c>
-      <c r="B133" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C133" s="8" t="inlineStr">
-        <is>
-          <t>Phụ phí</t>
-        </is>
-      </c>
-      <c r="D133" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E133" s="8" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-      <c r="F133" s="8" t="inlineStr">
-        <is>
-          <t>N6</t>
-        </is>
-      </c>
+      <c r="A133" s="8" t="inlineStr"/>
+      <c r="B133" s="8" t="inlineStr"/>
+      <c r="C133" s="8" t="inlineStr"/>
+      <c r="D133" s="8" t="inlineStr"/>
+      <c r="E133" s="8" t="inlineStr"/>
+      <c r="F133" s="8" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" s="8" t="inlineStr">
-        <is>
-          <t>Doanh thu</t>
-        </is>
-      </c>
-      <c r="B134" s="8" t="inlineStr">
-        <is>
-          <t>106.000 ₫</t>
-        </is>
-      </c>
-      <c r="C134" s="8" t="inlineStr">
-        <is>
-          <t>Doanh thu</t>
-        </is>
-      </c>
-      <c r="D134" s="8" t="inlineStr">
-        <is>
-          <t>106000</t>
-        </is>
-      </c>
-      <c r="E134" s="8" t="inlineStr">
-        <is>
-          <t>O5</t>
-        </is>
-      </c>
-      <c r="F134" s="8" t="inlineStr">
-        <is>
-          <t>O6</t>
-        </is>
-      </c>
+      <c r="A134" s="8" t="inlineStr"/>
+      <c r="B134" s="8" t="inlineStr"/>
+      <c r="C134" s="8" t="inlineStr"/>
+      <c r="D134" s="8" t="inlineStr"/>
+      <c r="E134" s="8" t="inlineStr"/>
+      <c r="F134" s="8" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" s="8" t="inlineStr">
-        <is>
-          <t>Thực thu</t>
-        </is>
-      </c>
+      <c r="A135" s="8" t="inlineStr"/>
       <c r="B135" s="8" t="inlineStr"/>
-      <c r="C135" s="8" t="inlineStr">
-        <is>
-          <t>Thực thu</t>
-        </is>
-      </c>
-      <c r="D135" s="8" t="inlineStr">
-        <is>
-          <t>106000</t>
-        </is>
-      </c>
-      <c r="E135" s="8" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="F135" s="8" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
+      <c r="C135" s="8" t="inlineStr"/>
+      <c r="D135" s="8" t="inlineStr"/>
+      <c r="E135" s="8" t="inlineStr"/>
+      <c r="F135" s="8" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" s="8" t="inlineStr">
-        <is>
-          <t>Ghi chú</t>
-        </is>
-      </c>
+      <c r="A136" s="8" t="inlineStr"/>
       <c r="B136" s="8" t="inlineStr"/>
-      <c r="C136" s="8" t="inlineStr">
-        <is>
-          <t>Ghi chú</t>
-        </is>
-      </c>
-      <c r="D136" s="8" t="inlineStr">
-        <is>
-          <t>Trường test ghi chú tạo cuốc</t>
-        </is>
-      </c>
-      <c r="E136" s="8" t="inlineStr">
-        <is>
-          <t>Q5</t>
-        </is>
-      </c>
-      <c r="F136" s="8" t="inlineStr">
-        <is>
-          <t>Q6</t>
-        </is>
-      </c>
+      <c r="C136" s="8" t="inlineStr"/>
+      <c r="D136" s="8" t="inlineStr"/>
+      <c r="E136" s="8" t="inlineStr"/>
+      <c r="F136" s="8" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" s="8" t="inlineStr">
-        <is>
-          <t>Mã KM/Số tiền KM</t>
-        </is>
-      </c>
-      <c r="B137" s="8" t="inlineStr">
-        <is>
-          <t>...
-0 ₫</t>
-        </is>
-      </c>
-      <c r="C137" s="8" t="inlineStr">
-        <is>
-          <t>Mã KM/Số tiền KM</t>
-        </is>
-      </c>
-      <c r="D137" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E137" s="8" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="F137" s="8" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
+      <c r="A137" s="8" t="inlineStr"/>
+      <c r="B137" s="8" t="inlineStr"/>
+      <c r="C137" s="8" t="inlineStr"/>
+      <c r="D137" s="8" t="inlineStr"/>
+      <c r="E137" s="8" t="inlineStr"/>
+      <c r="F137" s="8" t="inlineStr"/>
     </row>
     <row r="138">
-      <c r="A138" s="8" t="inlineStr">
-        <is>
-          <t>Số tiền thanh toán</t>
-        </is>
-      </c>
-      <c r="B138" s="8" t="inlineStr">
-        <is>
-          <t>106.000 ₫</t>
-        </is>
-      </c>
-      <c r="C138" s="8" t="inlineStr">
-        <is>
-          <t>Số tiền thanh toán</t>
-        </is>
-      </c>
-      <c r="D138" s="8" t="inlineStr">
-        <is>
-          <t>106000</t>
-        </is>
-      </c>
-      <c r="E138" s="8" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
-      <c r="F138" s="8" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
+      <c r="A138" s="8" t="inlineStr"/>
+      <c r="B138" s="8" t="inlineStr"/>
+      <c r="C138" s="8" t="inlineStr"/>
+      <c r="D138" s="8" t="inlineStr"/>
+      <c r="E138" s="8" t="inlineStr"/>
+      <c r="F138" s="8" t="inlineStr"/>
     </row>
     <row r="139">
-      <c r="A139" s="8" t="inlineStr">
-        <is>
-          <t>Hình thức thanh toán</t>
-        </is>
-      </c>
-      <c r="B139" s="8" t="inlineStr">
-        <is>
-          <t>Tiền mặt</t>
-        </is>
-      </c>
-      <c r="C139" s="8" t="inlineStr">
-        <is>
-          <t>Hình thức thanh toán</t>
-        </is>
-      </c>
-      <c r="D139" s="8" t="inlineStr">
-        <is>
-          <t>Tiền mặt</t>
-        </is>
-      </c>
-      <c r="E139" s="8" t="inlineStr">
-        <is>
-          <t>T5</t>
-        </is>
-      </c>
-      <c r="F139" s="8" t="inlineStr">
-        <is>
-          <t>T6</t>
-        </is>
-      </c>
+      <c r="A139" s="8" t="inlineStr"/>
+      <c r="B139" s="8" t="inlineStr"/>
+      <c r="C139" s="8" t="inlineStr"/>
+      <c r="D139" s="8" t="inlineStr"/>
+      <c r="E139" s="8" t="inlineStr"/>
+      <c r="F139" s="8" t="inlineStr"/>
     </row>
     <row r="140">
-      <c r="A140" s="8" t="inlineStr">
-        <is>
-          <t>Lộ trình</t>
-        </is>
-      </c>
+      <c r="A140" s="8" t="inlineStr"/>
       <c r="B140" s="8" t="inlineStr"/>
       <c r="C140" s="8" t="inlineStr"/>
       <c r="D140" s="8" t="inlineStr"/>
@@ -2442,11 +1970,7 @@
       <c r="F140" s="8" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" s="8" t="inlineStr">
-        <is>
-          <t>Xem hóa đơn</t>
-        </is>
-      </c>
+      <c r="A141" s="8" t="inlineStr"/>
       <c r="B141" s="8" t="inlineStr"/>
       <c r="C141" s="8" t="inlineStr"/>
       <c r="D141" s="8" t="inlineStr"/>
@@ -2454,11 +1978,7 @@
       <c r="F141" s="8" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" s="8" t="inlineStr">
-        <is>
-          <t>Xuất hóa đơn</t>
-        </is>
-      </c>
+      <c r="A142" s="8" t="inlineStr"/>
       <c r="B142" s="8" t="inlineStr"/>
       <c r="C142" s="8" t="inlineStr"/>
       <c r="D142" s="8" t="inlineStr"/>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -507,8 +507,8 @@
   </sheetPr>
   <dimension ref="A1:O337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="J158" sqref="J158"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="L137" sqref="L137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -556,7 +556,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>auto1387</t>
+          <t>auto1446</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>/Content/themes/img/RedCar.png</t>
+          <t>/Content/themes/img/BlueCar.png</t>
         </is>
       </c>
     </row>
@@ -604,27 +604,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[3]/td[1]/img</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[27]/td[1]/img</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[3]/td[2]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[27]/td[2]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[3]/td[3]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[27]/td[3]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[3]/td[4]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[27]/td[4]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[3]/td[5]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[27]/td[5]</t>
         </is>
       </c>
     </row>
@@ -635,11 +635,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1391</v>
+        <v>1455</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>_17062025_1391</t>
+          <t>_04072025_1455</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       <c r="B8" s="2" t="n"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15A31592</t>
+          <t>15A26900</t>
         </is>
       </c>
     </row>
@@ -664,12 +664,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>212</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>212</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Làng Cẩm Hoàn, X. Thanh Sơn, H. Kiến Thụy, TP. Hải Phòng</t>
+          <t>P. Hưng Đạo, Q. Dương Kinh, TP. Hải Phòng</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Làng Cẩm Hoàn, X. Thanh Sơn, H. Kiến Thụy, TP. Hải Phòng</t>
+          <t>P. Hưng Đạo, Q. Dương Kinh, TP. Hải Phòng</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20.74565</t>
+          <t>20.79632</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>106.6711</t>
+          <t>106.6786</t>
         </is>
       </c>
     </row>
@@ -722,12 +722,12 @@
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>02:04:57</t>
+          <t>01:06:17</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>02:04:57</t>
+          <t>01:06:17</t>
         </is>
       </c>
     </row>
@@ -756,12 +756,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4 chỗ Nguyễn Gia - KIA</t>
+          <t>5 chỗ Nguyễn Gia - Zinger</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4 chỗ Nguyễn Gia - KIA</t>
+          <t>5 chỗ Nguyễn Gia - Zinger</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ĐỖ VĂN TÙNG</t>
+          <t>Phạm Thanh Tuấn</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ĐỖ VĂN TÙNG</t>
+          <t>Phạm Thanh Tuấn</t>
         </is>
       </c>
     </row>
@@ -846,12 +846,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0353633998</t>
+          <t>0981828568</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0353633998</t>
+          <t>0981828568</t>
         </is>
       </c>
     </row>
@@ -875,12 +875,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>511010</t>
+          <t>605282</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>511010</t>
+          <t>605282</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2100001389</t>
+          <t>2100001448</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Auto1391</t>
+          <t>Auto1450</t>
         </is>
       </c>
     </row>
@@ -998,7 +998,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Auto_1378</t>
+          <t>Auto_1451</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>auto1365</t>
+          <t>auto1454</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Auto_ThongBao_1382</t>
+          <t>Auto_ThongBao_1455</t>
         </is>
       </c>
     </row>
@@ -1063,15 +1063,15 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Xóa</t>
+          <t>Tìm kiếm</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hiển thị messsage: "Xóa hợp đồng thành công"
-</t>
+          <t>Có dữ liệu tìm kiếm hàng đầu tiên
+(Hiển thị Tên lái xe)</t>
         </is>
       </c>
     </row>
@@ -1134,7 +1134,7 @@
     <row r="47" ht="15.75" customHeight="1" s="19">
       <c r="B47" t="inlineStr">
         <is>
-          <t>16:11:48</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="F47" s="11" t="n">
@@ -1284,7 +1284,7 @@
     </row>
     <row r="60">
       <c r="B60" t="n">
-        <v>241</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v>100000</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="61">
       <c r="B61" t="n">
-        <v>241</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>18</v>
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>241</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
         <v>120000</v>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="81">
       <c r="B81" t="n">
-        <v>0</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>238</t>
         </is>
       </c>
     </row>
@@ -1802,167 +1802,636 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="8" t="inlineStr"/>
-      <c r="B120" s="9" t="inlineStr"/>
-      <c r="C120" s="8" t="inlineStr"/>
-      <c r="D120" s="8" t="inlineStr"/>
-      <c r="E120" s="8" t="inlineStr"/>
-      <c r="F120" s="8" t="inlineStr"/>
+      <c r="A120" s="8" t="inlineStr">
+        <is>
+          <t>STT</t>
+        </is>
+      </c>
+      <c r="B120" s="9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C120" s="8" t="inlineStr">
+        <is>
+          <t>STT</t>
+        </is>
+      </c>
+      <c r="D120" s="8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E120" s="8" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="F120" s="8" t="inlineStr">
+        <is>
+          <t>A6</t>
+        </is>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" s="8" t="inlineStr"/>
-      <c r="B121" s="8" t="inlineStr"/>
-      <c r="C121" s="8" t="inlineStr"/>
-      <c r="D121" s="8" t="inlineStr"/>
-      <c r="E121" s="8" t="inlineStr"/>
-      <c r="F121" s="8" t="inlineStr"/>
+      <c r="A121" s="8" t="inlineStr">
+        <is>
+          <t>Tên lái xe</t>
+        </is>
+      </c>
+      <c r="B121" s="8" t="inlineStr">
+        <is>
+          <t>batrinh209a</t>
+        </is>
+      </c>
+      <c r="C121" s="8" t="inlineStr">
+        <is>
+          <t>Tên lái xe</t>
+        </is>
+      </c>
+      <c r="D121" s="8" t="inlineStr">
+        <is>
+          <t>batrinh209a</t>
+        </is>
+      </c>
+      <c r="E121" s="8" t="inlineStr">
+        <is>
+          <t>B5</t>
+        </is>
+      </c>
+      <c r="F121" s="8" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" s="8" t="inlineStr"/>
-      <c r="B122" s="8" t="inlineStr"/>
-      <c r="C122" s="8" t="inlineStr"/>
-      <c r="D122" s="8" t="inlineStr"/>
-      <c r="E122" s="8" t="inlineStr"/>
-      <c r="F122" s="8" t="inlineStr"/>
+      <c r="A122" s="8" t="inlineStr">
+        <is>
+          <t>Mã lái xe</t>
+        </is>
+      </c>
+      <c r="B122" s="8" t="inlineStr">
+        <is>
+          <t>batrinh209a</t>
+        </is>
+      </c>
+      <c r="C122" s="8" t="inlineStr">
+        <is>
+          <t>Mã lái xe</t>
+        </is>
+      </c>
+      <c r="D122" s="8" t="inlineStr">
+        <is>
+          <t>batrinh209a</t>
+        </is>
+      </c>
+      <c r="E122" s="8" t="inlineStr">
+        <is>
+          <t>C5</t>
+        </is>
+      </c>
+      <c r="F122" s="8" t="inlineStr">
+        <is>
+          <t>C6</t>
+        </is>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" s="8" t="inlineStr"/>
-      <c r="B123" s="8" t="inlineStr"/>
-      <c r="C123" s="8" t="inlineStr"/>
-      <c r="D123" s="8" t="inlineStr"/>
-      <c r="E123" s="8" t="inlineStr"/>
-      <c r="F123" s="8" t="inlineStr"/>
+      <c r="A123" s="8" t="inlineStr">
+        <is>
+          <t>Biển số</t>
+        </is>
+      </c>
+      <c r="B123" s="8" t="inlineStr">
+        <is>
+          <t>BATRINH</t>
+        </is>
+      </c>
+      <c r="C123" s="8" t="inlineStr">
+        <is>
+          <t>Biển số</t>
+        </is>
+      </c>
+      <c r="D123" s="8" t="inlineStr">
+        <is>
+          <t>BATRINH</t>
+        </is>
+      </c>
+      <c r="E123" s="8" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="F123" s="8" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" s="8" t="inlineStr"/>
-      <c r="B124" s="8" t="inlineStr"/>
-      <c r="C124" s="8" t="inlineStr"/>
-      <c r="D124" s="8" t="inlineStr"/>
-      <c r="E124" s="8" t="inlineStr"/>
-      <c r="F124" s="8" t="inlineStr"/>
+      <c r="A124" s="8" t="inlineStr">
+        <is>
+          <t>Số hiệu</t>
+        </is>
+      </c>
+      <c r="B124" s="8" t="inlineStr">
+        <is>
+          <t>batrinh1</t>
+        </is>
+      </c>
+      <c r="C124" s="8" t="inlineStr">
+        <is>
+          <t>Số hiệu</t>
+        </is>
+      </c>
+      <c r="D124" s="8" t="inlineStr">
+        <is>
+          <t>batrinh1</t>
+        </is>
+      </c>
+      <c r="E124" s="8" t="inlineStr">
+        <is>
+          <t>E5</t>
+        </is>
+      </c>
+      <c r="F124" s="8" t="inlineStr">
+        <is>
+          <t>E6</t>
+        </is>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" s="8" t="inlineStr"/>
+      <c r="A125" s="8" t="inlineStr">
+        <is>
+          <t>SĐT khách hàng</t>
+        </is>
+      </c>
       <c r="B125" s="8" t="inlineStr"/>
-      <c r="C125" s="8" t="inlineStr"/>
-      <c r="D125" s="8" t="inlineStr"/>
-      <c r="E125" s="8" t="inlineStr"/>
-      <c r="F125" s="8" t="inlineStr"/>
+      <c r="C125" s="8" t="inlineStr">
+        <is>
+          <t>SĐT khách hàng</t>
+        </is>
+      </c>
+      <c r="D125" s="8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E125" s="8" t="inlineStr">
+        <is>
+          <t>F5</t>
+        </is>
+      </c>
+      <c r="F125" s="8" t="inlineStr">
+        <is>
+          <t>F6</t>
+        </is>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" s="8" t="inlineStr"/>
-      <c r="B126" s="8" t="inlineStr"/>
-      <c r="C126" s="8" t="inlineStr"/>
-      <c r="D126" s="8" t="inlineStr"/>
-      <c r="E126" s="8" t="inlineStr"/>
-      <c r="F126" s="8" t="inlineStr"/>
+      <c r="A126" s="8" t="inlineStr">
+        <is>
+          <t>Địa chỉ đón khách</t>
+        </is>
+      </c>
+      <c r="B126" s="8" t="inlineStr">
+        <is>
+          <t>Đang Thi Công, Khu Đô Thị Đại Kim, P. Định Công, Q. Hoàng Mai, TP. Hà Nội</t>
+        </is>
+      </c>
+      <c r="C126" s="8" t="inlineStr">
+        <is>
+          <t>Địa chỉ đón khách</t>
+        </is>
+      </c>
+      <c r="D126" s="8" t="inlineStr">
+        <is>
+          <t>Đang Thi Công, Khu Đô Thị Đại Kim, P. Định Công, Q. Hoàng Mai, TP. Hà Nội</t>
+        </is>
+      </c>
+      <c r="E126" s="8" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
+      </c>
+      <c r="F126" s="8" t="inlineStr">
+        <is>
+          <t>G6</t>
+        </is>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" s="8" t="inlineStr"/>
-      <c r="B127" s="8" t="inlineStr"/>
-      <c r="C127" s="8" t="inlineStr"/>
-      <c r="D127" s="8" t="inlineStr"/>
-      <c r="E127" s="8" t="inlineStr"/>
-      <c r="F127" s="8" t="inlineStr"/>
+      <c r="A127" s="8" t="inlineStr">
+        <is>
+          <t>Địa chỉ trả khách</t>
+        </is>
+      </c>
+      <c r="B127" s="8" t="inlineStr">
+        <is>
+          <t>Đang Thi Công, Khu Đô Thị Đại Kim, P. Định Công, Q. Hoàng Mai, TP. Hà Nội</t>
+        </is>
+      </c>
+      <c r="C127" s="8" t="inlineStr">
+        <is>
+          <t>Địa chỉ trả khách</t>
+        </is>
+      </c>
+      <c r="D127" s="8" t="inlineStr">
+        <is>
+          <t>Đang Thi Công, Khu Đô Thị Đại Kim, P. Định Công, Q. Hoàng Mai, TP. Hà Nội</t>
+        </is>
+      </c>
+      <c r="E127" s="8" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="F127" s="8" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" s="8" t="inlineStr"/>
-      <c r="B128" s="8" t="inlineStr"/>
-      <c r="C128" s="8" t="inlineStr"/>
-      <c r="D128" s="8" t="inlineStr"/>
-      <c r="E128" s="8" t="inlineStr"/>
-      <c r="F128" s="8" t="inlineStr"/>
+      <c r="A128" s="8" t="inlineStr">
+        <is>
+          <t>Thời gian cuốc đặt</t>
+        </is>
+      </c>
+      <c r="B128" s="8" t="inlineStr">
+        <is>
+          <t>11:47:39 27/5/2025</t>
+        </is>
+      </c>
+      <c r="C128" s="8" t="inlineStr">
+        <is>
+          <t>Thời gian cuốc đặt</t>
+        </is>
+      </c>
+      <c r="D128" s="8" t="inlineStr">
+        <is>
+          <t>11:47:39 27/5/2025</t>
+        </is>
+      </c>
+      <c r="E128" s="8" t="inlineStr">
+        <is>
+          <t>I5</t>
+        </is>
+      </c>
+      <c r="F128" s="8" t="inlineStr">
+        <is>
+          <t>I6</t>
+        </is>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" s="8" t="inlineStr"/>
-      <c r="B129" s="8" t="inlineStr"/>
-      <c r="C129" s="8" t="inlineStr"/>
-      <c r="D129" s="8" t="inlineStr"/>
-      <c r="E129" s="8" t="inlineStr"/>
-      <c r="F129" s="8" t="inlineStr"/>
+      <c r="A129" s="8" t="inlineStr">
+        <is>
+          <t>Thời gian cuốc kết thúc</t>
+        </is>
+      </c>
+      <c r="B129" s="8" t="inlineStr">
+        <is>
+          <t>11:47:52 27/5/2025</t>
+        </is>
+      </c>
+      <c r="C129" s="8" t="inlineStr">
+        <is>
+          <t>Thời gian cuốc kết thúc</t>
+        </is>
+      </c>
+      <c r="D129" s="8" t="inlineStr">
+        <is>
+          <t>11:47:52 27/5/2025</t>
+        </is>
+      </c>
+      <c r="E129" s="8" t="inlineStr">
+        <is>
+          <t>J5</t>
+        </is>
+      </c>
+      <c r="F129" s="8" t="inlineStr">
+        <is>
+          <t>J6</t>
+        </is>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" s="8" t="inlineStr"/>
-      <c r="B130" s="8" t="inlineStr"/>
-      <c r="C130" s="8" t="inlineStr"/>
-      <c r="D130" s="8" t="inlineStr"/>
-      <c r="E130" s="8" t="inlineStr"/>
-      <c r="F130" s="8" t="inlineStr"/>
+      <c r="A130" s="8" t="inlineStr">
+        <is>
+          <t>Số Km</t>
+        </is>
+      </c>
+      <c r="B130" s="8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C130" s="8" t="inlineStr">
+        <is>
+          <t>Số Km</t>
+        </is>
+      </c>
+      <c r="D130" s="8" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="E130" s="8" t="inlineStr">
+        <is>
+          <t>K5</t>
+        </is>
+      </c>
+      <c r="F130" s="8" t="inlineStr">
+        <is>
+          <t>K6</t>
+        </is>
+      </c>
     </row>
     <row r="131">
-      <c r="A131" s="8" t="inlineStr"/>
-      <c r="B131" s="8" t="inlineStr"/>
-      <c r="C131" s="8" t="inlineStr"/>
-      <c r="D131" s="8" t="inlineStr"/>
-      <c r="E131" s="8" t="inlineStr"/>
-      <c r="F131" s="8" t="inlineStr"/>
+      <c r="A131" s="8" t="inlineStr">
+        <is>
+          <t>Cước di chuyển</t>
+        </is>
+      </c>
+      <c r="B131" s="8" t="inlineStr">
+        <is>
+          <t>19.000 ₫</t>
+        </is>
+      </c>
+      <c r="C131" s="8" t="inlineStr">
+        <is>
+          <t>Cước di chuyển</t>
+        </is>
+      </c>
+      <c r="D131" s="8" t="inlineStr">
+        <is>
+          <t>19000</t>
+        </is>
+      </c>
+      <c r="E131" s="8" t="inlineStr">
+        <is>
+          <t>L5</t>
+        </is>
+      </c>
+      <c r="F131" s="8" t="inlineStr">
+        <is>
+          <t>L6</t>
+        </is>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" s="8" t="inlineStr"/>
-      <c r="B132" s="8" t="inlineStr"/>
-      <c r="C132" s="8" t="inlineStr"/>
-      <c r="D132" s="8" t="inlineStr"/>
-      <c r="E132" s="8" t="inlineStr"/>
-      <c r="F132" s="8" t="inlineStr"/>
+      <c r="A132" s="8" t="inlineStr">
+        <is>
+          <t>Cước chờ</t>
+        </is>
+      </c>
+      <c r="B132" s="8" t="inlineStr">
+        <is>
+          <t>0 ₫</t>
+        </is>
+      </c>
+      <c r="C132" s="8" t="inlineStr">
+        <is>
+          <t>Cước chờ</t>
+        </is>
+      </c>
+      <c r="D132" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E132" s="8" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="F132" s="8" t="inlineStr">
+        <is>
+          <t>M6</t>
+        </is>
+      </c>
     </row>
     <row r="133">
-      <c r="A133" s="8" t="inlineStr"/>
-      <c r="B133" s="8" t="inlineStr"/>
-      <c r="C133" s="8" t="inlineStr"/>
-      <c r="D133" s="8" t="inlineStr"/>
-      <c r="E133" s="8" t="inlineStr"/>
-      <c r="F133" s="8" t="inlineStr"/>
+      <c r="A133" s="8" t="inlineStr">
+        <is>
+          <t>Phụ phí</t>
+        </is>
+      </c>
+      <c r="B133" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C133" s="8" t="inlineStr">
+        <is>
+          <t>Phụ phí</t>
+        </is>
+      </c>
+      <c r="D133" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E133" s="8" t="inlineStr">
+        <is>
+          <t>N5</t>
+        </is>
+      </c>
+      <c r="F133" s="8" t="inlineStr">
+        <is>
+          <t>N6</t>
+        </is>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" s="8" t="inlineStr"/>
-      <c r="B134" s="8" t="inlineStr"/>
-      <c r="C134" s="8" t="inlineStr"/>
-      <c r="D134" s="8" t="inlineStr"/>
-      <c r="E134" s="8" t="inlineStr"/>
-      <c r="F134" s="8" t="inlineStr"/>
+      <c r="A134" s="8" t="inlineStr">
+        <is>
+          <t>Doanh thu</t>
+        </is>
+      </c>
+      <c r="B134" s="8" t="inlineStr">
+        <is>
+          <t>19.000 ₫</t>
+        </is>
+      </c>
+      <c r="C134" s="8" t="inlineStr">
+        <is>
+          <t>Doanh thu</t>
+        </is>
+      </c>
+      <c r="D134" s="8" t="inlineStr">
+        <is>
+          <t>19000</t>
+        </is>
+      </c>
+      <c r="E134" s="8" t="inlineStr">
+        <is>
+          <t>O5</t>
+        </is>
+      </c>
+      <c r="F134" s="8" t="inlineStr">
+        <is>
+          <t>O6</t>
+        </is>
+      </c>
     </row>
     <row r="135">
-      <c r="A135" s="8" t="inlineStr"/>
+      <c r="A135" s="8" t="inlineStr">
+        <is>
+          <t>Thực thu</t>
+        </is>
+      </c>
       <c r="B135" s="8" t="inlineStr"/>
-      <c r="C135" s="8" t="inlineStr"/>
-      <c r="D135" s="8" t="inlineStr"/>
-      <c r="E135" s="8" t="inlineStr"/>
-      <c r="F135" s="8" t="inlineStr"/>
+      <c r="C135" s="8" t="inlineStr">
+        <is>
+          <t>Thực thu</t>
+        </is>
+      </c>
+      <c r="D135" s="8" t="inlineStr">
+        <is>
+          <t>19000</t>
+        </is>
+      </c>
+      <c r="E135" s="8" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="F135" s="8" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" s="8" t="inlineStr"/>
+      <c r="A136" s="8" t="inlineStr">
+        <is>
+          <t>Ghi chú</t>
+        </is>
+      </c>
       <c r="B136" s="8" t="inlineStr"/>
-      <c r="C136" s="8" t="inlineStr"/>
+      <c r="C136" s="8" t="inlineStr">
+        <is>
+          <t>Ghi chú</t>
+        </is>
+      </c>
       <c r="D136" s="8" t="inlineStr"/>
-      <c r="E136" s="8" t="inlineStr"/>
-      <c r="F136" s="8" t="inlineStr"/>
+      <c r="E136" s="8" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="F136" s="8" t="inlineStr">
+        <is>
+          <t>Q6</t>
+        </is>
+      </c>
     </row>
     <row r="137">
-      <c r="A137" s="8" t="inlineStr"/>
-      <c r="B137" s="8" t="inlineStr"/>
-      <c r="C137" s="8" t="inlineStr"/>
-      <c r="D137" s="8" t="inlineStr"/>
-      <c r="E137" s="8" t="inlineStr"/>
-      <c r="F137" s="8" t="inlineStr"/>
+      <c r="A137" s="8" t="inlineStr">
+        <is>
+          <t>Mã KM/ Số tiền KM</t>
+        </is>
+      </c>
+      <c r="B137" s="8" t="inlineStr">
+        <is>
+          <t>...
+0 ₫</t>
+        </is>
+      </c>
+      <c r="C137" s="8" t="inlineStr">
+        <is>
+          <t>Mã KM/Số tiền KM</t>
+        </is>
+      </c>
+      <c r="D137" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E137" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="F137" s="8" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
     </row>
     <row r="138">
-      <c r="A138" s="8" t="inlineStr"/>
-      <c r="B138" s="8" t="inlineStr"/>
-      <c r="C138" s="8" t="inlineStr"/>
-      <c r="D138" s="8" t="inlineStr"/>
-      <c r="E138" s="8" t="inlineStr"/>
-      <c r="F138" s="8" t="inlineStr"/>
+      <c r="A138" s="8" t="inlineStr">
+        <is>
+          <t>Số tiền thanh toán</t>
+        </is>
+      </c>
+      <c r="B138" s="8" t="inlineStr">
+        <is>
+          <t>19.000 ₫</t>
+        </is>
+      </c>
+      <c r="C138" s="8" t="inlineStr">
+        <is>
+          <t>Số tiền thanh toán</t>
+        </is>
+      </c>
+      <c r="D138" s="8" t="inlineStr">
+        <is>
+          <t>19000</t>
+        </is>
+      </c>
+      <c r="E138" s="8" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="F138" s="8" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" s="8" t="inlineStr"/>
-      <c r="B139" s="8" t="inlineStr"/>
-      <c r="C139" s="8" t="inlineStr"/>
-      <c r="D139" s="8" t="inlineStr"/>
-      <c r="E139" s="8" t="inlineStr"/>
-      <c r="F139" s="8" t="inlineStr"/>
+      <c r="A139" s="8" t="inlineStr">
+        <is>
+          <t>Hình thức thanh toán</t>
+        </is>
+      </c>
+      <c r="B139" s="8" t="inlineStr">
+        <is>
+          <t>Thanh toán qua thẻ</t>
+        </is>
+      </c>
+      <c r="C139" s="8" t="inlineStr">
+        <is>
+          <t>Hình thức thanh toán</t>
+        </is>
+      </c>
+      <c r="D139" s="8" t="inlineStr">
+        <is>
+          <t>Thanh toán qua thẻ</t>
+        </is>
+      </c>
+      <c r="E139" s="8" t="inlineStr">
+        <is>
+          <t>T5</t>
+        </is>
+      </c>
+      <c r="F139" s="8" t="inlineStr">
+        <is>
+          <t>T6</t>
+        </is>
+      </c>
     </row>
     <row r="140">
-      <c r="A140" s="8" t="inlineStr"/>
+      <c r="A140" s="8" t="inlineStr">
+        <is>
+          <t>Lộ trình</t>
+        </is>
+      </c>
       <c r="B140" s="8" t="inlineStr"/>
       <c r="C140" s="8" t="inlineStr"/>
       <c r="D140" s="8" t="inlineStr"/>
@@ -1970,7 +2439,11 @@
       <c r="F140" s="8" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" s="8" t="inlineStr"/>
+      <c r="A141" s="8" t="inlineStr">
+        <is>
+          <t>Xem hóa đơn</t>
+        </is>
+      </c>
       <c r="B141" s="8" t="inlineStr"/>
       <c r="C141" s="8" t="inlineStr"/>
       <c r="D141" s="8" t="inlineStr"/>
@@ -1978,7 +2451,11 @@
       <c r="F141" s="8" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" s="8" t="inlineStr"/>
+      <c r="A142" s="8" t="inlineStr">
+        <is>
+          <t>Xuất hóa đơn</t>
+        </is>
+      </c>
       <c r="B142" s="8" t="inlineStr"/>
       <c r="C142" s="8" t="inlineStr"/>
       <c r="D142" s="8" t="inlineStr"/>
@@ -2050,334 +2527,258 @@
       <c r="F150" s="10" t="inlineStr"/>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>HTTT cuốc</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Tiền mặt</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>AF5</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>AF6</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Ghi chú</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Test tự động đặt cuốc</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>AG5</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>AG6</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Km có khách (GPS)</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>AH5</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>AH6</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Biển số xe (GPS)</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>AI5</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>AI6</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Số hiệu (GPS)</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>AJ5</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>AJ6</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Loại xe (GPS)</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>AK5</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>AK6</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Thời gian đón khách (GPS)</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>AL5</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>AL6</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Thời gian trả khách (GPS)</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>AM5</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>AM6</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
         <is>
           <t>Thời gian đón khách (Đồng hồ - GPS)</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>28/5/2025 00:03:00</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Thời gian đón khách (Đồng hồ - GPS)</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>0:1:0 28/5/2025</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>AF5</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>AF6</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>AN5</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>AN6</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="C160" t="inlineStr">
         <is>
           <t>Thời gian trả khách (Đồng hồ - GPS)</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>28/5/2025 00:09:00</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Thời gian trả khách (Đồng hồ - GPS)</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>0:19:0 28/5/2025</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>AG5</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>AG6</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Địa điểm đón khách (GPS)</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>176, Nguyễn Tuân, P. Nhân Chính, Q. Thanh Xuân, TP. Hà Nội</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Địa điểm đón khách (GPS)</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Ngõ 366 Tây Sơn, P. Ngã Tư Sở, Q. Đống Đa, TP. Hà Nội</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>AH5</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>AH6</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Địa điểm trả khách (GPS)</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Trần Duy Hưng, P. Trung Hòa, Q. Cầu Giấy, TP. Hà Nội</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Địa điểm trả khách (GPS)</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>15, Đào Duy Từ, P. Hàng Buồm, Q. Hoàn Kiếm, TP. Hà Nội</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>AI5</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>AI6</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Km rỗng (GPS)</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>14.62</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Km rỗng (GPS)</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>AJ5</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>AJ6</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Tiền đồng hồ (GPS)</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>28.000 ₫</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Tiền đồng hồ (GPS)</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>90000</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>AK5</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>AK6</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Tiền thực thu (GPS)</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>28.000 ₫</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Tiền thực thu (GPS)</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>90000</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>AL5</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>AL6</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Thời gian chờ (GPS)</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Thời gian chờ (GPS)</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>AM5</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>AM6</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Km có khách GPS (GPS)</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Km có khách GPS (GPS)</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>AN5</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>AN6</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Biên lai/hóa đơn</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Xuất hóa đơn</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Chi tiết đề cử</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Bản đồ trước đề cử</t>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>AO5</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>AO6</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Bản đồ sau đề cử</t>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Xem</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Cuốc khách GPS</t>
-        </is>
-      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Xem</t>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -507,8 +507,8 @@
   </sheetPr>
   <dimension ref="A1:O337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="L137" sqref="L137"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -556,7 +556,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>auto1446</t>
+          <t>2024AUTO1480</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>/Content/themes/img/BlueCar.png</t>
+          <t>/Content/themes/img/RedCar.png</t>
         </is>
       </c>
     </row>
@@ -604,27 +604,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[27]/td[1]/img</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[9]/td[1]/img</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[27]/td[2]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[9]/td[2]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[27]/td[3]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[9]/td[3]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[27]/td[4]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[9]/td[4]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[27]/td[5]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[9]/td[5]</t>
         </is>
       </c>
     </row>
@@ -635,11 +635,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1455</v>
+        <v>1480</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>_04072025_1455</t>
+          <t>_09072025_1480</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       <c r="B8" s="2" t="n"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15A26900</t>
+          <t>15A32281</t>
         </is>
       </c>
     </row>
@@ -664,12 +664,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>219</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>219</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P. Hưng Đạo, Q. Dương Kinh, TP. Hải Phòng</t>
+          <t>173, Văn Cao, P. Đằng Giang, Q. Ngô Quyền, TP. Hải Phòng</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>P. Hưng Đạo, Q. Dương Kinh, TP. Hải Phòng</t>
+          <t>171, Văn Cao, P. Đằng Giang, Q. Ngô Quyền, TP. Hải Phòng</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20.79632</t>
+          <t>20.83662</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>106.6786</t>
+          <t>106.7012</t>
         </is>
       </c>
     </row>
@@ -722,12 +722,12 @@
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>01:06:17</t>
+          <t>01:05:47</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01:06:17</t>
+          <t>01:05:47</t>
         </is>
       </c>
     </row>
@@ -756,12 +756,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5 chỗ Nguyễn Gia - Zinger</t>
+          <t>5 chỗ Nguyễn Gia - VIOS</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5 chỗ Nguyễn Gia - Zinger</t>
+          <t>5 chỗ Nguyễn Gia - VIOS</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tuấn</t>
+          <t>TRẦN ĐỨC TIẾN</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tuấn</t>
+          <t>TRẦN ĐỨC TIẾN</t>
         </is>
       </c>
     </row>
@@ -846,12 +846,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0981828568</t>
+          <t>0904074490</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0981828568</t>
+          <t>0904074490</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Không kết nối</t>
+          <t>Kết nối</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2100001448</t>
+          <t>2100001478</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Auto1450</t>
+          <t>Auto1469</t>
         </is>
       </c>
     </row>
@@ -998,7 +998,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Auto_1451</t>
+          <t>Auto_1470</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>auto1454</t>
+          <t>auto1473</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Auto_ThongBao_1455</t>
+          <t>Auto_ThongBao_1474</t>
         </is>
       </c>
     </row>
@@ -1063,15 +1063,15 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tìm kiếm</t>
+          <t>Thêm mới</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Có dữ liệu tìm kiếm hàng đầu tiên
-(Hiển thị Tên lái xe)</t>
+          <t>Hiển thị message: "Thêm mới xe thành công."
+(biển số tạo ở ô ghi chú)</t>
         </is>
       </c>
     </row>
@@ -1134,7 +1134,7 @@
     <row r="47" ht="15.75" customHeight="1" s="19">
       <c r="B47" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>09:34:32</t>
         </is>
       </c>
       <c r="F47" s="11" t="n">
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="81">
       <c r="B81" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>237</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B133" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0 ₫</t>
         </is>
       </c>
       <c r="C133" s="8" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Test tự động đặt cuốc</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -507,8 +507,8 @@
   </sheetPr>
   <dimension ref="A1:O337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="H126" sqref="H126"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -556,7 +556,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>auto1795</t>
+          <t>18H03460</t>
         </is>
       </c>
     </row>
@@ -604,27 +604,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[3]/td[1]/img</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[2]/td[1]/img</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[3]/td[2]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[2]/td[2]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[3]/td[3]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[2]/td[3]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[3]/td[4]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[2]/td[4]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>//*[@class='table table-hover table-bordered']/tbody/tr[3]/td[5]</t>
+          <t>//*[@class='table table-hover table-bordered']/tbody/tr[2]/td[5]</t>
         </is>
       </c>
     </row>
@@ -635,11 +635,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1796</v>
+        <v>2177</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>_11082025_1796</t>
+          <t>_10102025_2177</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       <c r="B8" s="2" t="n"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15A34431</t>
+          <t>15A26857</t>
         </is>
       </c>
     </row>
@@ -664,12 +664,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>205</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>205</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Bùi Hướng Thành, X. Minh Tân, H. Kiến Thụy, TP. Hải Phòng</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Bùi Hướng Thành, X. Minh Tân, H. Kiến Thụy, TP. Hải Phòng</t>
+          <t>11, Bạch Đằng, P. Thủy Nguyên, , TP. Hải Phòng</t>
         </is>
       </c>
     </row>
@@ -698,7 +693,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20.75425</t>
+          <t>20.91827</t>
         </is>
       </c>
     </row>
@@ -710,7 +705,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>106.6782</t>
+          <t>106.6759</t>
         </is>
       </c>
     </row>
@@ -722,12 +717,12 @@
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>01:35:57</t>
+          <t>08:41:38</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01:35:57</t>
+          <t>08:41:38</t>
         </is>
       </c>
     </row>
@@ -739,12 +734,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -756,12 +751,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4 chỗ Nguyễn Gia - KIA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4 chỗ Nguyễn Gia - KIA</t>
+          <t>5 chỗ Nguyễn Gia - VIOS</t>
         </is>
       </c>
     </row>
@@ -781,11 +771,6 @@
           <t>Sẵn sàng</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Sẵn sàng</t>
-        </is>
-      </c>
     </row>
     <row r="17" ht="18.75" customHeight="1" s="19">
       <c r="A17" s="5" t="inlineStr">
@@ -795,7 +780,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0 (TTĐH:0;App:0;Vẫy:0)</t>
+          <t>1 (TTĐH:1;App:0;Vẫy:0)</t>
         </is>
       </c>
     </row>
@@ -810,11 +795,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="19" ht="18.75" customHeight="1" s="19">
       <c r="A19" s="4" t="inlineStr">
@@ -829,12 +809,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Lê Văn hai</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Lê Văn hai</t>
+          <t>HOÀNG VĂN NHÂN</t>
         </is>
       </c>
     </row>
@@ -846,12 +821,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0932781986</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0932781986</t>
+          <t>0906041039</t>
         </is>
       </c>
     </row>
@@ -863,7 +833,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Kết nối</t>
+          <t>Không kết nối</t>
         </is>
       </c>
     </row>
@@ -875,12 +845,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>607030</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>607030</t>
+          <t>507121</t>
         </is>
       </c>
     </row>
@@ -892,12 +857,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Auto_KM_Chung1768</t>
+          <t>Auto_KM_Chung2163</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Auto_KM_Rieng1770</t>
+          <t>Auto_KM_Rieng2164</t>
         </is>
       </c>
     </row>
@@ -909,7 +874,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2100001785</t>
+          <t>2100002074</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -926,7 +891,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Auto_CaiAppMoi1771</t>
+          <t>Auto_CaiAppMoi2141</t>
         </is>
       </c>
     </row>
@@ -938,7 +903,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Auto_account_292</t>
+          <t>Auto_account_2051</t>
         </is>
       </c>
     </row>
@@ -950,7 +915,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Auto_group_293</t>
+          <t>Auto_group_2052</t>
         </is>
       </c>
     </row>
@@ -962,7 +927,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Auto_customer_1288</t>
+          <t>Auto_customer_2143</t>
         </is>
       </c>
     </row>
@@ -974,7 +939,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Auto_name_partner_1178</t>
+          <t>Auto_name_partner_2165</t>
         </is>
       </c>
     </row>
@@ -986,7 +951,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Auto1787</t>
+          <t>Auto2167</t>
         </is>
       </c>
     </row>
@@ -998,7 +963,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Auto_1788</t>
+          <t>Auto_2177</t>
         </is>
       </c>
     </row>
@@ -1010,7 +975,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>auto1791</t>
+          <t>auto2150</t>
         </is>
       </c>
     </row>
@@ -1022,7 +987,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Auto_ThongBao_1796</t>
+          <t>Auto_ThongBao_2152</t>
         </is>
       </c>
     </row>
@@ -1034,7 +999,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Auto_ThongBaoV2_1193</t>
+          <t>Auto_ThongBaoV2_2153</t>
         </is>
       </c>
     </row>
@@ -1060,17 +1025,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Auto_2128</t>
+        </is>
+      </c>
+    </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Xuất hóa đơn - Lưu</t>
+          <t>Xuất excel</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hiển thị message: "Lưu thông tin thành công!"</t>
+          <t>1. Tải file Excel về máy
+(Chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1106,7 @@
     <row r="47" ht="15.75" customHeight="1" s="19">
       <c r="B47" t="inlineStr">
         <is>
-          <t>08:35:54</t>
+          <t>16:31:26</t>
         </is>
       </c>
       <c r="F47" s="11" t="n">
@@ -1283,7 +1256,7 @@
     </row>
     <row r="60">
       <c r="B60" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="F60" t="n">
         <v>100000</v>
@@ -1293,8 +1266,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="n">
-        <v>2</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F61" t="n">
         <v>18</v>
@@ -1380,7 +1355,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="F66" t="n">
         <v>120000</v>
@@ -1510,7 +1485,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
@@ -1521,7 +1496,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1549,12 +1524,12 @@
     </row>
     <row r="80">
       <c r="B80" t="n">
-        <v>0</v>
+        <v>528</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="n">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82">
@@ -1601,7 +1576,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>528</v>
       </c>
     </row>
     <row r="87">
@@ -1612,7 +1587,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>528</t>
         </is>
       </c>
     </row>
@@ -1800,6 +1775,13 @@
         <v>4348000</v>
       </c>
     </row>
+    <row r="110">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>C:/Users/truongtq.BA/PycharmProjects/pythonProject/s_taxi/file/</t>
+        </is>
+      </c>
+    </row>
     <row r="120">
       <c r="A120" s="8" t="inlineStr">
         <is>
@@ -1835,22 +1817,22 @@
     <row r="121">
       <c r="A121" s="8" t="inlineStr">
         <is>
-          <t>Tên khuyến mại</t>
+          <t>Công ty</t>
         </is>
       </c>
       <c r="B121" s="8" t="inlineStr">
         <is>
-          <t>Km 30%</t>
+          <t>G7 Taxi Hà Nội</t>
         </is>
       </c>
       <c r="C121" s="8" t="inlineStr">
         <is>
-          <t>Tên khuyến mại</t>
+          <t>Công ty</t>
         </is>
       </c>
       <c r="D121" s="8" t="inlineStr">
         <is>
-          <t>KM tháng 6 theo %</t>
+          <t>G7 Taxi Hà Nội</t>
         </is>
       </c>
       <c r="E121" s="8" t="inlineStr">
@@ -1867,22 +1849,22 @@
     <row r="122">
       <c r="A122" s="8" t="inlineStr">
         <is>
-          <t>Tổng tiền đã khuyến mại</t>
+          <t>Tổng số tin nhắn</t>
         </is>
       </c>
       <c r="B122" s="8" t="inlineStr">
         <is>
-          <t>465.000 ₫</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C122" s="8" t="inlineStr">
         <is>
-          <t>Tổng tiền đã khuyến mại</t>
+          <t>Tổng số tin nhắn</t>
         </is>
       </c>
       <c r="D122" s="8" t="inlineStr">
         <is>
-          <t>701.000 ₫</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E122" s="8" t="inlineStr">
@@ -1899,22 +1881,22 @@
     <row r="123">
       <c r="A123" s="8" t="inlineStr">
         <is>
-          <t>Tổng số khuyến mại đã sử dụng</t>
+          <t>Tin đăng ký</t>
         </is>
       </c>
       <c r="B123" s="8" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C123" s="8" t="inlineStr">
         <is>
-          <t>Tổng số khuyến mại đã sử dụng</t>
+          <t>Tin đăng ký</t>
         </is>
       </c>
       <c r="D123" s="8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E123" s="8" t="inlineStr">
@@ -1931,18 +1913,22 @@
     <row r="124">
       <c r="A124" s="8" t="inlineStr">
         <is>
-          <t>12/2024</t>
-        </is>
-      </c>
-      <c r="B124" s="8" t="inlineStr"/>
+          <t>Tin giới thiệu</t>
+        </is>
+      </c>
+      <c r="B124" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C124" s="8" t="inlineStr">
         <is>
-          <t>12/2024</t>
+          <t>Tin đi ngay</t>
         </is>
       </c>
       <c r="D124" s="8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E124" s="8" t="inlineStr">
@@ -1959,18 +1945,22 @@
     <row r="125">
       <c r="A125" s="8" t="inlineStr">
         <is>
-          <t>01/2025</t>
-        </is>
-      </c>
-      <c r="B125" s="8" t="inlineStr"/>
+          <t>Tin đường dài</t>
+        </is>
+      </c>
+      <c r="B125" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C125" s="8" t="inlineStr">
         <is>
-          <t>01/2025</t>
+          <t>Tin đường dài</t>
         </is>
       </c>
       <c r="D125" s="8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E125" s="8" t="inlineStr">
@@ -1987,18 +1977,22 @@
     <row r="126">
       <c r="A126" s="8" t="inlineStr">
         <is>
-          <t>02/2025</t>
-        </is>
-      </c>
-      <c r="B126" s="8" t="inlineStr"/>
+          <t>Tin sân bay</t>
+        </is>
+      </c>
+      <c r="B126" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C126" s="8" t="inlineStr">
         <is>
-          <t>02/2025</t>
+          <t>Tin sân bay</t>
         </is>
       </c>
       <c r="D126" s="8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E126" s="8" t="inlineStr">
@@ -2015,18 +2009,22 @@
     <row r="127">
       <c r="A127" s="8" t="inlineStr">
         <is>
-          <t>03/2025</t>
-        </is>
-      </c>
-      <c r="B127" s="8" t="inlineStr"/>
+          <t>Tin khác</t>
+        </is>
+      </c>
+      <c r="B127" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C127" s="8" t="inlineStr">
         <is>
-          <t>03/2025</t>
+          <t>Tin khác</t>
         </is>
       </c>
       <c r="D127" s="8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E127" s="8" t="inlineStr">
@@ -2043,18 +2041,22 @@
     <row r="128">
       <c r="A128" s="8" t="inlineStr">
         <is>
-          <t>04/2025</t>
-        </is>
-      </c>
-      <c r="B128" s="8" t="inlineStr"/>
+          <t>Tin OTP mã pin</t>
+        </is>
+      </c>
+      <c r="B128" s="8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="C128" s="8" t="inlineStr">
         <is>
-          <t>04/2025</t>
+          <t>Tin OTP mã pin</t>
         </is>
       </c>
       <c r="D128" s="8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E128" s="8" t="inlineStr">
@@ -2069,127 +2071,39 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="8" t="inlineStr">
-        <is>
-          <t>05/2025</t>
-        </is>
-      </c>
+      <c r="A129" s="8" t="inlineStr"/>
       <c r="B129" s="8" t="inlineStr"/>
-      <c r="C129" s="8" t="inlineStr">
-        <is>
-          <t>05/2025</t>
-        </is>
-      </c>
-      <c r="D129" s="8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E129" s="8" t="inlineStr">
-        <is>
-          <t>J5</t>
-        </is>
-      </c>
-      <c r="F129" s="8" t="inlineStr">
-        <is>
-          <t>J6</t>
-        </is>
-      </c>
+      <c r="C129" s="8" t="inlineStr"/>
+      <c r="D129" s="8" t="inlineStr"/>
+      <c r="E129" s="8" t="inlineStr"/>
+      <c r="F129" s="8" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" s="8" t="inlineStr">
-        <is>
-          <t>06/2025</t>
-        </is>
-      </c>
+      <c r="A130" s="8" t="inlineStr"/>
       <c r="B130" s="8" t="inlineStr"/>
-      <c r="C130" s="8" t="inlineStr">
-        <is>
-          <t>06/2025</t>
-        </is>
-      </c>
-      <c r="D130" s="8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E130" s="8" t="inlineStr">
-        <is>
-          <t>K5</t>
-        </is>
-      </c>
-      <c r="F130" s="8" t="inlineStr">
-        <is>
-          <t>K6</t>
-        </is>
-      </c>
+      <c r="C130" s="8" t="inlineStr"/>
+      <c r="D130" s="8" t="inlineStr"/>
+      <c r="E130" s="8" t="inlineStr"/>
+      <c r="F130" s="8" t="inlineStr"/>
     </row>
     <row r="131">
-      <c r="A131" s="8" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="B131" s="8" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="C131" s="8" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="D131" s="8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E131" s="8" t="inlineStr">
-        <is>
-          <t>L5</t>
-        </is>
-      </c>
-      <c r="F131" s="8" t="inlineStr">
-        <is>
-          <t>L6</t>
-        </is>
-      </c>
+      <c r="A131" s="8" t="inlineStr"/>
+      <c r="B131" s="8" t="inlineStr"/>
+      <c r="C131" s="8" t="inlineStr"/>
+      <c r="D131" s="8" t="inlineStr"/>
+      <c r="E131" s="8" t="inlineStr"/>
+      <c r="F131" s="8" t="inlineStr"/>
     </row>
     <row r="132">
-      <c r="A132" s="8" t="inlineStr">
-        <is>
-          <t>08/2025</t>
-        </is>
-      </c>
+      <c r="A132" s="8" t="inlineStr"/>
       <c r="B132" s="8" t="inlineStr"/>
-      <c r="C132" s="8" t="inlineStr">
-        <is>
-          <t>08/2025</t>
-        </is>
-      </c>
-      <c r="D132" s="8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E132" s="8" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-      <c r="F132" s="8" t="inlineStr">
-        <is>
-          <t>M6</t>
-        </is>
-      </c>
+      <c r="C132" s="8" t="inlineStr"/>
+      <c r="D132" s="8" t="inlineStr"/>
+      <c r="E132" s="8" t="inlineStr"/>
+      <c r="F132" s="8" t="inlineStr"/>
     </row>
     <row r="133">
-      <c r="A133" s="8" t="inlineStr">
-        <is>
-          <t>09/2025</t>
-        </is>
-      </c>
+      <c r="A133" s="8" t="inlineStr"/>
       <c r="B133" s="8" t="inlineStr"/>
       <c r="C133" s="8" t="inlineStr"/>
       <c r="D133" s="8" t="inlineStr"/>
@@ -2197,11 +2111,7 @@
       <c r="F133" s="8" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" s="8" t="inlineStr">
-        <is>
-          <t>10/2025</t>
-        </is>
-      </c>
+      <c r="A134" s="8" t="inlineStr"/>
       <c r="B134" s="8" t="inlineStr"/>
       <c r="C134" s="8" t="inlineStr"/>
       <c r="D134" s="8" t="inlineStr"/>
@@ -2209,11 +2119,7 @@
       <c r="F134" s="8" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" s="8" t="inlineStr">
-        <is>
-          <t>11/2025</t>
-        </is>
-      </c>
+      <c r="A135" s="8" t="inlineStr"/>
       <c r="B135" s="8" t="inlineStr"/>
       <c r="C135" s="8" t="inlineStr"/>
       <c r="D135" s="8" t="inlineStr"/>
@@ -2221,11 +2127,7 @@
       <c r="F135" s="8" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" s="8" t="inlineStr">
-        <is>
-          <t>12/2025</t>
-        </is>
-      </c>
+      <c r="A136" s="8" t="inlineStr"/>
       <c r="B136" s="8" t="inlineStr"/>
       <c r="C136" s="8" t="inlineStr"/>
       <c r="D136" s="8" t="inlineStr"/>
@@ -2233,11 +2135,7 @@
       <c r="F136" s="8" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" s="8" t="inlineStr">
-        <is>
-          <t>01/2026</t>
-        </is>
-      </c>
+      <c r="A137" s="8" t="inlineStr"/>
       <c r="B137" s="8" t="inlineStr"/>
       <c r="C137" s="8" t="inlineStr"/>
       <c r="D137" s="8" t="inlineStr"/>
@@ -2245,11 +2143,7 @@
       <c r="F137" s="8" t="inlineStr"/>
     </row>
     <row r="138">
-      <c r="A138" s="8" t="inlineStr">
-        <is>
-          <t>02/2026</t>
-        </is>
-      </c>
+      <c r="A138" s="8" t="inlineStr"/>
       <c r="B138" s="8" t="inlineStr"/>
       <c r="C138" s="8" t="inlineStr"/>
       <c r="D138" s="8" t="inlineStr"/>
@@ -2257,11 +2151,7 @@
       <c r="F138" s="8" t="inlineStr"/>
     </row>
     <row r="139">
-      <c r="A139" s="8" t="inlineStr">
-        <is>
-          <t>03/2026</t>
-        </is>
-      </c>
+      <c r="A139" s="8" t="inlineStr"/>
       <c r="B139" s="8" t="inlineStr"/>
       <c r="C139" s="8" t="inlineStr"/>
       <c r="D139" s="8" t="inlineStr"/>
@@ -2269,11 +2159,7 @@
       <c r="F139" s="8" t="inlineStr"/>
     </row>
     <row r="140">
-      <c r="A140" s="8" t="inlineStr">
-        <is>
-          <t>04/2026</t>
-        </is>
-      </c>
+      <c r="A140" s="8" t="inlineStr"/>
       <c r="B140" s="8" t="inlineStr"/>
       <c r="C140" s="8" t="inlineStr"/>
       <c r="D140" s="8" t="inlineStr"/>
@@ -2281,11 +2167,7 @@
       <c r="F140" s="8" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" s="8" t="inlineStr">
-        <is>
-          <t>05/2026</t>
-        </is>
-      </c>
+      <c r="A141" s="8" t="inlineStr"/>
       <c r="B141" s="8" t="inlineStr"/>
       <c r="C141" s="8" t="inlineStr"/>
       <c r="D141" s="8" t="inlineStr"/>
@@ -2367,17 +2249,22 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>07/08</t>
+          <t>04/09</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>HTTT cuốc</t>
+          <t>04/09</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Tiền mặt</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -2394,12 +2281,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>08/08</t>
+          <t>05/09</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Ghi chú</t>
+          <t>05/09</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -2416,17 +2308,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>09/08</t>
+          <t>06/09</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Km có khách (GPS)</t>
+          <t>06/09</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -2443,12 +2335,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>10/08</t>
+          <t>07/09</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Biển số xe (GPS)</t>
+          <t>07/09</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -2470,12 +2362,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>11/08</t>
+          <t>08/09</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Số hiệu (GPS)</t>
+          <t>08/09</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -2497,12 +2389,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>12/08</t>
+          <t>09/09</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Loại xe (GPS)</t>
+          <t>09/09</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -2522,9 +2414,9 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>13/08</t>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -2549,9 +2441,9 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>14/08</t>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -2576,11 +2468,6 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>15/08</t>
-        </is>
-      </c>
       <c r="C159" t="inlineStr">
         <is>
           <t>Thời gian đón khách (Đồng hồ - GPS)</t>
@@ -2603,11 +2490,6 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>16/08</t>
-        </is>
-      </c>
       <c r="C160" t="inlineStr">
         <is>
           <t>Thời gian trả khách (Đồng hồ - GPS)</t>
@@ -2629,66 +2511,62 @@
         </is>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>17/08</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>18/08</t>
-        </is>
-      </c>
-    </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>19/08</t>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Xem</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>20/08</t>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Xem</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>21/08</t>
+          <t>Cuốc khách GPS</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Xem</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>22/08</t>
+          <t>Lộ trình GPS</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xem </t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>23/08</t>
+          <t>22/01</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>24/08</t>
+          <t>23/01</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>25/08</t>
+          <t>24/01</t>
         </is>
       </c>
     </row>
@@ -2699,9 +2577,13 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>400000</v>
-      </c>
-      <c r="D170" s="16" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="D170" s="16" t="inlineStr">
+        <is>
+          <t>Không tìm thấy thẻ</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -2710,7 +2592,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>400000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -2720,12 +2602,16 @@
         </is>
       </c>
       <c r="B172" s="17" t="n">
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="C172" t="n">
         <v>2</v>
       </c>
-      <c r="D172" s="16" t="n"/>
+      <c r="D172" s="16" t="inlineStr">
+        <is>
+          <t>Không tìm thấy thẻ</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="17" t="inlineStr">
@@ -2760,7 +2646,7 @@
         </is>
       </c>
       <c r="B175" s="17" t="n">
-        <v>-400000</v>
+        <v>0</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
@@ -2773,7 +2659,7 @@
         </is>
       </c>
       <c r="B176" s="17" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -2783,12 +2669,16 @@
         </is>
       </c>
       <c r="B177" s="17" t="n">
-        <v>-400000</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
         <v>1</v>
       </c>
-      <c r="D177" s="16" t="n"/>
+      <c r="D177" s="16" t="inlineStr">
+        <is>
+          <t>Không tìm thấy thẻ</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="17" t="inlineStr">
@@ -2797,7 +2687,7 @@
         </is>
       </c>
       <c r="B178" s="17" t="n">
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="C178" t="n">
         <v>2</v>
@@ -2822,8 +2712,10 @@
           <t>thẻ sau4: 7.7.5 Số tiền 1 serial</t>
         </is>
       </c>
-      <c r="B180" s="17" t="n">
-        <v>0</v>
+      <c r="B180" s="17" t="inlineStr">
+        <is>
+          <t>151000</t>
+        </is>
       </c>
       <c r="C180" t="n">
         <v>1</v>
@@ -2849,7 +2741,7 @@
         </is>
       </c>
       <c r="B182" s="17" t="n">
-        <v>0</v>
+        <v>151000</v>
       </c>
       <c r="C182" t="n">
         <v>3</v>
@@ -2861,17 +2753,15 @@
           <t>thẻ sau4: 7.7.5 Số tiền hợp đồng</t>
         </is>
       </c>
-      <c r="B183" s="17" t="n">
-        <v>0</v>
+      <c r="B183" s="17" t="inlineStr">
+        <is>
+          <t>151000</t>
+        </is>
       </c>
       <c r="C183" t="n">
         <v>4</v>
       </c>
-      <c r="D183" s="16" t="inlineStr">
-        <is>
-          <t>Không tìm thấy thẻ</t>
-        </is>
-      </c>
+      <c r="D183" s="16" t="n"/>
     </row>
     <row r="184">
       <c r="B184" t="n">
@@ -2896,11 +2786,6 @@
           <t>Tên cấu hình(10.6.3)</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -2908,11 +2793,7 @@
           <t>Mã serial(7.7.4)</t>
         </is>
       </c>
-      <c r="B191" s="18" t="inlineStr">
-        <is>
-          <t>8888999966949781</t>
-        </is>
-      </c>
+      <c r="B191" s="18" t="n"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -2920,11 +2801,6 @@
           <t>Mất bản ghi (7.7.4)</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Đã mất bản ghi</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -2932,11 +2808,6 @@
           <t>Mã phiếu chôt(7.7.4)</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>G7_0009163</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -2944,10 +2815,8 @@
           <t>Tổng tiền chốt(7.7.4)</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>214.000</t>
-        </is>
+      <c r="B194" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -2956,11 +2825,6 @@
           <t>Mã công nợ(7.7.5)</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>G7_0009163</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -2968,11 +2832,6 @@
           <t>Mã hợp đồng(7.7.5)</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>G7_0009</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -2980,11 +2839,7 @@
           <t>T.gian chốt(7.7.5)</t>
         </is>
       </c>
-      <c r="B198" s="2" t="inlineStr">
-        <is>
-          <t>16:01:26 - 12/05/2025</t>
-        </is>
-      </c>
+      <c r="B198" s="2" t="n"/>
       <c r="C198" s="2" t="n"/>
     </row>
     <row r="199">
@@ -2993,10 +2848,8 @@
           <t>S.tiền nợ chốt(7.7.5)</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>214.000 ₫</t>
-        </is>
+      <c r="B199" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -3005,11 +2858,6 @@
           <t>T.thái phiếu(7.7.5)</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Đã chốt</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -3017,11 +2865,6 @@
           <t>T.thái t.toán(7.7.5)</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Chưa thanh toán</t>
-        </is>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -3029,11 +2872,6 @@
           <t>Người chốt(7.7.5)</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>autoba</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -3048,11 +2886,6 @@
           <t>Mã công nợ(7.7.6)</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>G7_0009163</t>
-        </is>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -3060,11 +2893,6 @@
           <t>Mã hợp đồng(7.7.6)</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>G7_0009</t>
-        </is>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -3072,11 +2900,7 @@
           <t>Thời gian thao tác(7.7.6)</t>
         </is>
       </c>
-      <c r="B207" s="2" t="inlineStr">
-        <is>
-          <t>16:1:26 12/5/2025</t>
-        </is>
-      </c>
+      <c r="B207" s="2" t="n"/>
       <c r="C207" s="2" t="n"/>
     </row>
     <row r="208">
@@ -3085,11 +2909,6 @@
           <t>Người thao tác(7.7.6)</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>autoba</t>
-        </is>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -3097,10 +2916,8 @@
           <t>Tổng nợ(7.7.6)</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>214.000 ₫</t>
-        </is>
+      <c r="B209" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -3109,11 +2926,6 @@
           <t>Loại thao tác(7.7.6)</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Chốt</t>
-        </is>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -3415,6 +3227,47 @@
       <c r="A238" t="inlineStr">
         <is>
           <t>Mất thẻ(7.7.3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Cho phép tạo</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="B251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Không dữ liệu</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="B253" t="n">
+        <v>142000</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="B254" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="B255" t="n">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="B256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chờ xác nhận, </t>
         </is>
       </c>
     </row>
